--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70425F5F-3DA7-4F80-B5FD-3178A9692CB6}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D4DFD7-8694-43C8-B147-37FB640B5CAB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="488">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1439,200 +1439,28 @@
     <t>STATus:QUEStionable[:EVENt]?</t>
   </si>
   <si>
-    <t>print(dmm.measure.func, dmm.measure.range, dmm.measure.displaydigits)
-print(dmm.digitize.func, dmm.digitize.range dmm.measure.displaydigits)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmm.measure.func = dmm.FUNC_CAPACITANCE
-dmm.measure.range = 
-dmm.measure.displaydigits = </t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_CONTINUITY</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DC|AC_CURRENT
-dmm.measure.range = 
-dmm.measure.displaydigits =</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DIODE</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_ACV_FREQUENCY|PERIOD
-dmm.measure.range =
-dmm.measure.displaydigits =</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC _RESISTANCE|4W_RESISTANCE
-dmm.measure.range =
-dmm.measure.displaydigits =</t>
-  </si>
-  <si>
     <t>Check some of these parameters</t>
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>dmm.measure.displaydigits =</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DC|AC_VOLTAGE
-dmm.measure.range = 
-dmm.measure.displaydigits =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmm.measure.func = dmm.FUNC_DCV_AUTO
-dmm.measure.range =
-dmm.measure.displaydigits = </t>
-  </si>
-  <si>
-    <t>DMM6500 TSP</t>
   </si>
   <si>
     <t>Resolution Ignored and set to 4.5 digits
 Figure out how reading buffers should be handled</t>
   </si>
   <si>
-    <t>dmm.measure.func = dmm.FUNC_CAPACITANCE
-dmm.measure.range =
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_CONTINUITY
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DIODE
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_ACV_FREQUENCY|PERIOD
-dmm.measure.range =
-dmm.measure.displaydigits =
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_RESISTANCE|4W_RESISTANCE
-dmm.measure.range =
-dmm.measure.displaydigits =
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmm.measure.func = dmm.FUNC_TEMPERATURE
-dmm.measure.termistor =
-dmm.measure.thermocouple =
-dmm.measure.displaydigits = </t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_TEMPERATURE
-dmm.measure.thermistor =
-dmm.measure.thermocouple =
-dmm.measure.displaydigits =
-dmm.measure.read()</t>
-  </si>
-  <si>
     <t>Resolution ignored for AC and set to 6.5 digits</t>
   </si>
   <si>
-    <t>dmm.measure.func = dmm.FUNC_DC|AC_VOLTAGE
-dmm.measure.range = 
-dmm.measure.displaydigits =
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DCV_AUTO
-dmm.measure.range =
-dmm.measure.displaydigits = 
-dmm.measure.read()</t>
-  </si>
-  <si>
-    <t>dmm.measure.func =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmm.measure.range = </t>
-  </si>
-  <si>
-    <t>dmm.measure.range = 
-dmm.measure.displaydigits =</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.func)</t>
-  </si>
-  <si>
     <t>Options are slightly different</t>
   </si>
   <si>
-    <t>dmm.measure.detectorbandwidth =</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.detectorbandwidth)</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.rel.enable)</t>
-  </si>
-  <si>
-    <t>dmm.measure.rel.enable =</t>
-  </si>
-  <si>
-    <t>dmm.measure.rel.level =</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.rel.level)</t>
-  </si>
-  <si>
-    <t>6500 more limited range</t>
-  </si>
-  <si>
-    <t>print(relAutoState)</t>
-  </si>
-  <si>
     <t>Will need to have an auto state, should this also turn rel on?</t>
   </si>
   <si>
-    <t>if dmm.measure.rel.enable do
-    dmm.measure.rel.acquire()
-end</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.range)</t>
-  </si>
-  <si>
-    <t>dmm.measure.autorange =</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.autorange)</t>
-  </si>
-  <si>
-    <t>dmm.measure.nplc =</t>
-  </si>
-  <si>
     <t>34461 Does not have this option</t>
   </si>
   <si>
-    <t>print(dmm.measure.nplc)</t>
-  </si>
-  <si>
-    <t>Should we change displayed digits as well?
-Parameter range is more limited on 6500</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.displaydigits)</t>
-  </si>
-  <si>
-    <t>dmm.measure.autozero.enable|dmm.measure.autozero.once()</t>
-  </si>
-  <si>
-    <t>print(dmm.measure.autozero.enable)</t>
-  </si>
-  <si>
-    <t>dmm.measure.func = dmm.FUNC_DC|AC_CURRENT
-dmm.measure.range =
-dmm.measure.displaydigits =
-dmm.measure.read()</t>
-  </si>
-  <si>
     <t>Display digits ignored fixed at 4.5 dig</t>
   </si>
   <si>
@@ -1643,6 +1471,27 @@
   </si>
   <si>
     <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>6500 more limited range, -1000 to 1000</t>
+  </si>
+  <si>
+    <t>Not currently supported</t>
+  </si>
+  <si>
+    <t>No true secondary function on 6500</t>
+  </si>
+  <si>
+    <t>Not available on 6500</t>
+  </si>
+  <si>
+    <t>NPLC is more limited on 6500</t>
+  </si>
+  <si>
+    <t>Once only works if current function matches</t>
   </si>
 </sst>
 </file>
@@ -1876,26 +1725,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1912,9 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1924,22 +1760,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,26 +1772,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2009,7 +1818,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -2049,21 +1858,41 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2081,46 +1910,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2424,1066 +2213,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F525"/>
+  <dimension ref="A1:E525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D534" sqref="D533:D534"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="94" customWidth="1"/>
-    <col min="5" max="5" width="91.140625" customWidth="1"/>
-    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1" s="40"/>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>481</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="21" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="28" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="15" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="F14" s="13" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="17" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B58" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="F40" s="36"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="36"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="36"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B45" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B46" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B48" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="F51" s="36"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="36"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="36"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C54" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="F54" s="36"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="F55" s="36"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B57" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B58" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C58" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B59" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C59" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="18" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
       <c r="D64" t="s">
         <v>60</v>
       </c>
@@ -5795,33 +5471,17 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A12 A24:A25 A27:A59 A14:A22">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A3:C12 A14:C22 A24:C25 A27:C59">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B12 B24:B25 B27:B59 B14:B22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C12 C24:C25 C27:C59 C14:C22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D4DFD7-8694-43C8-B147-37FB640B5CAB}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9FE610-6918-489A-A89E-385EFCFF74C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="497">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1455,6 +1456,9 @@
     <t>Options are slightly different</t>
   </si>
   <si>
+    <t>6500 more limited range</t>
+  </si>
+  <si>
     <t>Will need to have an auto state, should this also turn rel on?</t>
   </si>
   <si>
@@ -1476,9 +1480,6 @@
     <t>Implemented</t>
   </si>
   <si>
-    <t>6500 more limited range, -1000 to 1000</t>
-  </si>
-  <si>
     <t>Not currently supported</t>
   </si>
   <si>
@@ -1492,6 +1493,33 @@
   </si>
   <si>
     <t>Once only works if current function matches</t>
+  </si>
+  <si>
+    <t>Range more limited on 6500 for AC</t>
+  </si>
+  <si>
+    <t>Todo:</t>
+  </si>
+  <si>
+    <t>Add command support</t>
+  </si>
+  <si>
+    <t>Clean and improve comments</t>
+  </si>
+  <si>
+    <t>Include Errorqueue</t>
+  </si>
+  <si>
+    <t>Review Error numbers in parser functions ensuring having wrong parameter type is handled correctly</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Cull Unused variables/functions</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1888,11 +1916,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1910,6 +1953,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2215,9 +2288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,13 +2304,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2248,7 +2321,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41"/>
@@ -2286,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2605,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,10 +2856,12 @@
       <c r="C38" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="7" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="b">
@@ -2881,7 +2956,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2898,7 +2973,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2915,7 +2990,7 @@
         <v>40</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5478,6 +5553,98 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C12 A14:C22 A24:C25 A27:C59">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
+        <v>45972</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>45972</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>45972</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>45972</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>45972</v>
+      </c>
+      <c r="B6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9FE610-6918-489A-A89E-385EFCFF74C5}"/>
+  <xr:revisionPtr revIDLastSave="899" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BDD3B6-1661-4468-ABA9-BB3D3A4EB137}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="505">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1477,9 +1478,6 @@
     <t>Abbreviations</t>
   </si>
   <si>
-    <t>Implemented</t>
-  </si>
-  <si>
     <t>Not currently supported</t>
   </si>
   <si>
@@ -1520,12 +1518,40 @@
   </si>
   <si>
     <t>Cull Unused variables/functions</t>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Should display Keithly or Keysight??</t>
+  </si>
+  <si>
+    <t>Ratio shares all config variables with DCV</t>
+  </si>
+  <si>
+    <t>MEASure? Support</t>
+  </si>
+  <si>
+    <t>Remove Dev Features</t>
+  </si>
+  <si>
+    <t>Loadscript onto instrument</t>
+  </si>
+  <si>
+    <t>Quality Readme</t>
+  </si>
+  <si>
+    <t>Partially implemented, will need to be continuously updated
+Does not support buffers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1543,7 +1569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1586,8 +1612,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1749,11 +1787,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1808,6 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1887,17 +1941,6 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1912,14 +1955,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
       <extLst>
@@ -1931,11 +1969,61 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1953,6 +2041,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1977,19 +2107,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{2008A3F9-383F-4862-93F4-F95837752461}">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFDA9A9"/>
+      <color rgb="FFFD9191"/>
       <color rgb="FFFCCECE"/>
       <color rgb="FFFE9898"/>
       <color rgb="FFFD7777"/>
@@ -2288,9 +2429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E525"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,14 +2444,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>482</v>
+      <c r="C1" s="38" t="s">
+        <v>496</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2320,24 +2461,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="b">
+      <c r="A3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="b">
+      <c r="B3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="b">
+      <c r="C3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2346,13 +2487,13 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31" t="b">
+      <c r="A4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -2363,13 +2504,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="b">
+      <c r="A5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -2378,13 +2519,13 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31" t="b">
+      <c r="A6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -2393,13 +2534,13 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="b">
+      <c r="A7" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -2408,13 +2549,13 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="31" t="b">
+      <c r="A8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2423,13 +2564,13 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="31" t="b">
+      <c r="A9" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2438,13 +2579,13 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="31" t="b">
+      <c r="A10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -2455,14 +2596,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="b">
+      <c r="A11" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="31" t="b">
-        <v>0</v>
+      <c r="B11" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>10</v>
@@ -2472,34 +2613,34 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="b">
+      <c r="A12" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28" t="b">
+      <c r="A14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2510,13 +2651,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="31" t="b">
+      <c r="A15" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2525,13 +2666,13 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="31" t="b">
+      <c r="A16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2540,13 +2681,13 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="31" t="b">
+      <c r="A17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2555,13 +2696,13 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31" t="b">
+      <c r="A18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2570,13 +2711,13 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="31" t="b">
+      <c r="A19" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2585,13 +2726,13 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="31" t="b">
+      <c r="A20" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2600,13 +2741,13 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="31" t="b">
+      <c r="A21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="32" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2617,13 +2758,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="34" t="b">
+      <c r="A22" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="35" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2632,19 +2773,19 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="28" t="b">
+      <c r="A24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2653,14 +2794,14 @@
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="b">
+      <c r="A25" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="34" t="b">
-        <v>0</v>
+      <c r="B25" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="35" t="b">
+        <v>1</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>23</v>
@@ -2668,51 +2809,53 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="b">
+      <c r="A27" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="27" t="b">
+      <c r="B27" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="28" t="b">
+      <c r="C27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="b">
+      <c r="A28" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="31" t="b">
-        <v>0</v>
+      <c r="B28" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="22" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="b">
+      <c r="A29" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B29" s="30" t="b">
+      <c r="B29" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C29" s="31" t="b">
+      <c r="C29" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -2721,13 +2864,13 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="b">
+      <c r="A30" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="30" t="b">
+      <c r="B30" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="31" t="b">
+      <c r="C30" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2738,13 +2881,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="b">
+      <c r="A31" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="30" t="b">
+      <c r="B31" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="31" t="b">
+      <c r="C31" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2753,13 +2896,13 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="b">
+      <c r="A32" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="30" t="b">
+      <c r="B32" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="31" t="b">
+      <c r="C32" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2768,13 +2911,13 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="b">
+      <c r="A33" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="b">
+      <c r="B33" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="31" t="b">
+      <c r="C33" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2783,13 +2926,13 @@
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="b">
+      <c r="A34" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="30" t="b">
+      <c r="B34" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C34" s="31" t="b">
+      <c r="C34" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -2800,13 +2943,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="b">
+      <c r="A35" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B35" s="30" t="b">
+      <c r="B35" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C35" s="31" t="b">
+      <c r="C35" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -2815,13 +2958,13 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="b">
+      <c r="A36" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="30" t="b">
+      <c r="B36" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="31" t="b">
+      <c r="C36" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -2832,13 +2975,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="b">
+      <c r="A37" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="30" t="b">
+      <c r="B37" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C37" s="31" t="b">
+      <c r="C37" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -2847,30 +2990,30 @@
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="b">
+      <c r="A38" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="30" t="b">
+      <c r="B38" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="31" t="b">
+      <c r="C38" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="b">
+      <c r="A39" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="30" t="b">
+      <c r="B39" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="31" t="b">
+      <c r="C39" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -2879,13 +3022,13 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="b">
+      <c r="A40" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B40" s="30" t="b">
+      <c r="B40" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="31" t="b">
+      <c r="C40" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -2894,13 +3037,13 @@
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="b">
+      <c r="A41" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="30" t="b">
+      <c r="B41" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C41" s="31" t="b">
+      <c r="C41" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -2909,50 +3052,50 @@
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B42" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B43" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="25" t="s">
+      <c r="A43" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="A44" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="22" t="s">
@@ -2960,16 +3103,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B45" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="A45" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="22" t="s">
@@ -2977,16 +3120,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B46" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="24" t="s">
+      <c r="A46" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="22" t="s">
@@ -2994,16 +3137,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="A47" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -3011,200 +3154,200 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B48" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="A49" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="b">
+      <c r="A50" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="30" t="b">
+      <c r="B50" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C50" s="31" t="b">
+      <c r="C50" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="b">
+      <c r="A51" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="30" t="b">
+      <c r="B51" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C51" s="31" t="b">
+      <c r="C51" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24" t="s">
+      <c r="A52" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="A53" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C54" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24" t="s">
+      <c r="A54" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B55" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="22" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B56" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B57" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="b">
+      <c r="A58" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="30" t="b">
+      <c r="B58" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="C58" s="31" t="b">
+      <c r="C58" s="32" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="b">
+      <c r="A59" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="33" t="b">
+      <c r="B59" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C59" s="34" t="b">
+      <c r="C59" s="35" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -3212,2337 +3355,6709 @@
       </c>
       <c r="E59" s="19"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+      <c r="A61" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B61" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" s="44" t="s">
         <v>7</v>
       </c>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B62" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B63" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D63" t="s">
         <v>59</v>
       </c>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B64" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B65" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B66" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B67" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B68" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B69" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B70" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B71" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B72" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B73" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B74" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B75" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B76" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B77" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B78" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B79" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B80" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B81" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B82" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B83" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B84" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B85" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B86" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D86" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B87" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>497</v>
+      </c>
       <c r="D87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B88" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D88" s="47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="19"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B90" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B91" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B92" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D92" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B93" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D93" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B94" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D94" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B95" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D95" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B96" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D96" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B97" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D97" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B98" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D98" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B99" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D99" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B100" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D100" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B101" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D101" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B102" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D102" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B103" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D103" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B104" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D104" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B105" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D105" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B106" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D106" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B107" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D107" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B108" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D108" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="22"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B109" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D109" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="22"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B110" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D110" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="22"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D111" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="22"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B112" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="22"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B113" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D113" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B114" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D114" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B115" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D115" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="22"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B116" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D116" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B117" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D117" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B118" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D118" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B119" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D119" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="22"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B120" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D120" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+      <c r="E120" s="22"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B121" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" s="47" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B123" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" s="44" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="18"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B124" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D124" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="22"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B125" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D125" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B126" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D126" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="22"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B127" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D127" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B128" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D128" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="22"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B129" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D129" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B130" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D130" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B131" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D131" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B132" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D132" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="22"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B133" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D133" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B134" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D134" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="22"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B135" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D135" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B136" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="19"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B138" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
+      <c r="E138" s="18"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B139" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B140" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" s="22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B141" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B142" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B143" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B144" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B145" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C145" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="22" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
+      <c r="E145" s="22"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B146" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
+      <c r="E146" s="22"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B147" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
+      <c r="E147" s="22"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B148" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C148" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="22" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
+      <c r="E148" s="22"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B149" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C149" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B150" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C150" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
+      <c r="E150" s="22"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B151" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
+      <c r="E151" s="22"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B152" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
+      <c r="E152" s="22"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B153" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
+      <c r="E153" s="22"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B154" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B155" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
+      <c r="E155" s="22"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B156" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C156" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
+      <c r="E156" s="22"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B157" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
+      <c r="E157" s="22"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B158" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
+      <c r="E158" s="22"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B159" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
+      <c r="E159" s="22"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B160" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
+      <c r="E160" s="22"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B161" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
+      <c r="E161" s="22"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B162" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
+      <c r="E162" s="22"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B163" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
+      <c r="E163" s="22"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B164" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
+      <c r="E164" s="22"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B165" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C165" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="22" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
+      <c r="E165" s="22"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B166" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
+      <c r="E166" s="22"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B167" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
+      <c r="E167" s="22"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B168" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
+      <c r="E168" s="22"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B169" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D169" s="22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
+      <c r="E169" s="22"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B170" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" t="s">
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B171" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" t="s">
+      <c r="E171" s="22"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B172" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B173" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
+      <c r="E173" s="22"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B174" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="22" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" t="s">
+      <c r="E174" s="22"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B175" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
+      <c r="E175" s="22"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B176" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
+      <c r="E176" s="22"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B177" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" s="22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" t="s">
+      <c r="E177" s="22"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B178" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C178" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="19"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D179" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B180" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="18"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B181" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C181" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D181" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="22"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B182" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C182" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D182" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B183" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D183" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="22"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B184" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D184" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B185" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C185" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D185" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="22"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B186" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D186" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="22"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B187" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D187" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="22"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B188" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C188" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D188" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="22"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B189" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D189" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="22"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B190" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C190" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D190" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="22"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B191" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C191" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D191" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="22"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B192" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C192" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D192" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="22"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B193" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C193" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D193" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="22"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B194" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D194" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="22"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B195" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D195" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="22"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B196" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D196" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="22"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B197" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C197" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D197" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="22"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B198" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C198" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D198" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="22"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B199" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C199" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D199" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" t="s">
+      <c r="E199" s="22"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B200" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C200" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" s="47" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="19"/>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D201" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B202" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C202" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203" t="s">
+      <c r="E202" s="18"/>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B203" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C203" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" s="47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="19"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D204" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B205" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C205" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206" t="s">
+      <c r="E205" s="18"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B206" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C206" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207" t="s">
+      <c r="E206" s="22"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B207" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208" t="s">
+      <c r="E207" s="22"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B208" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
+      <c r="E208" s="22"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B209" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" t="s">
+      <c r="E209" s="22"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B210" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" t="s">
+      <c r="E210" s="22"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B211" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" s="22" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" t="s">
+      <c r="E211" s="22"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B212" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" t="s">
+      <c r="E212" s="22"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B213" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C213" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" t="s">
+      <c r="E213" s="22"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B214" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" t="s">
+      <c r="E214" s="22"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B215" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C215" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" s="22" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" t="s">
+      <c r="E215" s="22"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B216" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" s="22" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" t="s">
+      <c r="E216" s="22"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B217" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218" t="s">
+      <c r="E217" s="22"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B218" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" t="s">
+      <c r="E218" s="22"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B219" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220" t="s">
+      <c r="E219" s="22"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B220" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221" t="s">
+      <c r="E220" s="22"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B221" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222" t="s">
+      <c r="E221" s="22"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B222" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223" t="s">
+      <c r="E222" s="22"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B223" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224" t="s">
+      <c r="E223" s="22"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B224" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="19"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D225" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D226" t="s">
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B226" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" s="52" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="52"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D227" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D228" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B228" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" s="44" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="18"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B229" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D229" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="22"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B230" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D230" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="22"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B231" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D231" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="22"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B232" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D232" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="22"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B233" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C233" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D233" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="22"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B234" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D234" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D235" t="s">
+      <c r="E234" s="22"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B235" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" s="47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="19"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D236" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D237" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B237" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C237" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" s="18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D238" t="s">
+      <c r="E237" s="45"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B238" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238" s="22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D239" t="s">
+      <c r="E238" s="46"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B239" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C239" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D239" s="22" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D240" t="s">
+      <c r="E239" s="46"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B240" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C240" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" s="22" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D241" t="s">
+      <c r="E240" s="46"/>
+    </row>
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B241" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" s="22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242" t="s">
+      <c r="E241" s="64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B242" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243" t="s">
+      <c r="E242" s="46"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B243" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="22" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D244" t="s">
+      <c r="E243" s="46"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B244" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C244" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" s="22" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D245" t="s">
+      <c r="E244" s="46"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B245" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C245" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="22" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246" t="s">
+      <c r="E245" s="46"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B246" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C246" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="22" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247" t="s">
+      <c r="E246" s="46"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B247" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C247" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" s="22" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D248" t="s">
+      <c r="E247" s="46"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B248" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C248" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" s="22" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D249" t="s">
+      <c r="E248" s="46"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B249" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" s="22" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" t="s">
+      <c r="E249" s="46"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B250" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" t="s">
+      <c r="E250" s="46"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B251" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C251" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" s="22" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" t="s">
+      <c r="E251" s="46"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B252" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C252" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" s="22" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" t="s">
+      <c r="E252" s="46"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B253" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C253" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" s="22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254" t="s">
+      <c r="E253" s="46"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B254" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C254" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" s="22" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255" t="s">
+      <c r="E254" s="46"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B255" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C255" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" s="22" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256" t="s">
+      <c r="E255" s="46"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B256" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C256" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="22" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" t="s">
+      <c r="E256" s="46"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B257" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C257" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" s="22" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" t="s">
+      <c r="E257" s="46"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B258" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C258" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" s="19" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="48"/>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D259" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D260" t="s">
+    <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B260" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C260" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" s="52" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="24"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D261" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D262" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B262" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C262" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D263" t="s">
+      <c r="E262" s="45"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B263" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C263" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="22" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D264" t="s">
+      <c r="E263" s="46"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B264" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C264" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="22" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D265" t="s">
+      <c r="E264" s="46"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B265" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C265" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D266" t="s">
+      <c r="E265" s="46"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B266" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C266" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="22" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D267" t="s">
+      <c r="E266" s="46"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B267" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C267" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="22" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D268" t="s">
+      <c r="E267" s="46"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B268" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C268" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="22" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" t="s">
+      <c r="E268" s="46"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B269" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C269" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="22" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" t="s">
+      <c r="E269" s="46"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B270" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="22" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" t="s">
+      <c r="E270" s="46"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B271" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="22" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" t="s">
+      <c r="E271" s="46"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B272" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C272" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" t="s">
+      <c r="E272" s="46"/>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B273" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C273" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="19" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="48"/>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D274" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" t="s">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B275" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" t="s">
+      <c r="E275" s="45"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B276" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C276" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="22" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" t="s">
+      <c r="E276" s="46"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B277" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C277" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" t="s">
+      <c r="E277" s="46"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B278" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C278" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="22" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" t="s">
+      <c r="E278" s="46"/>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B279" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C279" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" s="19" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="48"/>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D280" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B281" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C281" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" t="s">
+      <c r="E281" s="45"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B282" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C282" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" s="22" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" t="s">
+      <c r="E282" s="46"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B283" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C283" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" s="22" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" t="s">
+      <c r="E283" s="46"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B284" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C284" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284" s="22" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" t="s">
+      <c r="E284" s="46"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B285" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" s="22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D286" t="s">
+      <c r="E285" s="46"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B286" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C286" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286" s="22" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D287" t="s">
+      <c r="E286" s="46"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B287" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C287" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" s="22" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D288" t="s">
+      <c r="E287" s="46"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B288" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C288" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" s="22" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" t="s">
+      <c r="E288" s="46"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B289" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C289" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" s="22" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D290" t="s">
+      <c r="E289" s="46"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B290" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" s="22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D291" t="s">
+      <c r="E290" s="46"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B291" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C291" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" s="22" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D292" t="s">
+      <c r="E291" s="46"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B292" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C292" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" s="22" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D293" t="s">
+      <c r="E292" s="46"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B293" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C293" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" s="22" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D294" t="s">
+      <c r="E293" s="46"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B294" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C294" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" s="22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D295" t="s">
+      <c r="E294" s="46"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B295" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" s="22" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D296" t="s">
+      <c r="E295" s="46"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B296" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C296" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" s="22" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D297" t="s">
+      <c r="E296" s="46"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B297" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C297" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" s="22" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D298" t="s">
+      <c r="E297" s="46"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B298" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C298" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D298" s="22" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D299" t="s">
+      <c r="E298" s="46"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B299" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" s="22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D300" t="s">
+      <c r="E299" s="46"/>
+    </row>
+    <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B300" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C300" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D300" s="19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="48"/>
+    </row>
+    <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D301" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D302" t="s">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B302" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C302" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D303" t="s">
+      <c r="E302" s="45"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B303" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C303" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" s="22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D304" t="s">
+      <c r="E303" s="46"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B304" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C304" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" s="22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" t="s">
+      <c r="E304" s="46"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B305" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C305" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" s="22" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D306" t="s">
+      <c r="E305" s="46"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B306" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C306" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" s="22" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D307" t="s">
+      <c r="E306" s="46"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B307" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C307" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" s="22" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D308" t="s">
+      <c r="E307" s="46"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B308" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C308" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" s="22" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D309" t="s">
+      <c r="E308" s="46"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B309" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C309" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" s="22" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" t="s">
+      <c r="E309" s="46"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B310" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C310" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D310" s="22" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D311" t="s">
+      <c r="E310" s="46"/>
+    </row>
+    <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B311" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C311" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D311" s="19" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="48"/>
+    </row>
+    <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D312" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D313" t="s">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B313" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C313" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D314" t="s">
+      <c r="E313" s="45"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B314" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C314" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D314" s="22" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" t="s">
+      <c r="E314" s="46"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B315" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C315" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D315" s="22" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D316" t="s">
+      <c r="E315" s="46"/>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B316" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C316" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D316" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="48"/>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D317" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D318" t="s">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B318" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C318" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D318" s="18" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D319" t="s">
+      <c r="E318" s="45"/>
+    </row>
+    <row r="319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B319" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C319" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D319" s="19" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="48"/>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D320" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" t="s">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B321" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C321" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" t="s">
+      <c r="E321" s="45"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B322" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C322" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D322" s="22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" t="s">
+      <c r="E322" s="46"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B323" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C323" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D323" s="22" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" t="s">
+      <c r="E323" s="46"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B324" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C324" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D324" s="22" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" t="s">
+      <c r="E324" s="46"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B325" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C325" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D325" s="22" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" t="s">
+      <c r="E325" s="46"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B326" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C326" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D326" s="22" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" t="s">
+      <c r="E326" s="46"/>
+    </row>
+    <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B327" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C327" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D327" s="19" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="48"/>
+    </row>
+    <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D328" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D329" t="s">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B329" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C329" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D329" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D330" t="s">
+      <c r="E329" s="45"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B330" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C330" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D330" s="22" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D331" t="s">
+      <c r="E330" s="46"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B331" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C331" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D331" s="22" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D332" t="s">
+      <c r="E331" s="46"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B332" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C332" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D332" s="22" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D333" t="s">
+      <c r="E332" s="46"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B333" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C333" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D333" s="22" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D334" t="s">
+      <c r="E333" s="46"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B334" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C334" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D334" s="22" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D335" t="s">
+      <c r="E334" s="46"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B335" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C335" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D335" s="22" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D336" t="s">
+      <c r="E335" s="46"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B336" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C336" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D336" s="22" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D337" t="s">
+      <c r="E336" s="46"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B337" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C337" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D337" s="22" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D338" t="s">
+      <c r="E337" s="46"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B338" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C338" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D338" s="22" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D339" t="s">
+      <c r="E338" s="46"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B339" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C339" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D339" s="22" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" t="s">
+      <c r="E339" s="46"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B340" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C340" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D340" s="22" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D341" t="s">
+      <c r="E340" s="46"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B341" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C341" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D341" s="22" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D342" t="s">
+      <c r="E341" s="46"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B342" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C342" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D342" s="22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
+      <c r="E342" s="46"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B343" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C343" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" s="22" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D344" t="s">
+      <c r="E343" s="46"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B344" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C344" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D344" s="22" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D345" t="s">
+      <c r="E344" s="46"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B345" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C345" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D345" s="22" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D346" t="s">
+      <c r="E345" s="46"/>
+    </row>
+    <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B346" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C346" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D346" s="19" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="48"/>
+    </row>
+    <row r="347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D347" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D348" t="s">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B348" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C348" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D348" s="18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D349" t="s">
+      <c r="E348" s="45"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B349" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C349" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D349" s="22" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D350" t="s">
+      <c r="E349" s="46"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B350" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C350" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D350" s="22" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D351" t="s">
+      <c r="E350" s="46"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B351" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C351" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D351" s="22" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D352" t="s">
+      <c r="E351" s="46"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B352" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C352" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D352" s="22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D353" t="s">
+      <c r="E352" s="46"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B353" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C353" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D353" s="22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" t="s">
+      <c r="E353" s="46"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B354" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C354" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D354" s="22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D355" t="s">
+      <c r="E354" s="46"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B355" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C355" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D355" s="22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D356" t="s">
+      <c r="E355" s="46"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B356" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C356" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D356" s="22" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D357" t="s">
+      <c r="E356" s="46"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B357" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C357" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D357" s="22" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D358" t="s">
+      <c r="E357" s="46"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B358" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C358" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D358" s="22" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D359" t="s">
+      <c r="E358" s="46"/>
+    </row>
+    <row r="359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B359" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C359" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D359" s="19" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="48"/>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D360" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D361" t="s">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B361" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C361" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D361" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" t="s">
+      <c r="E361" s="45"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B362" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C362" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D362" s="22" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D363" t="s">
+      <c r="E362" s="46"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B363" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C363" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D363" s="22" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D364" t="s">
+      <c r="E363" s="46"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B364" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C364" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D364" s="53" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D365" t="s">
+      <c r="E364" s="46"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B365" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C365" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D365" s="22" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D366" t="s">
+      <c r="E365" s="46"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B366" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C366" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D366" s="22" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D367" t="s">
+      <c r="E366" s="46"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B367" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C367" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D367" s="22" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D368" t="s">
+      <c r="E367" s="46"/>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B368" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C368" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D368" s="19" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="48"/>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D369" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" t="s">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B370" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C370" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D370" s="18" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D371" t="s">
+      <c r="E370" s="45"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B371" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C371" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D371" s="22" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D372" t="s">
+      <c r="E371" s="46"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B372" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C372" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D372" s="22" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D373" t="s">
+      <c r="E372" s="46"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B373" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C373" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D373" s="22" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D374" t="s">
+      <c r="E373" s="46"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B374" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C374" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D374" s="22" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D375" t="s">
+      <c r="E374" s="46"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B375" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C375" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D375" s="22" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D376" t="s">
+      <c r="E375" s="46"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B376" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C376" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D376" s="22" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" t="s">
+      <c r="E376" s="46"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B377" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C377" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D377" s="22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D378" t="s">
+      <c r="E377" s="46"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B378" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C378" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D378" s="22" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D379" t="s">
+      <c r="E378" s="46"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B379" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C379" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D379" s="22" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D380" t="s">
+      <c r="E379" s="46"/>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B380" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C380" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D380" s="19" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="48"/>
+    </row>
+    <row r="381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D381" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D382" t="s">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B382" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C382" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D382" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D383" t="s">
+      <c r="E382" s="45"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B383" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C383" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D383" s="22" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" t="s">
+      <c r="E383" s="46"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B384" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C384" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D384" s="22" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D385" t="s">
+      <c r="E384" s="46"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B385" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C385" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D385" s="22" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D386" t="s">
+      <c r="E385" s="46"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B386" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C386" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D386" s="22" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D387" t="s">
+      <c r="E386" s="46"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B387" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C387" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D387" s="22" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D388" t="s">
+      <c r="E387" s="46" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B388" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C388" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D388" s="22" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" t="s">
+      <c r="E388" s="46"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B389" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C389" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D389" s="22" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D390" t="s">
+      <c r="E389" s="46"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B390" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C390" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D390" s="22" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D391" t="s">
+      <c r="E390" s="46"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B391" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C391" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D391" s="22" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D392" t="s">
+      <c r="E391" s="46"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B392" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C392" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D392" s="22" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D393" t="s">
+      <c r="E392" s="46"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B393" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C393" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D393" s="22" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D394" t="s">
+      <c r="E393" s="46"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B394" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C394" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D394" s="22" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D395" t="s">
+      <c r="E394" s="46"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B395" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C395" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D395" s="22" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D396" t="s">
+      <c r="E395" s="46"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B396" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C396" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D396" s="22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D397" t="s">
+      <c r="E396" s="46"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B397" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C397" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D397" s="22" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D398" t="s">
+      <c r="E397" s="46"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B398" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C398" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D398" s="22" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D399" t="s">
+      <c r="E398" s="46"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B399" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C399" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D399" s="22" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" t="s">
+      <c r="E399" s="46"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B400" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C400" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D400" s="22" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D401" t="s">
+      <c r="E400" s="46"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B401" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C401" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D401" s="22" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D402" t="s">
+      <c r="E401" s="46"/>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B402" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C402" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D402" s="19" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E402" s="48"/>
+    </row>
+    <row r="403" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D403" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D404" t="s">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B404" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C404" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D404" s="18" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D405" t="s">
+      <c r="E404" s="45"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B405" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C405" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D405" s="22" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D406" t="s">
+      <c r="E405" s="46"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B406" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C406" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D406" s="22" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D407" t="s">
+      <c r="E406" s="46"/>
+    </row>
+    <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B407" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C407" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D407" s="19" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E407" s="48"/>
+    </row>
+    <row r="408" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D408" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D409" t="s">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B409" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C409" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D409" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D410" t="s">
+      <c r="E409" s="45"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B410" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C410" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D410" s="22" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D411" t="s">
+      <c r="E410" s="46"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B411" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C411" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D411" s="22" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D412" t="s">
+      <c r="E411" s="46"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B412" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C412" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D412" s="22" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D413" t="s">
+      <c r="E412" s="46"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B413" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C413" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D413" s="22" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D414" t="s">
+      <c r="E413" s="46"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B414" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C414" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D414" s="22" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" t="s">
+      <c r="E414" s="46"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B415" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C415" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D415" s="22" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D416" t="s">
+      <c r="E415" s="46"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B416" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C416" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D416" s="22" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D417" t="s">
+      <c r="E416" s="46"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B417" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C417" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D417" s="22" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D418" t="s">
+      <c r="E417" s="46"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B418" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C418" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D418" s="22" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D419" t="s">
+      <c r="E418" s="46"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B419" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C419" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D419" s="22" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" t="s">
+      <c r="E419" s="46"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B420" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C420" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D420" s="22" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D421" t="s">
+      <c r="E420" s="46"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B421" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C421" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D421" s="22" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D422" t="s">
+      <c r="E421" s="46"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B422" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C422" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D422" s="22" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D423" t="s">
+      <c r="E422" s="46"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B423" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C423" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D423" s="22" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" t="s">
+      <c r="E423" s="46"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B424" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C424" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D424" s="22" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D425" t="s">
+      <c r="E424" s="46"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B425" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C425" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D425" s="22" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D426" t="s">
+      <c r="E425" s="46"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B426" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C426" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D426" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D427" t="s">
+      <c r="E426" s="46"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B427" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C427" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D427" s="22" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D428" t="s">
+      <c r="E427" s="46"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B428" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C428" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D428" s="22" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D429" t="s">
+      <c r="E428" s="46"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B429" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C429" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D429" s="22" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D430" t="s">
+      <c r="E429" s="46"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B430" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C430" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D430" s="22" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" t="s">
+      <c r="E430" s="46"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B431" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C431" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D431" s="22" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D432" t="s">
+      <c r="E431" s="46"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B432" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C432" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D432" s="22" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D433" t="s">
+      <c r="E432" s="46"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B433" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C433" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D433" s="22" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D434" t="s">
+      <c r="E433" s="46"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B434" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C434" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D434" s="22" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D435" t="s">
+      <c r="E434" s="46"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B435" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C435" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D435" s="22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" t="s">
+      <c r="E435" s="46"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B436" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C436" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D436" s="22" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D437" t="s">
+      <c r="E436" s="46"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B437" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C437" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D437" s="22" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D438" t="s">
+      <c r="E437" s="46"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B438" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C438" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D438" s="22" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D439" t="s">
+      <c r="E438" s="46"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B439" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C439" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D439" s="22" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D440" t="s">
+      <c r="E439" s="46"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B440" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C440" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D440" s="22" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D441" t="s">
+      <c r="E440" s="46"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B441" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C441" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D441" s="22" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D442" t="s">
+      <c r="E441" s="46"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B442" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C442" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D442" s="22" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" t="s">
+      <c r="E442" s="46"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B443" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C443" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D443" s="22" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D444" t="s">
+      <c r="E443" s="46"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B444" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C444" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D444" s="22" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D445" t="s">
+      <c r="E444" s="46"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B445" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C445" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D445" s="22" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D446" t="s">
+      <c r="E445" s="46"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B446" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C446" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D446" s="22" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D447" t="s">
+      <c r="E446" s="46"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B447" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C447" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D447" s="22" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" t="s">
+      <c r="E447" s="46"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B448" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C448" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D448" s="22" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D449" t="s">
+      <c r="E448" s="46"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B449" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C449" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D449" s="22" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D450" t="s">
+      <c r="E449" s="46"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B450" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C450" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D450" s="22" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D451" t="s">
+      <c r="E450" s="46"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B451" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C451" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D451" s="22" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D452" t="s">
+      <c r="E451" s="46"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B452" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C452" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D452" s="22" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D453" t="s">
+      <c r="E452" s="46"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B453" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C453" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D453" s="22" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D454" t="s">
+      <c r="E453" s="46"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B454" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C454" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D454" s="22" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D455" t="s">
+      <c r="E454" s="46"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B455" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C455" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D455" s="22" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D456" t="s">
+      <c r="E455" s="46"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B456" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C456" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D456" s="22" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D457" t="s">
+      <c r="E456" s="46"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B457" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C457" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D457" s="22" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" t="s">
+      <c r="E457" s="46"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B458" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C458" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D458" s="22" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D459" t="s">
+      <c r="E458" s="46"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B459" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C459" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D459" s="22" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D460" t="s">
+      <c r="E459" s="46"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B460" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C460" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D460" s="22" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D461" t="s">
+      <c r="E460" s="46"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B461" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C461" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D461" s="22" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D462" t="s">
+      <c r="E461" s="46"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B462" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C462" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D462" s="22" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" t="s">
+      <c r="E462" s="46"/>
+    </row>
+    <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B463" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C463" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D463" s="19" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E463" s="48"/>
+    </row>
+    <row r="464" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D464" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D465" t="s">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B465" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C465" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D465" s="18" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D466" t="s">
+      <c r="E465" s="45"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B466" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C466" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D466" s="22" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D467" t="s">
+      <c r="E466" s="46"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B467" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C467" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D467" s="22" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D468" t="s">
+      <c r="E467" s="46"/>
+    </row>
+    <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B468" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C468" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D468" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E468" s="48"/>
+    </row>
+    <row r="469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D469" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D470" t="s">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B470" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C470" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D470" s="18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D471" t="s">
+      <c r="E470" s="45"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B471" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C471" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D471" s="22" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D472" t="s">
+      <c r="E471" s="46"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B472" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C472" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D472" s="22" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D473" t="s">
+      <c r="E472" s="46"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B473" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C473" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D473" s="22" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" t="s">
+      <c r="E473" s="46"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B474" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C474" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D474" s="22" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" t="s">
+      <c r="E474" s="46"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B475" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C475" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D475" s="22" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D476" t="s">
+      <c r="E475" s="46"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B476" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C476" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D476" s="22" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D477" t="s">
+      <c r="E476" s="46"/>
+    </row>
+    <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B477" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C477" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D477" s="19" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E477" s="48"/>
+    </row>
+    <row r="478" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D478" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D479" t="s">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B479" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C479" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D479" s="18" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D480" t="s">
+      <c r="E479" s="45"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B480" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C480" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D480" s="22" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" t="s">
+      <c r="E480" s="46"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B481" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C481" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D481" s="22" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D482" t="s">
+      <c r="E481" s="46"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B482" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C482" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D482" s="22" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D483" t="s">
+      <c r="E482" s="46"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B483" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C483" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D483" s="22" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D484" t="s">
+      <c r="E483" s="46"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B484" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C484" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D484" s="22" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485" t="s">
+      <c r="E484" s="46"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B485" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C485" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D485" s="22" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D486" t="s">
+      <c r="E485" s="46"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B486" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C486" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D486" s="22" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D487" t="s">
+      <c r="E486" s="46"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B487" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C487" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D487" s="22" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D488" t="s">
+      <c r="E487" s="46"/>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B488" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C488" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D488" s="22" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D489" t="s">
+      <c r="E488" s="46"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B489" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C489" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D489" s="22" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D490" t="s">
+      <c r="E489" s="46"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B490" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C490" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D490" s="22" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D491" t="s">
+      <c r="E490" s="46"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B491" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C491" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D491" s="22" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D492" t="s">
+      <c r="E491" s="46"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B492" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C492" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D492" s="22" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D493" t="s">
+      <c r="E492" s="46"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B493" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C493" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D493" s="22" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D494" t="s">
+      <c r="E493" s="46"/>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B494" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C494" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D494" s="22" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D495" t="s">
+      <c r="E494" s="46"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B495" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C495" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D495" s="22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D496" t="s">
+      <c r="E495" s="46"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B496" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C496" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D496" s="22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D497" t="s">
+      <c r="E496" s="46"/>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B497" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C497" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D497" s="22" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D498" t="s">
+      <c r="E497" s="46"/>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B498" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C498" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D498" s="22" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D499" t="s">
+      <c r="E498" s="46"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B499" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C499" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D499" s="22" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D500" t="s">
+      <c r="E499" s="46"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B500" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C500" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D500" s="22" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D501" t="s">
+      <c r="E500" s="46"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B501" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C501" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D501" s="22" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D502" t="s">
+      <c r="E501" s="46"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B502" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C502" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D502" s="22" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D503" t="s">
+      <c r="E502" s="46"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B503" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C503" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D503" s="22" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D504" t="s">
+      <c r="E503" s="46"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B504" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C504" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D504" s="22" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D505" t="s">
+      <c r="E504" s="46"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B505" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C505" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D505" s="22" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D506" t="s">
+      <c r="E505" s="46"/>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B506" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C506" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D506" s="19" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E506" s="48"/>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D507" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D508" t="s">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B508" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C508" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D508" s="44" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E508" s="45"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B509" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C509" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D509" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E509" s="46"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B510" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C510" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D510" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E510" s="46"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B511" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C511" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D511" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E511" s="46"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B512" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C512" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D512" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="46"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B513" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C513" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D513" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E513" s="46"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B514" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C514" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D514" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="46"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B515" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C515" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D515" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E515" s="46"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B516" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C516" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D516" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E516" s="46"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B517" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C517" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D517" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E517" s="46"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B518" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C518" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D518" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E518" s="46"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B519" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C519" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D519" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E519" s="46"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B520" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C520" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D520" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E520" s="46"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B521" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C521" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D521" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E521" s="46"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B522" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C522" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D522" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E522" s="46"/>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B523" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C523" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D523" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E523" s="46"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B524" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C524" s="32" t="b">
+        <v>0</v>
+      </c>
       <c r="D524" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D525" t="s">
+      <c r="E524" s="46"/>
+    </row>
+    <row r="525" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B525" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C525" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D525" s="47" t="s">
         <v>362</v>
       </c>
+      <c r="E525" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5552,24 +10067,51 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:C12 A14:C22 A24:C25 A27:C59">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B178 A180:B200 A202:B203 A205:B224 A226:B226 A228:B235 A237:B258 A260:B260 A262:B273 A275:B279 A281:B300 A302:B311 A313:B316 A318:B319 A321:B327 A329:B346 A348:B359 A361:B368 A370:B380 A382:B402 A404:B407 A409:B463 A465:B468 A470:B477 A479:B506 A508:B525">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C525">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Not Supported">
+      <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Partial Support">
+      <formula>NOT(ISERROR(SEARCH("Partial Support",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D525">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61:C88" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+      <formula1>"Working, Supported, Partial Support, Not Supported"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,72 +10121,116 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>45972</v>
+      </c>
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>45972</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>45972</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>45972</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>45972</v>
+      </c>
+      <c r="B6" t="s">
         <v>489</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>45972</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="C2" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
-        <v>45972</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="C3" s="51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
-        <v>45972</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>491</v>
-      </c>
-      <c r="C4" s="51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
-        <v>45972</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="C5" s="51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
-        <v>45972</v>
-      </c>
-      <c r="B6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="51" t="b">
+      <c r="C6" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>45973</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>45973</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>45973</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>45973</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="42" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C6">
+  <conditionalFormatting sqref="C2:C10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,27 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1233" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F24DBCD-5538-4AFE-BFFB-0E8A191D3CDB}"/>
+  <xr:revisionPtr revIDLastSave="1472" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0013FD9-9BCC-4F90-9074-55C8F134752E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Todo List" sheetId="2" r:id="rId2"/>
     <sheet name="Customer Supported Commands" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="522">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1542,10 +1552,6 @@
     <t>Quality Readme</t>
   </si>
   <si>
-    <t>Partially implemented, will need to be continuously updated
-Does not support buffers</t>
-  </si>
-  <si>
     <t>Fix script variables not updating when locally changed</t>
   </si>
   <si>
@@ -1583,13 +1589,31 @@
   </si>
   <si>
     <t>Fix Function change</t>
+  </si>
+  <si>
+    <t>BUS not working yet</t>
+  </si>
+  <si>
+    <t>Only breaks measurements, not commands that are waiting</t>
+  </si>
+  <si>
+    <t>If buffer doesn't have enough readings and measurement is idle, just returns no error</t>
+  </si>
+  <si>
+    <t>Simplify DATA:REMOVE?</t>
+  </si>
+  <si>
+    <t>Make FindStartIndex() function to find first non removed index</t>
+  </si>
+  <si>
+    <t>Not available on 34461A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,6 +1625,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1849,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2020,17 +2050,6 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2040,8 +2059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2049,7 +2067,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -2096,41 +2114,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2586,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E525"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,13 +2608,14 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="94" style="76" customWidth="1"/>
+    <col min="4" max="4" width="94" style="68" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>480</v>
@@ -2618,15 +2631,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="b">
@@ -2636,9 +2649,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D3" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4"/>
@@ -2647,13 +2660,13 @@
       <c r="A4" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="b">
+      <c r="B4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="70" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2664,13 +2677,13 @@
       <c r="A5" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="63" t="b">
+      <c r="B5" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4"/>
@@ -2679,13 +2692,13 @@
       <c r="A6" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="b">
+      <c r="B6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
@@ -2694,13 +2707,13 @@
       <c r="A7" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="63" t="b">
+      <c r="B7" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4"/>
@@ -2709,13 +2722,13 @@
       <c r="A8" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="63" t="b">
+      <c r="B8" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
@@ -2724,13 +2737,13 @@
       <c r="A9" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="63" t="b">
+      <c r="B9" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="70" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4"/>
@@ -2739,13 +2752,13 @@
       <c r="A10" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="63" t="b">
+      <c r="B10" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2756,13 +2769,13 @@
       <c r="A11" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="63" t="b">
+      <c r="B11" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D11" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2777,18 +2790,18 @@
         <v>1</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="D12" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="b">
@@ -2800,10 +2813,10 @@
       <c r="C14" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="72" t="s">
         <v>472</v>
       </c>
     </row>
@@ -2811,106 +2824,106 @@
       <c r="A15" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="63" t="b">
+      <c r="B15" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="78"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="63" t="b">
+      <c r="B16" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="63" t="b">
+      <c r="B17" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="63" t="b">
+      <c r="B18" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="63" t="b">
+      <c r="B19" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="63" t="b">
+      <c r="B20" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="63" t="b">
+      <c r="B21" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="6" t="s">
         <v>473</v>
       </c>
     </row>
@@ -2924,16 +2937,16 @@
       <c r="C22" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="76"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="b">
@@ -2945,10 +2958,10 @@
       <c r="C24" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="b">
@@ -2960,16 +2973,16 @@
       <c r="C25" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="87"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="89"/>
+      <c r="E26" s="78"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="b">
@@ -2979,12 +2992,12 @@
         <v>1</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D27" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="6" t="s">
         <v>486</v>
       </c>
     </row>
@@ -2992,16 +3005,16 @@
       <c r="A28" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="63" t="b">
+      <c r="B28" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D28" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="E28" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3009,31 +3022,31 @@
       <c r="A29" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B29" s="63" t="b">
+      <c r="B29" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D29" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="90"/>
+      <c r="D29" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="63" t="b">
+      <c r="B30" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="17" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3041,61 +3054,61 @@
       <c r="A31" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="63" t="b">
+      <c r="B31" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="63" t="b">
+      <c r="B32" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="90"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="63" t="b">
+      <c r="B33" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="90"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="63" t="b">
+      <c r="B34" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D34" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3103,31 +3116,31 @@
       <c r="A35" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B35" s="63" t="b">
+      <c r="B35" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="90"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="63" t="b">
+      <c r="B36" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -3135,31 +3148,31 @@
       <c r="A37" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="63" t="b">
+      <c r="B37" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="90"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="63" t="b">
+      <c r="B38" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D38" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D38" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="6" t="s">
         <v>486</v>
       </c>
     </row>
@@ -3167,61 +3180,61 @@
       <c r="A39" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="63" t="b">
+      <c r="B39" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="90"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B40" s="63" t="b">
+      <c r="B40" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="90"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="63" t="b">
+      <c r="B41" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="90"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="63" t="b">
+      <c r="B42" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D42" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D42" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3229,16 +3242,16 @@
       <c r="A43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B43" s="63" t="b">
+      <c r="B43" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D43" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3246,16 +3259,16 @@
       <c r="A44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B44" s="63" t="b">
+      <c r="B44" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D44" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D44" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="90" t="s">
+      <c r="E44" s="17" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3263,16 +3276,16 @@
       <c r="A45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B45" s="63" t="b">
+      <c r="B45" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D45" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D45" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="17" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3280,16 +3293,16 @@
       <c r="A46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B46" s="63" t="b">
+      <c r="B46" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D46" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D46" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="17" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3297,16 +3310,16 @@
       <c r="A47" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B47" s="63" t="b">
+      <c r="B47" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D47" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="90" t="s">
+      <c r="E47" s="17" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3314,16 +3327,16 @@
       <c r="A48" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B48" s="63" t="b">
+      <c r="B48" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D48" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D48" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="90" t="s">
+      <c r="E48" s="17" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3331,16 +3344,16 @@
       <c r="A49" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B49" s="63" t="b">
+      <c r="B49" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D49" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D49" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="17" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3348,16 +3361,16 @@
       <c r="A50" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="63" t="b">
+      <c r="B50" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D50" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D50" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="91" t="s">
+      <c r="E50" s="18" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3365,16 +3378,16 @@
       <c r="A51" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="63" t="b">
+      <c r="B51" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D51" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="E51" s="18" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3382,16 +3395,16 @@
       <c r="A52" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B52" s="63" t="b">
+      <c r="B52" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D52" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D52" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3399,16 +3412,16 @@
       <c r="A53" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B53" s="63" t="b">
+      <c r="B53" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D53" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D53" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3416,16 +3429,16 @@
       <c r="A54" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B54" s="63" t="b">
+      <c r="B54" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D54" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="90" t="s">
+      <c r="E54" s="17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3433,16 +3446,16 @@
       <c r="A55" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B55" s="63" t="b">
+      <c r="B55" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D55" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D55" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3450,16 +3463,16 @@
       <c r="A56" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B56" s="63" t="b">
+      <c r="B56" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D56" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3467,16 +3480,16 @@
       <c r="A57" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B57" s="63" t="b">
+      <c r="B57" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D57" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="17" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3484,16 +3497,16 @@
       <c r="A58" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="63" t="b">
+      <c r="B58" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D58" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D58" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="17" t="s">
         <v>485</v>
       </c>
     </row>
@@ -3507,13 +3520,13 @@
       <c r="C59" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="87"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="57" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3527,7 +3540,7 @@
       <c r="C61" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="58" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="13"/>
@@ -3536,13 +3549,13 @@
       <c r="A62" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B62" s="63" t="b">
+      <c r="B62" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D62" s="59" t="s">
         <v>1</v>
       </c>
       <c r="E62" s="17"/>
@@ -3551,73 +3564,81 @@
       <c r="A63" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B63" s="63" t="b">
+      <c r="B63" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D63" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D63" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B64" s="63" t="b">
+      <c r="B64" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D64" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B65" s="63" t="b">
+      <c r="B65" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D65" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D65" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="17"/>
+      <c r="E65" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B66" s="63" t="b">
+      <c r="B66" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D66" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D66" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="17"/>
+      <c r="E66" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B67" s="63" t="b">
+      <c r="B67" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D67" s="67" t="s">
+      <c r="D67" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E67" s="17"/>
@@ -3626,13 +3647,13 @@
       <c r="A68" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B68" s="63" t="b">
+      <c r="B68" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D68" s="67" t="s">
+      <c r="D68" s="59" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="17"/>
@@ -3641,13 +3662,13 @@
       <c r="A69" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B69" s="63" t="b">
+      <c r="B69" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D69" s="67" t="s">
+      <c r="D69" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="17"/>
@@ -3656,13 +3677,13 @@
       <c r="A70" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B70" s="63" t="b">
+      <c r="B70" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D70" s="67" t="s">
+      <c r="D70" s="59" t="s">
         <v>66</v>
       </c>
       <c r="E70" s="17"/>
@@ -3671,13 +3692,13 @@
       <c r="A71" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B71" s="63" t="b">
+      <c r="B71" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D71" s="67" t="s">
+      <c r="D71" s="59" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="17"/>
@@ -3686,13 +3707,13 @@
       <c r="A72" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B72" s="63" t="b">
+      <c r="B72" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="59" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="17"/>
@@ -3701,13 +3722,13 @@
       <c r="A73" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B73" s="63" t="b">
+      <c r="B73" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="17"/>
@@ -3716,13 +3737,13 @@
       <c r="A74" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B74" s="63" t="b">
+      <c r="B74" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D74" s="67" t="s">
+      <c r="D74" s="59" t="s">
         <v>70</v>
       </c>
       <c r="E74" s="17"/>
@@ -3731,13 +3752,13 @@
       <c r="A75" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B75" s="63" t="b">
+      <c r="B75" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D75" s="67" t="s">
+      <c r="D75" s="59" t="s">
         <v>71</v>
       </c>
       <c r="E75" s="17"/>
@@ -3746,13 +3767,13 @@
       <c r="A76" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B76" s="63" t="b">
+      <c r="B76" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D76" s="67" t="s">
+      <c r="D76" s="59" t="s">
         <v>72</v>
       </c>
       <c r="E76" s="17"/>
@@ -3761,13 +3782,13 @@
       <c r="A77" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B77" s="63" t="b">
+      <c r="B77" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D77" s="67" t="s">
+      <c r="D77" s="59" t="s">
         <v>73</v>
       </c>
       <c r="E77" s="17"/>
@@ -3776,13 +3797,13 @@
       <c r="A78" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B78" s="63" t="b">
+      <c r="B78" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="59" t="s">
         <v>74</v>
       </c>
       <c r="E78" s="17"/>
@@ -3791,13 +3812,13 @@
       <c r="A79" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B79" s="63" t="b">
+      <c r="B79" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="59" t="s">
         <v>75</v>
       </c>
       <c r="E79" s="17"/>
@@ -3806,13 +3827,13 @@
       <c r="A80" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B80" s="63" t="b">
+      <c r="B80" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D80" s="67" t="s">
+      <c r="D80" s="59" t="s">
         <v>76</v>
       </c>
       <c r="E80" s="17"/>
@@ -3821,13 +3842,13 @@
       <c r="A81" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B81" s="63" t="b">
+      <c r="B81" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D81" s="67" t="s">
+      <c r="D81" s="59" t="s">
         <v>77</v>
       </c>
       <c r="E81" s="17"/>
@@ -3836,13 +3857,13 @@
       <c r="A82" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B82" s="63" t="b">
+      <c r="B82" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="59" t="s">
         <v>78</v>
       </c>
       <c r="E82" s="17"/>
@@ -3851,73 +3872,81 @@
       <c r="A83" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B83" s="63" t="b">
+      <c r="B83" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D83" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="17"/>
+      <c r="E83" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B84" s="63" t="b">
+      <c r="B84" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D84" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D84" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="17"/>
+      <c r="E84" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B85" s="63" t="b">
+      <c r="B85" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D85" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D85" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="17"/>
+      <c r="E85" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B86" s="63" t="b">
+      <c r="B86" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D86" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="17"/>
+      <c r="E86" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B87" s="63" t="b">
+      <c r="B87" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D87" s="67" t="s">
+      <c r="D87" s="59" t="s">
         <v>83</v>
       </c>
       <c r="E87" s="17"/>
@@ -3932,16 +3961,16 @@
       <c r="C88" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D88" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="69" t="s">
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="61" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3955,7 +3984,7 @@
       <c r="C90" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D90" s="66" t="s">
+      <c r="D90" s="58" t="s">
         <v>85</v>
       </c>
       <c r="E90" s="13"/>
@@ -3964,13 +3993,13 @@
       <c r="A91" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B91" s="63" t="b">
+      <c r="B91" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D91" s="67" t="s">
+      <c r="D91" s="59" t="s">
         <v>1</v>
       </c>
       <c r="E91" s="17"/>
@@ -3979,13 +4008,13 @@
       <c r="A92" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B92" s="63" t="b">
+      <c r="B92" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D92" s="67" t="s">
+      <c r="D92" s="59" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="17"/>
@@ -3994,13 +4023,13 @@
       <c r="A93" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B93" s="63" t="b">
+      <c r="B93" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D93" s="67" t="s">
+      <c r="D93" s="59" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="17"/>
@@ -4009,13 +4038,13 @@
       <c r="A94" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B94" s="63" t="b">
+      <c r="B94" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D94" s="67" t="s">
+      <c r="D94" s="59" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="17"/>
@@ -4024,13 +4053,13 @@
       <c r="A95" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B95" s="63" t="b">
+      <c r="B95" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D95" s="67" t="s">
+      <c r="D95" s="59" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="17"/>
@@ -4039,13 +4068,13 @@
       <c r="A96" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B96" s="63" t="b">
+      <c r="B96" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D96" s="67" t="s">
+      <c r="D96" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="17"/>
@@ -4054,13 +4083,13 @@
       <c r="A97" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B97" s="63" t="b">
+      <c r="B97" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D97" s="67" t="s">
+      <c r="D97" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E97" s="17"/>
@@ -4069,13 +4098,13 @@
       <c r="A98" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B98" s="63" t="b">
+      <c r="B98" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D98" s="67" t="s">
+      <c r="D98" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="17"/>
@@ -4084,13 +4113,13 @@
       <c r="A99" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B99" s="63" t="b">
+      <c r="B99" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="59" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="17"/>
@@ -4099,13 +4128,13 @@
       <c r="A100" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B100" s="63" t="b">
+      <c r="B100" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D100" s="67" t="s">
+      <c r="D100" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="17"/>
@@ -4114,13 +4143,13 @@
       <c r="A101" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B101" s="63" t="b">
+      <c r="B101" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D101" s="67" t="s">
+      <c r="D101" s="59" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="17"/>
@@ -4129,13 +4158,13 @@
       <c r="A102" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B102" s="63" t="b">
+      <c r="B102" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D102" s="67" t="s">
+      <c r="D102" s="59" t="s">
         <v>96</v>
       </c>
       <c r="E102" s="17"/>
@@ -4144,13 +4173,13 @@
       <c r="A103" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B103" s="63" t="b">
+      <c r="B103" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D103" s="67" t="s">
+      <c r="D103" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="17"/>
@@ -4159,13 +4188,13 @@
       <c r="A104" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B104" s="63" t="b">
+      <c r="B104" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D104" s="67" t="s">
+      <c r="D104" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="17"/>
@@ -4174,13 +4203,13 @@
       <c r="A105" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B105" s="63" t="b">
+      <c r="B105" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D105" s="67" t="s">
+      <c r="D105" s="59" t="s">
         <v>99</v>
       </c>
       <c r="E105" s="17"/>
@@ -4189,13 +4218,13 @@
       <c r="A106" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B106" s="63" t="b">
+      <c r="B106" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="59" t="s">
         <v>100</v>
       </c>
       <c r="E106" s="17"/>
@@ -4204,13 +4233,13 @@
       <c r="A107" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B107" s="63" t="b">
+      <c r="B107" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D107" s="67" t="s">
+      <c r="D107" s="59" t="s">
         <v>101</v>
       </c>
       <c r="E107" s="17"/>
@@ -4219,73 +4248,81 @@
       <c r="A108" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B108" s="63" t="b">
+      <c r="B108" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D108" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E108" s="17"/>
+      <c r="E108" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B109" s="63" t="b">
+      <c r="B109" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D109" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D109" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E109" s="17"/>
+      <c r="E109" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B110" s="63" t="b">
+      <c r="B110" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D110" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D110" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="17"/>
+      <c r="E110" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B111" s="63" t="b">
+      <c r="B111" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D111" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D111" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="E111" s="17"/>
+      <c r="E111" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B112" s="63" t="b">
+      <c r="B112" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D112" s="67" t="s">
+      <c r="D112" s="59" t="s">
         <v>106</v>
       </c>
       <c r="E112" s="17"/>
@@ -4294,13 +4331,13 @@
       <c r="A113" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B113" s="63" t="b">
+      <c r="B113" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D113" s="67" t="s">
+      <c r="D113" s="59" t="s">
         <v>107</v>
       </c>
       <c r="E113" s="17"/>
@@ -4309,73 +4346,81 @@
       <c r="A114" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B114" s="63" t="b">
+      <c r="B114" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D114" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D114" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E114" s="17"/>
+      <c r="E114" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B115" s="63" t="b">
+      <c r="B115" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D115" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D115" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E115" s="17"/>
+      <c r="E115" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B116" s="63" t="b">
+      <c r="B116" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D116" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D116" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E116" s="17"/>
+      <c r="E116" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B117" s="63" t="b">
+      <c r="B117" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D117" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D117" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E117" s="17"/>
+      <c r="E117" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B118" s="63" t="b">
+      <c r="B118" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D118" s="67" t="s">
+      <c r="D118" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E118" s="17"/>
@@ -4384,13 +4429,13 @@
       <c r="A119" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B119" s="63" t="b">
+      <c r="B119" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D119" s="67" t="s">
+      <c r="D119" s="59" t="s">
         <v>113</v>
       </c>
       <c r="E119" s="17"/>
@@ -4399,13 +4444,13 @@
       <c r="A120" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B120" s="63" t="b">
+      <c r="B120" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D120" s="67" t="s">
+      <c r="D120" s="59" t="s">
         <v>114</v>
       </c>
       <c r="E120" s="17"/>
@@ -4420,16 +4465,16 @@
       <c r="C121" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="60" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="69" t="s">
+      <c r="A122" s="56"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4443,7 +4488,7 @@
       <c r="C123" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D123" s="66" t="s">
+      <c r="D123" s="58" t="s">
         <v>118</v>
       </c>
       <c r="E123" s="13"/>
@@ -4452,13 +4497,13 @@
       <c r="A124" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B124" s="63" t="b">
+      <c r="B124" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D124" s="67" t="s">
+      <c r="D124" s="59" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="17"/>
@@ -4467,13 +4512,13 @@
       <c r="A125" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B125" s="63" t="b">
+      <c r="B125" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D125" s="67" t="s">
+      <c r="D125" s="59" t="s">
         <v>119</v>
       </c>
       <c r="E125" s="17"/>
@@ -4482,13 +4527,13 @@
       <c r="A126" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B126" s="63" t="b">
+      <c r="B126" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D126" s="67" t="s">
+      <c r="D126" s="59" t="s">
         <v>120</v>
       </c>
       <c r="E126" s="17"/>
@@ -4497,13 +4542,13 @@
       <c r="A127" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B127" s="63" t="b">
+      <c r="B127" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D127" s="67" t="s">
+      <c r="D127" s="59" t="s">
         <v>121</v>
       </c>
       <c r="E127" s="17"/>
@@ -4512,13 +4557,13 @@
       <c r="A128" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B128" s="63" t="b">
+      <c r="B128" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D128" s="67" t="s">
+      <c r="D128" s="59" t="s">
         <v>122</v>
       </c>
       <c r="E128" s="17"/>
@@ -4527,13 +4572,13 @@
       <c r="A129" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B129" s="63" t="b">
+      <c r="B129" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D129" s="67" t="s">
+      <c r="D129" s="59" t="s">
         <v>123</v>
       </c>
       <c r="E129" s="17"/>
@@ -4542,13 +4587,13 @@
       <c r="A130" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B130" s="63" t="b">
+      <c r="B130" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D130" s="67" t="s">
+      <c r="D130" s="59" t="s">
         <v>124</v>
       </c>
       <c r="E130" s="17"/>
@@ -4557,13 +4602,13 @@
       <c r="A131" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B131" s="63" t="b">
+      <c r="B131" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D131" s="67" t="s">
+      <c r="D131" s="59" t="s">
         <v>125</v>
       </c>
       <c r="E131" s="17"/>
@@ -4572,13 +4617,13 @@
       <c r="A132" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B132" s="63" t="b">
+      <c r="B132" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C132" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D132" s="67" t="s">
+      <c r="D132" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E132" s="17"/>
@@ -4587,13 +4632,13 @@
       <c r="A133" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B133" s="63" t="b">
+      <c r="B133" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C133" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D133" s="67" t="s">
+      <c r="D133" s="59" t="s">
         <v>127</v>
       </c>
       <c r="E133" s="17"/>
@@ -4602,13 +4647,13 @@
       <c r="A134" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B134" s="63" t="b">
+      <c r="B134" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C134" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D134" s="67" t="s">
+      <c r="D134" s="59" t="s">
         <v>128</v>
       </c>
       <c r="E134" s="17"/>
@@ -4617,16 +4662,18 @@
       <c r="A135" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B135" s="63" t="b">
+      <c r="B135" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D135" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D135" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="17"/>
+      <c r="E135" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="27" t="b">
@@ -4636,18 +4683,20 @@
         <v>0</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="D136" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="D136" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E136" s="14"/>
+      <c r="E136" s="14" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="69" t="s">
+      <c r="A137" s="56"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="61" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4661,7 +4710,7 @@
       <c r="C138" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D138" s="70" t="s">
+      <c r="D138" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E138" s="13"/>
@@ -4670,13 +4719,13 @@
       <c r="A139" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B139" s="63" t="b">
+      <c r="B139" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C139" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D139" s="71" t="s">
+      <c r="D139" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="17"/>
@@ -4685,13 +4734,13 @@
       <c r="A140" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B140" s="63" t="b">
+      <c r="B140" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C140" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D140" s="71" t="s">
+      <c r="D140" s="63" t="s">
         <v>1</v>
       </c>
       <c r="E140" s="17"/>
@@ -4700,73 +4749,81 @@
       <c r="A141" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B141" s="63" t="b">
+      <c r="B141" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D141" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D141" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E141" s="17"/>
+      <c r="E141" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B142" s="63" t="b">
+      <c r="B142" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D142" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D142" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="E142" s="17"/>
+      <c r="E142" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B143" s="63" t="b">
+      <c r="B143" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D143" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D143" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E143" s="17"/>
+      <c r="E143" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B144" s="63" t="b">
+      <c r="B144" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D144" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D144" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E144" s="17"/>
+      <c r="E144" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B145" s="63" t="b">
+      <c r="B145" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="63" t="s">
         <v>136</v>
       </c>
       <c r="E145" s="17"/>
@@ -4775,13 +4832,13 @@
       <c r="A146" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B146" s="63" t="b">
+      <c r="B146" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D146" s="71" t="s">
+      <c r="D146" s="63" t="s">
         <v>137</v>
       </c>
       <c r="E146" s="17"/>
@@ -4790,13 +4847,13 @@
       <c r="A147" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B147" s="63" t="b">
+      <c r="B147" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D147" s="71" t="s">
+      <c r="D147" s="63" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="17"/>
@@ -4805,13 +4862,13 @@
       <c r="A148" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B148" s="63" t="b">
+      <c r="B148" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D148" s="71" t="s">
+      <c r="D148" s="63" t="s">
         <v>139</v>
       </c>
       <c r="E148" s="17"/>
@@ -4820,13 +4877,13 @@
       <c r="A149" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B149" s="63" t="b">
+      <c r="B149" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="71" t="s">
+      <c r="D149" s="63" t="s">
         <v>140</v>
       </c>
       <c r="E149" s="17"/>
@@ -4835,13 +4892,13 @@
       <c r="A150" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B150" s="63" t="b">
+      <c r="B150" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D150" s="71" t="s">
+      <c r="D150" s="63" t="s">
         <v>141</v>
       </c>
       <c r="E150" s="17"/>
@@ -4850,13 +4907,13 @@
       <c r="A151" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B151" s="63" t="b">
+      <c r="B151" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D151" s="71" t="s">
+      <c r="D151" s="63" t="s">
         <v>142</v>
       </c>
       <c r="E151" s="17"/>
@@ -4865,13 +4922,13 @@
       <c r="A152" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B152" s="63" t="b">
+      <c r="B152" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D152" s="71" t="s">
+      <c r="D152" s="63" t="s">
         <v>143</v>
       </c>
       <c r="E152" s="17"/>
@@ -4880,43 +4937,47 @@
       <c r="A153" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B153" s="63" t="b">
+      <c r="B153" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D153" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E153" s="17"/>
+      <c r="E153" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B154" s="63" t="b">
+      <c r="B154" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D154" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D154" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E154" s="17"/>
+      <c r="E154" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B155" s="63" t="b">
+      <c r="B155" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D155" s="71" t="s">
+      <c r="D155" s="63" t="s">
         <v>146</v>
       </c>
       <c r="E155" s="17"/>
@@ -4925,13 +4986,13 @@
       <c r="A156" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B156" s="63" t="b">
+      <c r="B156" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D156" s="71" t="s">
+      <c r="D156" s="63" t="s">
         <v>147</v>
       </c>
       <c r="E156" s="17"/>
@@ -4940,13 +5001,13 @@
       <c r="A157" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B157" s="63" t="b">
+      <c r="B157" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D157" s="71" t="s">
+      <c r="D157" s="63" t="s">
         <v>148</v>
       </c>
       <c r="E157" s="17"/>
@@ -4955,13 +5016,13 @@
       <c r="A158" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B158" s="63" t="b">
+      <c r="B158" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D158" s="71" t="s">
+      <c r="D158" s="63" t="s">
         <v>149</v>
       </c>
       <c r="E158" s="17"/>
@@ -4970,13 +5031,13 @@
       <c r="A159" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B159" s="63" t="b">
+      <c r="B159" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D159" s="71" t="s">
+      <c r="D159" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E159" s="17"/>
@@ -4985,13 +5046,13 @@
       <c r="A160" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B160" s="63" t="b">
+      <c r="B160" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C160" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D160" s="71" t="s">
+      <c r="D160" s="63" t="s">
         <v>151</v>
       </c>
       <c r="E160" s="17"/>
@@ -5000,13 +5061,13 @@
       <c r="A161" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B161" s="63" t="b">
+      <c r="B161" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D161" s="71" t="s">
+      <c r="D161" s="63" t="s">
         <v>152</v>
       </c>
       <c r="E161" s="17"/>
@@ -5015,13 +5076,13 @@
       <c r="A162" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B162" s="63" t="b">
+      <c r="B162" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D162" s="71" t="s">
+      <c r="D162" s="63" t="s">
         <v>153</v>
       </c>
       <c r="E162" s="17"/>
@@ -5030,13 +5091,13 @@
       <c r="A163" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B163" s="63" t="b">
+      <c r="B163" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D163" s="71" t="s">
+      <c r="D163" s="63" t="s">
         <v>154</v>
       </c>
       <c r="E163" s="17"/>
@@ -5045,13 +5106,13 @@
       <c r="A164" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B164" s="63" t="b">
+      <c r="B164" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D164" s="71" t="s">
+      <c r="D164" s="63" t="s">
         <v>155</v>
       </c>
       <c r="E164" s="17"/>
@@ -5060,13 +5121,13 @@
       <c r="A165" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B165" s="63" t="b">
+      <c r="B165" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D165" s="71" t="s">
+      <c r="D165" s="63" t="s">
         <v>156</v>
       </c>
       <c r="E165" s="17"/>
@@ -5075,13 +5136,13 @@
       <c r="A166" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B166" s="63" t="b">
+      <c r="B166" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D166" s="71" t="s">
+      <c r="D166" s="63" t="s">
         <v>157</v>
       </c>
       <c r="E166" s="17"/>
@@ -5090,13 +5151,13 @@
       <c r="A167" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B167" s="63" t="b">
+      <c r="B167" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D167" s="71" t="s">
+      <c r="D167" s="63" t="s">
         <v>158</v>
       </c>
       <c r="E167" s="17"/>
@@ -5105,13 +5166,13 @@
       <c r="A168" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B168" s="63" t="b">
+      <c r="B168" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D168" s="71" t="s">
+      <c r="D168" s="63" t="s">
         <v>159</v>
       </c>
       <c r="E168" s="17"/>
@@ -5120,13 +5181,13 @@
       <c r="A169" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B169" s="63" t="b">
+      <c r="B169" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C169" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="71" t="s">
+      <c r="D169" s="63" t="s">
         <v>160</v>
       </c>
       <c r="E169" s="17"/>
@@ -5135,13 +5196,13 @@
       <c r="A170" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B170" s="63" t="b">
+      <c r="B170" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D170" s="71" t="s">
+      <c r="D170" s="63" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="17"/>
@@ -5150,13 +5211,13 @@
       <c r="A171" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B171" s="63" t="b">
+      <c r="B171" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D171" s="71" t="s">
+      <c r="D171" s="63" t="s">
         <v>162</v>
       </c>
       <c r="E171" s="17"/>
@@ -5165,13 +5226,13 @@
       <c r="A172" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B172" s="63" t="b">
+      <c r="B172" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D172" s="71" t="s">
+      <c r="D172" s="63" t="s">
         <v>163</v>
       </c>
       <c r="E172" s="17"/>
@@ -5180,13 +5241,13 @@
       <c r="A173" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B173" s="63" t="b">
+      <c r="B173" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D173" s="71" t="s">
+      <c r="D173" s="63" t="s">
         <v>164</v>
       </c>
       <c r="E173" s="17"/>
@@ -5195,13 +5256,13 @@
       <c r="A174" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B174" s="63" t="b">
+      <c r="B174" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D174" s="71" t="s">
+      <c r="D174" s="63" t="s">
         <v>165</v>
       </c>
       <c r="E174" s="17"/>
@@ -5210,13 +5271,13 @@
       <c r="A175" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B175" s="63" t="b">
+      <c r="B175" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C175" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D175" s="71" t="s">
+      <c r="D175" s="63" t="s">
         <v>166</v>
       </c>
       <c r="E175" s="17"/>
@@ -5225,13 +5286,13 @@
       <c r="A176" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B176" s="63" t="b">
+      <c r="B176" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C176" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D176" s="71" t="s">
+      <c r="D176" s="63" t="s">
         <v>167</v>
       </c>
       <c r="E176" s="17"/>
@@ -5240,13 +5301,13 @@
       <c r="A177" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B177" s="63" t="b">
+      <c r="B177" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D177" s="71" t="s">
+      <c r="D177" s="63" t="s">
         <v>168</v>
       </c>
       <c r="E177" s="17"/>
@@ -5261,16 +5322,16 @@
       <c r="C178" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D178" s="72" t="s">
+      <c r="D178" s="64" t="s">
         <v>169</v>
       </c>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="64"/>
-      <c r="B179" s="64"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="69" t="s">
+      <c r="A179" s="56"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="61" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5284,7 +5345,7 @@
       <c r="C180" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D180" s="66" t="s">
+      <c r="D180" s="58" t="s">
         <v>170</v>
       </c>
       <c r="E180" s="13"/>
@@ -5293,13 +5354,13 @@
       <c r="A181" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B181" s="63" t="b">
+      <c r="B181" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C181" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D181" s="67" t="s">
+      <c r="D181" s="59" t="s">
         <v>1</v>
       </c>
       <c r="E181" s="17"/>
@@ -5308,43 +5369,47 @@
       <c r="A182" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B182" s="63" t="b">
+      <c r="B182" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D182" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D182" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E182" s="17"/>
+      <c r="E182" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B183" s="63" t="b">
+      <c r="B183" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D183" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D183" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E183" s="17"/>
+      <c r="E183" s="17" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B184" s="63" t="b">
+      <c r="B184" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D184" s="67" t="s">
+      <c r="D184" s="59" t="s">
         <v>173</v>
       </c>
       <c r="E184" s="17"/>
@@ -5353,13 +5418,13 @@
       <c r="A185" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B185" s="63" t="b">
+      <c r="B185" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D185" s="67" t="s">
+      <c r="D185" s="59" t="s">
         <v>174</v>
       </c>
       <c r="E185" s="17"/>
@@ -5368,13 +5433,13 @@
       <c r="A186" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B186" s="63" t="b">
+      <c r="B186" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D186" s="67" t="s">
+      <c r="D186" s="59" t="s">
         <v>175</v>
       </c>
       <c r="E186" s="17"/>
@@ -5383,13 +5448,13 @@
       <c r="A187" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B187" s="63" t="b">
+      <c r="B187" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D187" s="67" t="s">
+      <c r="D187" s="59" t="s">
         <v>176</v>
       </c>
       <c r="E187" s="17"/>
@@ -5398,13 +5463,13 @@
       <c r="A188" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B188" s="63" t="b">
+      <c r="B188" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C188" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D188" s="67" t="s">
+      <c r="D188" s="59" t="s">
         <v>177</v>
       </c>
       <c r="E188" s="17"/>
@@ -5413,13 +5478,13 @@
       <c r="A189" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B189" s="63" t="b">
+      <c r="B189" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D189" s="67" t="s">
+      <c r="D189" s="59" t="s">
         <v>178</v>
       </c>
       <c r="E189" s="17"/>
@@ -5428,13 +5493,13 @@
       <c r="A190" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B190" s="63" t="b">
+      <c r="B190" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D190" s="67" t="s">
+      <c r="D190" s="59" t="s">
         <v>179</v>
       </c>
       <c r="E190" s="17"/>
@@ -5443,13 +5508,13 @@
       <c r="A191" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B191" s="63" t="b">
+      <c r="B191" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D191" s="67" t="s">
+      <c r="D191" s="59" t="s">
         <v>180</v>
       </c>
       <c r="E191" s="17"/>
@@ -5458,13 +5523,13 @@
       <c r="A192" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B192" s="63" t="b">
+      <c r="B192" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D192" s="67" t="s">
+      <c r="D192" s="59" t="s">
         <v>181</v>
       </c>
       <c r="E192" s="17"/>
@@ -5473,13 +5538,13 @@
       <c r="A193" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B193" s="63" t="b">
+      <c r="B193" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D193" s="67" t="s">
+      <c r="D193" s="59" t="s">
         <v>182</v>
       </c>
       <c r="E193" s="17"/>
@@ -5488,13 +5553,13 @@
       <c r="A194" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B194" s="63" t="b">
+      <c r="B194" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D194" s="67" t="s">
+      <c r="D194" s="59" t="s">
         <v>183</v>
       </c>
       <c r="E194" s="17"/>
@@ -5503,13 +5568,13 @@
       <c r="A195" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B195" s="63" t="b">
+      <c r="B195" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D195" s="67" t="s">
+      <c r="D195" s="59" t="s">
         <v>184</v>
       </c>
       <c r="E195" s="17"/>
@@ -5518,13 +5583,13 @@
       <c r="A196" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B196" s="63" t="b">
+      <c r="B196" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D196" s="67" t="s">
+      <c r="D196" s="59" t="s">
         <v>185</v>
       </c>
       <c r="E196" s="17"/>
@@ -5533,46 +5598,52 @@
       <c r="A197" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B197" s="63" t="b">
+      <c r="B197" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D197" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D197" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="E197" s="17"/>
+      <c r="E197" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B198" s="63" t="b">
+      <c r="B198" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D198" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D198" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="E198" s="17"/>
+      <c r="E198" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B199" s="63" t="b">
+      <c r="B199" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D199" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D199" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E199" s="17"/>
+      <c r="E199" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="b">
@@ -5582,18 +5653,20 @@
         <v>0</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="D200" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="D200" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="E200" s="14"/>
+      <c r="E200" s="14" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="64"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="69" t="s">
+      <c r="A201" s="56"/>
+      <c r="B201" s="56"/>
+      <c r="C201" s="56"/>
+      <c r="D201" s="61" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5607,7 +5680,7 @@
       <c r="C202" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D202" s="66" t="s">
+      <c r="D202" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E202" s="13"/>
@@ -5622,16 +5695,16 @@
       <c r="C203" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D203" s="68" t="s">
+      <c r="D203" s="60" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="14"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="64"/>
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="69" t="s">
+      <c r="A204" s="56"/>
+      <c r="B204" s="56"/>
+      <c r="C204" s="56"/>
+      <c r="D204" s="61" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5643,282 +5716,320 @@
         <v>0</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D205" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="D205" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="E205" s="13"/>
+      <c r="E205" s="13" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B206" s="63" t="b">
+      <c r="B206" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D206" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D206" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E206" s="17"/>
+      <c r="E206" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B207" s="63" t="b">
+      <c r="B207" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D207" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D207" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E207" s="17"/>
+      <c r="E207" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B208" s="63" t="b">
+      <c r="B208" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D208" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D208" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E208" s="17"/>
+      <c r="E208" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B209" s="63" t="b">
+      <c r="B209" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D209" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D209" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E209" s="17"/>
+      <c r="E209" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B210" s="63" t="b">
+      <c r="B210" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D210" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D210" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E210" s="17"/>
+      <c r="E210" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B211" s="63" t="b">
+      <c r="B211" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D211" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D211" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="E211" s="17"/>
+      <c r="E211" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B212" s="63" t="b">
+      <c r="B212" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D212" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D212" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E212" s="17"/>
+      <c r="E212" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B213" s="63" t="b">
+      <c r="B213" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D213" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D213" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="E213" s="17"/>
+      <c r="E213" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B214" s="63" t="b">
+      <c r="B214" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D214" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D214" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E214" s="17"/>
+      <c r="E214" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B215" s="63" t="b">
+      <c r="B215" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D215" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D215" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="E215" s="17"/>
+      <c r="E215" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B216" s="63" t="b">
+      <c r="B216" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D216" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D216" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="E216" s="17"/>
+      <c r="E216" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B217" s="63" t="b">
+      <c r="B217" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D217" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D217" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E217" s="17"/>
+      <c r="E217" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B218" s="63" t="b">
+      <c r="B218" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D218" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D218" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E218" s="17"/>
+      <c r="E218" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B219" s="63" t="b">
+      <c r="B219" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D219" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D219" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E219" s="17"/>
+      <c r="E219" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B220" s="63" t="b">
+      <c r="B220" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D220" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D220" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E220" s="17"/>
+      <c r="E220" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B221" s="63" t="b">
+      <c r="B221" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D221" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D221" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E221" s="17"/>
+      <c r="E221" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B222" s="63" t="b">
+      <c r="B222" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D222" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D222" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E222" s="17"/>
+      <c r="E222" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B223" s="63" t="b">
+      <c r="B223" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D223" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D223" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="17"/>
+      <c r="E223" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="27" t="b">
@@ -5928,18 +6039,20 @@
         <v>0</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="D224" s="72" t="s">
+        <v>507</v>
+      </c>
+      <c r="D224" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E224" s="14"/>
+      <c r="E224" s="14" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="64"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="69" t="s">
+      <c r="A225" s="56"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="61" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5953,45 +6066,45 @@
       <c r="C226" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="D226" s="73" t="s">
+      <c r="D226" s="65" t="s">
         <v>197</v>
       </c>
       <c r="E226" s="45"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="64"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="69" t="s">
+      <c r="A227" s="56"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="61" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="D228" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="D228" s="58" t="s">
         <v>199</v>
       </c>
       <c r="E228" s="13"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B229" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B229" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D229" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D229" s="59" t="s">
         <v>200</v>
       </c>
       <c r="E229" s="17"/>
@@ -6000,76 +6113,86 @@
       <c r="A230" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B230" s="63" t="b">
+      <c r="B230" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D230" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D230" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="E230" s="17"/>
+      <c r="E230" s="17" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B231" s="63" t="b">
+      <c r="B231" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D231" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D231" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="E231" s="17"/>
+      <c r="E231" s="17" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B232" s="63" t="b">
+      <c r="B232" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D232" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D232" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="E232" s="17"/>
+      <c r="E232" s="17" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B233" s="63" t="b">
+      <c r="B233" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D233" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D233" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="E233" s="17"/>
+      <c r="E233" s="17" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B234" s="63" t="b">
+      <c r="B234" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D234" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D234" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="E234" s="17"/>
+      <c r="E234" s="17" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="27" t="b">
@@ -6079,47 +6202,51 @@
         <v>0</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="D235" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="D235" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="E235" s="14"/>
+      <c r="E235" s="14" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="64"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="69" t="s">
+      <c r="A236" s="56"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="61" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B237" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="D237" s="70" t="s">
+        <v>512</v>
+      </c>
+      <c r="D237" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="E237" s="39"/>
+      <c r="E237" s="39" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B238" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B238" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D238" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D238" s="63" t="s">
         <v>209</v>
       </c>
       <c r="E238" s="40"/>
@@ -6128,13 +6255,13 @@
       <c r="A239" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B239" s="63" t="b">
+      <c r="B239" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D239" s="71" t="s">
+      <c r="D239" s="63" t="s">
         <v>210</v>
       </c>
       <c r="E239" s="40"/>
@@ -6143,60 +6270,58 @@
       <c r="A240" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B240" s="63" t="b">
+      <c r="B240" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D240" s="71" t="s">
+      <c r="D240" s="63" t="s">
         <v>211</v>
       </c>
       <c r="E240" s="40"/>
     </row>
-    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B241" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B241" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D241" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="D241" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="E241" s="57" t="s">
-        <v>503</v>
-      </c>
+      <c r="E241" s="50"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B242" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B242" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D242" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D242" s="63" t="s">
         <v>199</v>
       </c>
       <c r="E242" s="40"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B243" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B243" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D243" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D243" s="63" t="s">
         <v>200</v>
       </c>
       <c r="E243" s="40"/>
@@ -6205,133 +6330,137 @@
       <c r="A244" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B244" s="63" t="b">
+      <c r="B244" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D244" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D244" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="E244" s="40"/>
+      <c r="E244" s="40" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B245" s="63" t="b">
+      <c r="B245" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D245" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D245" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="E245" s="40"/>
+      <c r="E245" s="40" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B246" s="63" t="b">
+      <c r="B246" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D246" s="71" t="s">
+      <c r="D246" s="63" t="s">
         <v>213</v>
       </c>
       <c r="E246" s="40"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B247" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B247" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D247" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D247" s="63" t="s">
         <v>214</v>
       </c>
       <c r="E247" s="40"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B248" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B248" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D248" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D248" s="63" t="s">
         <v>215</v>
       </c>
       <c r="E248" s="40"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B249" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B249" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D249" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D249" s="63" t="s">
         <v>216</v>
       </c>
       <c r="E249" s="40"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B250" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B250" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D250" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D250" s="63" t="s">
         <v>217</v>
       </c>
       <c r="E250" s="40"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B251" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B251" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D251" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D251" s="63" t="s">
         <v>218</v>
       </c>
       <c r="E251" s="40"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B252" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B252" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D252" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D252" s="63" t="s">
         <v>219</v>
       </c>
       <c r="E252" s="40"/>
@@ -6340,97 +6469,103 @@
       <c r="A253" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B253" s="63" t="b">
+      <c r="B253" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D253" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D253" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="E253" s="40"/>
+      <c r="E253" s="40" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B254" s="63" t="b">
+      <c r="B254" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D254" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D254" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="E254" s="40"/>
+      <c r="E254" s="40" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B255" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B255" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D255" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D255" s="63" t="s">
         <v>222</v>
       </c>
       <c r="E255" s="40"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B256" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B256" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D256" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D256" s="63" t="s">
         <v>223</v>
       </c>
       <c r="E256" s="40"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B257" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B257" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D257" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="D257" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="E257" s="40"/>
+      <c r="E257" s="40" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B258" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="D258" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="D258" s="64" t="s">
         <v>225</v>
       </c>
       <c r="E258" s="41"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="64"/>
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="69" t="s">
+      <c r="A259" s="56"/>
+      <c r="B259" s="56"/>
+      <c r="C259" s="56"/>
+      <c r="D259" s="61" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6444,16 +6579,16 @@
       <c r="C260" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="D260" s="73" t="s">
+      <c r="D260" s="65" t="s">
         <v>227</v>
       </c>
       <c r="E260" s="19"/>
     </row>
     <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="64"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="69" t="s">
+      <c r="A261" s="56"/>
+      <c r="B261" s="56"/>
+      <c r="C261" s="56"/>
+      <c r="D261" s="61" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6467,7 +6602,7 @@
       <c r="C262" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D262" s="70" t="s">
+      <c r="D262" s="62" t="s">
         <v>229</v>
       </c>
       <c r="E262" s="39"/>
@@ -6476,13 +6611,13 @@
       <c r="A263" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B263" s="63" t="b">
+      <c r="B263" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C263" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D263" s="71" t="s">
+      <c r="D263" s="63" t="s">
         <v>230</v>
       </c>
       <c r="E263" s="40"/>
@@ -6491,13 +6626,13 @@
       <c r="A264" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B264" s="63" t="b">
+      <c r="B264" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D264" s="71" t="s">
+      <c r="D264" s="63" t="s">
         <v>231</v>
       </c>
       <c r="E264" s="40"/>
@@ -6506,13 +6641,13 @@
       <c r="A265" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B265" s="63" t="b">
+      <c r="B265" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D265" s="71" t="s">
+      <c r="D265" s="63" t="s">
         <v>232</v>
       </c>
       <c r="E265" s="40"/>
@@ -6521,13 +6656,13 @@
       <c r="A266" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B266" s="63" t="b">
+      <c r="B266" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C266" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D266" s="71" t="s">
+      <c r="D266" s="63" t="s">
         <v>233</v>
       </c>
       <c r="E266" s="40"/>
@@ -6536,13 +6671,13 @@
       <c r="A267" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B267" s="63" t="b">
+      <c r="B267" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D267" s="71" t="s">
+      <c r="D267" s="63" t="s">
         <v>234</v>
       </c>
       <c r="E267" s="40"/>
@@ -6551,13 +6686,13 @@
       <c r="A268" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B268" s="63" t="b">
+      <c r="B268" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D268" s="71" t="s">
+      <c r="D268" s="63" t="s">
         <v>235</v>
       </c>
       <c r="E268" s="40"/>
@@ -6566,13 +6701,13 @@
       <c r="A269" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B269" s="63" t="b">
+      <c r="B269" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C269" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D269" s="71" t="s">
+      <c r="D269" s="63" t="s">
         <v>236</v>
       </c>
       <c r="E269" s="40"/>
@@ -6581,13 +6716,13 @@
       <c r="A270" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B270" s="63" t="b">
+      <c r="B270" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C270" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D270" s="71" t="s">
+      <c r="D270" s="63" t="s">
         <v>237</v>
       </c>
       <c r="E270" s="40"/>
@@ -6596,13 +6731,13 @@
       <c r="A271" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B271" s="63" t="b">
+      <c r="B271" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C271" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D271" s="71" t="s">
+      <c r="D271" s="63" t="s">
         <v>238</v>
       </c>
       <c r="E271" s="40"/>
@@ -6611,13 +6746,13 @@
       <c r="A272" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B272" s="63" t="b">
+      <c r="B272" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C272" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D272" s="71" t="s">
+      <c r="D272" s="63" t="s">
         <v>239</v>
       </c>
       <c r="E272" s="40"/>
@@ -6632,16 +6767,16 @@
       <c r="C273" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D273" s="72" t="s">
+      <c r="D273" s="64" t="s">
         <v>240</v>
       </c>
       <c r="E273" s="41"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="64"/>
-      <c r="B274" s="64"/>
-      <c r="C274" s="64"/>
-      <c r="D274" s="69" t="s">
+      <c r="A274" s="56"/>
+      <c r="B274" s="56"/>
+      <c r="C274" s="56"/>
+      <c r="D274" s="61" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6655,7 +6790,7 @@
       <c r="C275" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D275" s="70" t="s">
+      <c r="D275" s="62" t="s">
         <v>242</v>
       </c>
       <c r="E275" s="39"/>
@@ -6664,13 +6799,13 @@
       <c r="A276" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B276" s="63" t="b">
+      <c r="B276" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C276" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D276" s="71" t="s">
+      <c r="D276" s="63" t="s">
         <v>243</v>
       </c>
       <c r="E276" s="40"/>
@@ -6679,13 +6814,13 @@
       <c r="A277" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B277" s="63" t="b">
+      <c r="B277" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C277" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D277" s="71" t="s">
+      <c r="D277" s="63" t="s">
         <v>244</v>
       </c>
       <c r="E277" s="40"/>
@@ -6694,13 +6829,13 @@
       <c r="A278" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B278" s="63" t="b">
+      <c r="B278" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C278" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D278" s="71" t="s">
+      <c r="D278" s="63" t="s">
         <v>245</v>
       </c>
       <c r="E278" s="40"/>
@@ -6715,16 +6850,16 @@
       <c r="C279" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D279" s="72" t="s">
+      <c r="D279" s="64" t="s">
         <v>246</v>
       </c>
       <c r="E279" s="41"/>
     </row>
     <row r="280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="64"/>
-      <c r="B280" s="64"/>
-      <c r="C280" s="64"/>
-      <c r="D280" s="69" t="s">
+      <c r="A280" s="56"/>
+      <c r="B280" s="56"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="61" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6738,7 +6873,7 @@
       <c r="C281" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D281" s="70" t="s">
+      <c r="D281" s="62" t="s">
         <v>248</v>
       </c>
       <c r="E281" s="39"/>
@@ -6747,13 +6882,13 @@
       <c r="A282" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B282" s="63" t="b">
+      <c r="B282" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D282" s="71" t="s">
+      <c r="D282" s="63" t="s">
         <v>249</v>
       </c>
       <c r="E282" s="40"/>
@@ -6762,13 +6897,13 @@
       <c r="A283" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B283" s="63" t="b">
+      <c r="B283" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C283" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D283" s="71" t="s">
+      <c r="D283" s="63" t="s">
         <v>250</v>
       </c>
       <c r="E283" s="40"/>
@@ -6777,13 +6912,13 @@
       <c r="A284" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B284" s="63" t="b">
+      <c r="B284" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C284" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D284" s="71" t="s">
+      <c r="D284" s="63" t="s">
         <v>251</v>
       </c>
       <c r="E284" s="40"/>
@@ -6792,13 +6927,13 @@
       <c r="A285" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B285" s="63" t="b">
+      <c r="B285" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C285" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D285" s="71" t="s">
+      <c r="D285" s="63" t="s">
         <v>252</v>
       </c>
       <c r="E285" s="40"/>
@@ -6807,13 +6942,13 @@
       <c r="A286" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B286" s="63" t="b">
+      <c r="B286" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C286" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D286" s="71" t="s">
+      <c r="D286" s="63" t="s">
         <v>253</v>
       </c>
       <c r="E286" s="40"/>
@@ -6822,13 +6957,13 @@
       <c r="A287" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B287" s="63" t="b">
+      <c r="B287" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C287" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D287" s="71" t="s">
+      <c r="D287" s="63" t="s">
         <v>254</v>
       </c>
       <c r="E287" s="40"/>
@@ -6837,13 +6972,13 @@
       <c r="A288" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B288" s="63" t="b">
+      <c r="B288" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C288" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D288" s="71" t="s">
+      <c r="D288" s="63" t="s">
         <v>255</v>
       </c>
       <c r="E288" s="40"/>
@@ -6852,13 +6987,13 @@
       <c r="A289" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B289" s="63" t="b">
+      <c r="B289" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C289" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D289" s="71" t="s">
+      <c r="D289" s="63" t="s">
         <v>256</v>
       </c>
       <c r="E289" s="40"/>
@@ -6867,13 +7002,13 @@
       <c r="A290" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B290" s="63" t="b">
+      <c r="B290" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C290" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D290" s="71" t="s">
+      <c r="D290" s="63" t="s">
         <v>257</v>
       </c>
       <c r="E290" s="40"/>
@@ -6882,13 +7017,13 @@
       <c r="A291" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B291" s="63" t="b">
+      <c r="B291" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C291" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D291" s="71" t="s">
+      <c r="D291" s="63" t="s">
         <v>258</v>
       </c>
       <c r="E291" s="40"/>
@@ -6897,13 +7032,13 @@
       <c r="A292" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B292" s="63" t="b">
+      <c r="B292" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C292" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D292" s="71" t="s">
+      <c r="D292" s="63" t="s">
         <v>259</v>
       </c>
       <c r="E292" s="40"/>
@@ -6912,13 +7047,13 @@
       <c r="A293" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B293" s="63" t="b">
+      <c r="B293" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C293" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D293" s="71" t="s">
+      <c r="D293" s="63" t="s">
         <v>260</v>
       </c>
       <c r="E293" s="40"/>
@@ -6927,13 +7062,13 @@
       <c r="A294" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B294" s="63" t="b">
+      <c r="B294" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C294" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D294" s="71" t="s">
+      <c r="D294" s="63" t="s">
         <v>261</v>
       </c>
       <c r="E294" s="40"/>
@@ -6942,13 +7077,13 @@
       <c r="A295" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B295" s="63" t="b">
+      <c r="B295" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C295" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D295" s="71" t="s">
+      <c r="D295" s="63" t="s">
         <v>262</v>
       </c>
       <c r="E295" s="40"/>
@@ -6957,13 +7092,13 @@
       <c r="A296" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B296" s="63" t="b">
+      <c r="B296" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C296" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D296" s="71" t="s">
+      <c r="D296" s="63" t="s">
         <v>263</v>
       </c>
       <c r="E296" s="40"/>
@@ -6972,13 +7107,13 @@
       <c r="A297" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B297" s="63" t="b">
+      <c r="B297" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C297" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="71" t="s">
+      <c r="D297" s="63" t="s">
         <v>264</v>
       </c>
       <c r="E297" s="40"/>
@@ -6987,13 +7122,13 @@
       <c r="A298" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B298" s="63" t="b">
+      <c r="B298" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C298" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D298" s="71" t="s">
+      <c r="D298" s="63" t="s">
         <v>265</v>
       </c>
       <c r="E298" s="40"/>
@@ -7002,13 +7137,13 @@
       <c r="A299" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B299" s="63" t="b">
+      <c r="B299" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C299" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D299" s="71" t="s">
+      <c r="D299" s="63" t="s">
         <v>266</v>
       </c>
       <c r="E299" s="40"/>
@@ -7023,16 +7158,16 @@
       <c r="C300" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D300" s="72" t="s">
+      <c r="D300" s="64" t="s">
         <v>267</v>
       </c>
       <c r="E300" s="41"/>
     </row>
     <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="64"/>
-      <c r="B301" s="64"/>
-      <c r="C301" s="64"/>
-      <c r="D301" s="69" t="s">
+      <c r="A301" s="56"/>
+      <c r="B301" s="56"/>
+      <c r="C301" s="56"/>
+      <c r="D301" s="61" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7046,7 +7181,7 @@
       <c r="C302" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D302" s="70" t="s">
+      <c r="D302" s="62" t="s">
         <v>269</v>
       </c>
       <c r="E302" s="39"/>
@@ -7055,13 +7190,13 @@
       <c r="A303" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B303" s="63" t="b">
+      <c r="B303" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C303" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D303" s="71" t="s">
+      <c r="D303" s="63" t="s">
         <v>270</v>
       </c>
       <c r="E303" s="40"/>
@@ -7070,13 +7205,13 @@
       <c r="A304" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B304" s="63" t="b">
+      <c r="B304" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C304" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D304" s="71" t="s">
+      <c r="D304" s="63" t="s">
         <v>271</v>
       </c>
       <c r="E304" s="40"/>
@@ -7085,13 +7220,13 @@
       <c r="A305" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B305" s="63" t="b">
+      <c r="B305" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C305" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D305" s="71" t="s">
+      <c r="D305" s="63" t="s">
         <v>272</v>
       </c>
       <c r="E305" s="40"/>
@@ -7100,13 +7235,13 @@
       <c r="A306" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B306" s="63" t="b">
+      <c r="B306" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C306" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D306" s="71" t="s">
+      <c r="D306" s="63" t="s">
         <v>273</v>
       </c>
       <c r="E306" s="40"/>
@@ -7115,13 +7250,13 @@
       <c r="A307" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B307" s="63" t="b">
+      <c r="B307" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C307" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D307" s="71" t="s">
+      <c r="D307" s="63" t="s">
         <v>274</v>
       </c>
       <c r="E307" s="40"/>
@@ -7130,13 +7265,13 @@
       <c r="A308" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B308" s="63" t="b">
+      <c r="B308" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C308" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D308" s="71" t="s">
+      <c r="D308" s="63" t="s">
         <v>275</v>
       </c>
       <c r="E308" s="40"/>
@@ -7145,13 +7280,13 @@
       <c r="A309" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B309" s="63" t="b">
+      <c r="B309" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C309" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D309" s="71" t="s">
+      <c r="D309" s="63" t="s">
         <v>276</v>
       </c>
       <c r="E309" s="40"/>
@@ -7160,13 +7295,13 @@
       <c r="A310" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B310" s="63" t="b">
+      <c r="B310" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C310" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D310" s="71" t="s">
+      <c r="D310" s="63" t="s">
         <v>277</v>
       </c>
       <c r="E310" s="40"/>
@@ -7181,16 +7316,16 @@
       <c r="C311" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D311" s="72" t="s">
+      <c r="D311" s="64" t="s">
         <v>278</v>
       </c>
       <c r="E311" s="41"/>
     </row>
     <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="64"/>
-      <c r="B312" s="64"/>
-      <c r="C312" s="64"/>
-      <c r="D312" s="69" t="s">
+      <c r="A312" s="56"/>
+      <c r="B312" s="56"/>
+      <c r="C312" s="56"/>
+      <c r="D312" s="61" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7204,7 +7339,7 @@
       <c r="C313" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D313" s="70" t="s">
+      <c r="D313" s="62" t="s">
         <v>280</v>
       </c>
       <c r="E313" s="39"/>
@@ -7213,13 +7348,13 @@
       <c r="A314" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B314" s="63" t="b">
+      <c r="B314" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C314" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D314" s="71" t="s">
+      <c r="D314" s="63" t="s">
         <v>281</v>
       </c>
       <c r="E314" s="40"/>
@@ -7228,13 +7363,13 @@
       <c r="A315" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B315" s="63" t="b">
+      <c r="B315" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C315" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D315" s="71" t="s">
+      <c r="D315" s="63" t="s">
         <v>282</v>
       </c>
       <c r="E315" s="40"/>
@@ -7249,16 +7384,16 @@
       <c r="C316" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D316" s="72" t="s">
+      <c r="D316" s="64" t="s">
         <v>283</v>
       </c>
       <c r="E316" s="41"/>
     </row>
     <row r="317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="64"/>
-      <c r="B317" s="64"/>
-      <c r="C317" s="64"/>
-      <c r="D317" s="69" t="s">
+      <c r="A317" s="56"/>
+      <c r="B317" s="56"/>
+      <c r="C317" s="56"/>
+      <c r="D317" s="61" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7272,7 +7407,7 @@
       <c r="C318" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D318" s="70" t="s">
+      <c r="D318" s="62" t="s">
         <v>285</v>
       </c>
       <c r="E318" s="39"/>
@@ -7287,16 +7422,16 @@
       <c r="C319" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D319" s="72" t="s">
+      <c r="D319" s="64" t="s">
         <v>286</v>
       </c>
       <c r="E319" s="41"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="64"/>
-      <c r="B320" s="64"/>
-      <c r="C320" s="64"/>
-      <c r="D320" s="69" t="s">
+      <c r="A320" s="56"/>
+      <c r="B320" s="56"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="61" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7308,26 +7443,26 @@
         <v>1</v>
       </c>
       <c r="C321" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D321" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="D321" s="62" t="s">
         <v>288</v>
       </c>
       <c r="E321" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B322" s="63" t="b">
+      <c r="B322" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="D322" s="71" t="s">
+        <v>496</v>
+      </c>
+      <c r="D322" s="63" t="s">
         <v>289</v>
       </c>
       <c r="E322" s="40"/>
@@ -7336,13 +7471,13 @@
       <c r="A323" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B323" s="63" t="b">
+      <c r="B323" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C323" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D323" s="71" t="s">
+      <c r="D323" s="63" t="s">
         <v>290</v>
       </c>
       <c r="E323" s="40"/>
@@ -7351,67 +7486,69 @@
       <c r="A324" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B324" s="63" t="b">
+      <c r="B324" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D324" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D324" s="63" t="s">
         <v>291</v>
       </c>
       <c r="E324" s="40"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B325" s="63" t="b">
+      <c r="B325" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C325" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D325" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="D325" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="E325" s="40"/>
+      <c r="E325" s="50" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B326" s="63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B326" s="55" t="b">
+        <v>1</v>
       </c>
       <c r="C326" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D326" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D326" s="63" t="s">
         <v>293</v>
       </c>
       <c r="E326" s="40"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B327" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="D327" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="D327" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="E327" s="41"/>
+      <c r="E327" s="50"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="64"/>
-      <c r="B328" s="64"/>
-      <c r="C328" s="64"/>
-      <c r="D328" s="69" t="s">
+      <c r="A328" s="56"/>
+      <c r="B328" s="56"/>
+      <c r="C328" s="56"/>
+      <c r="D328" s="61" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7425,7 +7562,7 @@
       <c r="C329" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D329" s="70" t="s">
+      <c r="D329" s="62" t="s">
         <v>296</v>
       </c>
       <c r="E329" s="39"/>
@@ -7434,13 +7571,13 @@
       <c r="A330" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B330" s="63" t="b">
+      <c r="B330" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C330" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D330" s="71" t="s">
+      <c r="D330" s="63" t="s">
         <v>297</v>
       </c>
       <c r="E330" s="40"/>
@@ -7449,13 +7586,13 @@
       <c r="A331" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B331" s="63" t="b">
+      <c r="B331" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C331" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D331" s="71" t="s">
+      <c r="D331" s="63" t="s">
         <v>298</v>
       </c>
       <c r="E331" s="40"/>
@@ -7464,13 +7601,13 @@
       <c r="A332" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B332" s="63" t="b">
+      <c r="B332" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C332" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D332" s="71" t="s">
+      <c r="D332" s="63" t="s">
         <v>299</v>
       </c>
       <c r="E332" s="40"/>
@@ -7479,13 +7616,13 @@
       <c r="A333" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B333" s="63" t="b">
+      <c r="B333" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C333" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D333" s="71" t="s">
+      <c r="D333" s="63" t="s">
         <v>300</v>
       </c>
       <c r="E333" s="40"/>
@@ -7494,13 +7631,13 @@
       <c r="A334" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B334" s="63" t="b">
+      <c r="B334" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C334" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D334" s="71" t="s">
+      <c r="D334" s="63" t="s">
         <v>301</v>
       </c>
       <c r="E334" s="40"/>
@@ -7509,13 +7646,13 @@
       <c r="A335" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B335" s="63" t="b">
+      <c r="B335" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C335" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D335" s="71" t="s">
+      <c r="D335" s="63" t="s">
         <v>302</v>
       </c>
       <c r="E335" s="40"/>
@@ -7524,13 +7661,13 @@
       <c r="A336" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B336" s="63" t="b">
+      <c r="B336" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C336" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D336" s="71" t="s">
+      <c r="D336" s="63" t="s">
         <v>303</v>
       </c>
       <c r="E336" s="40"/>
@@ -7539,13 +7676,13 @@
       <c r="A337" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B337" s="63" t="b">
+      <c r="B337" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C337" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D337" s="71" t="s">
+      <c r="D337" s="63" t="s">
         <v>304</v>
       </c>
       <c r="E337" s="40"/>
@@ -7554,13 +7691,13 @@
       <c r="A338" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B338" s="63" t="b">
+      <c r="B338" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C338" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D338" s="71" t="s">
+      <c r="D338" s="63" t="s">
         <v>305</v>
       </c>
       <c r="E338" s="40"/>
@@ -7569,13 +7706,13 @@
       <c r="A339" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B339" s="63" t="b">
+      <c r="B339" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C339" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D339" s="71" t="s">
+      <c r="D339" s="63" t="s">
         <v>306</v>
       </c>
       <c r="E339" s="40"/>
@@ -7584,13 +7721,13 @@
       <c r="A340" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B340" s="63" t="b">
+      <c r="B340" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C340" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D340" s="71" t="s">
+      <c r="D340" s="63" t="s">
         <v>307</v>
       </c>
       <c r="E340" s="40"/>
@@ -7599,13 +7736,13 @@
       <c r="A341" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B341" s="63" t="b">
+      <c r="B341" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C341" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D341" s="71" t="s">
+      <c r="D341" s="63" t="s">
         <v>308</v>
       </c>
       <c r="E341" s="40"/>
@@ -7614,13 +7751,13 @@
       <c r="A342" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B342" s="63" t="b">
+      <c r="B342" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C342" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D342" s="71" t="s">
+      <c r="D342" s="63" t="s">
         <v>309</v>
       </c>
       <c r="E342" s="40"/>
@@ -7629,13 +7766,13 @@
       <c r="A343" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B343" s="63" t="b">
+      <c r="B343" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C343" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D343" s="71" t="s">
+      <c r="D343" s="63" t="s">
         <v>310</v>
       </c>
       <c r="E343" s="40"/>
@@ -7644,13 +7781,13 @@
       <c r="A344" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B344" s="63" t="b">
+      <c r="B344" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C344" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D344" s="71" t="s">
+      <c r="D344" s="63" t="s">
         <v>311</v>
       </c>
       <c r="E344" s="40"/>
@@ -7659,13 +7796,13 @@
       <c r="A345" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B345" s="63" t="b">
+      <c r="B345" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C345" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D345" s="71" t="s">
+      <c r="D345" s="63" t="s">
         <v>312</v>
       </c>
       <c r="E345" s="40"/>
@@ -7680,16 +7817,16 @@
       <c r="C346" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D346" s="72" t="s">
+      <c r="D346" s="64" t="s">
         <v>313</v>
       </c>
       <c r="E346" s="41"/>
     </row>
     <row r="347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="64"/>
-      <c r="B347" s="64"/>
-      <c r="C347" s="64"/>
-      <c r="D347" s="69" t="s">
+      <c r="A347" s="56"/>
+      <c r="B347" s="56"/>
+      <c r="C347" s="56"/>
+      <c r="D347" s="61" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7703,7 +7840,7 @@
       <c r="C348" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D348" s="70" t="s">
+      <c r="D348" s="62" t="s">
         <v>315</v>
       </c>
       <c r="E348" s="39"/>
@@ -7712,13 +7849,13 @@
       <c r="A349" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B349" s="63" t="b">
+      <c r="B349" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C349" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D349" s="71" t="s">
+      <c r="D349" s="63" t="s">
         <v>316</v>
       </c>
       <c r="E349" s="40"/>
@@ -7727,13 +7864,13 @@
       <c r="A350" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B350" s="63" t="b">
+      <c r="B350" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C350" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D350" s="71" t="s">
+      <c r="D350" s="63" t="s">
         <v>317</v>
       </c>
       <c r="E350" s="40"/>
@@ -7742,13 +7879,13 @@
       <c r="A351" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B351" s="63" t="b">
+      <c r="B351" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C351" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D351" s="71" t="s">
+      <c r="D351" s="63" t="s">
         <v>318</v>
       </c>
       <c r="E351" s="40"/>
@@ -7757,13 +7894,13 @@
       <c r="A352" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B352" s="63" t="b">
+      <c r="B352" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C352" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D352" s="71" t="s">
+      <c r="D352" s="63" t="s">
         <v>319</v>
       </c>
       <c r="E352" s="40"/>
@@ -7772,13 +7909,13 @@
       <c r="A353" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B353" s="63" t="b">
+      <c r="B353" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C353" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D353" s="71" t="s">
+      <c r="D353" s="63" t="s">
         <v>320</v>
       </c>
       <c r="E353" s="40"/>
@@ -7787,13 +7924,13 @@
       <c r="A354" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B354" s="63" t="b">
+      <c r="B354" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C354" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D354" s="71" t="s">
+      <c r="D354" s="63" t="s">
         <v>321</v>
       </c>
       <c r="E354" s="40"/>
@@ -7802,13 +7939,13 @@
       <c r="A355" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B355" s="63" t="b">
+      <c r="B355" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C355" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D355" s="71" t="s">
+      <c r="D355" s="63" t="s">
         <v>322</v>
       </c>
       <c r="E355" s="40"/>
@@ -7817,13 +7954,13 @@
       <c r="A356" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B356" s="63" t="b">
+      <c r="B356" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C356" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D356" s="71" t="s">
+      <c r="D356" s="63" t="s">
         <v>323</v>
       </c>
       <c r="E356" s="40"/>
@@ -7832,13 +7969,13 @@
       <c r="A357" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B357" s="63" t="b">
+      <c r="B357" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C357" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D357" s="71" t="s">
+      <c r="D357" s="63" t="s">
         <v>324</v>
       </c>
       <c r="E357" s="40"/>
@@ -7847,13 +7984,13 @@
       <c r="A358" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B358" s="63" t="b">
+      <c r="B358" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C358" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D358" s="71" t="s">
+      <c r="D358" s="63" t="s">
         <v>325</v>
       </c>
       <c r="E358" s="40"/>
@@ -7868,16 +8005,16 @@
       <c r="C359" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D359" s="72" t="s">
+      <c r="D359" s="64" t="s">
         <v>326</v>
       </c>
       <c r="E359" s="41"/>
     </row>
     <row r="360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="64"/>
-      <c r="B360" s="64"/>
-      <c r="C360" s="64"/>
-      <c r="D360" s="69" t="s">
+      <c r="A360" s="56"/>
+      <c r="B360" s="56"/>
+      <c r="C360" s="56"/>
+      <c r="D360" s="61" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7891,7 +8028,7 @@
       <c r="C361" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D361" s="70" t="s">
+      <c r="D361" s="62" t="s">
         <v>328</v>
       </c>
       <c r="E361" s="39"/>
@@ -7900,13 +8037,13 @@
       <c r="A362" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B362" s="63" t="b">
+      <c r="B362" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C362" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D362" s="71" t="s">
+      <c r="D362" s="63" t="s">
         <v>329</v>
       </c>
       <c r="E362" s="40"/>
@@ -7915,13 +8052,13 @@
       <c r="A363" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B363" s="63" t="b">
+      <c r="B363" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C363" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D363" s="71" t="s">
+      <c r="D363" s="63" t="s">
         <v>330</v>
       </c>
       <c r="E363" s="40"/>
@@ -7930,13 +8067,13 @@
       <c r="A364" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B364" s="63" t="b">
+      <c r="B364" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C364" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D364" s="75" t="s">
+      <c r="D364" s="67" t="s">
         <v>331</v>
       </c>
       <c r="E364" s="40"/>
@@ -7945,13 +8082,13 @@
       <c r="A365" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B365" s="63" t="b">
+      <c r="B365" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C365" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D365" s="71" t="s">
+      <c r="D365" s="63" t="s">
         <v>332</v>
       </c>
       <c r="E365" s="40"/>
@@ -7960,13 +8097,13 @@
       <c r="A366" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B366" s="63" t="b">
+      <c r="B366" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C366" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D366" s="71" t="s">
+      <c r="D366" s="63" t="s">
         <v>333</v>
       </c>
       <c r="E366" s="40"/>
@@ -7975,13 +8112,13 @@
       <c r="A367" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B367" s="63" t="b">
+      <c r="B367" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C367" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D367" s="71" t="s">
+      <c r="D367" s="63" t="s">
         <v>334</v>
       </c>
       <c r="E367" s="40"/>
@@ -7996,16 +8133,16 @@
       <c r="C368" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D368" s="72" t="s">
+      <c r="D368" s="64" t="s">
         <v>335</v>
       </c>
       <c r="E368" s="41"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="64"/>
-      <c r="B369" s="64"/>
-      <c r="C369" s="64"/>
-      <c r="D369" s="69" t="s">
+      <c r="A369" s="56"/>
+      <c r="B369" s="56"/>
+      <c r="C369" s="56"/>
+      <c r="D369" s="61" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8019,7 +8156,7 @@
       <c r="C370" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D370" s="70" t="s">
+      <c r="D370" s="62" t="s">
         <v>337</v>
       </c>
       <c r="E370" s="39"/>
@@ -8028,13 +8165,13 @@
       <c r="A371" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B371" s="63" t="b">
+      <c r="B371" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C371" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D371" s="71" t="s">
+      <c r="D371" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E371" s="40"/>
@@ -8043,13 +8180,13 @@
       <c r="A372" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B372" s="63" t="b">
+      <c r="B372" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C372" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D372" s="71" t="s">
+      <c r="D372" s="63" t="s">
         <v>339</v>
       </c>
       <c r="E372" s="40"/>
@@ -8058,13 +8195,13 @@
       <c r="A373" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B373" s="63" t="b">
+      <c r="B373" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C373" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D373" s="71" t="s">
+      <c r="D373" s="63" t="s">
         <v>340</v>
       </c>
       <c r="E373" s="40"/>
@@ -8073,13 +8210,13 @@
       <c r="A374" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B374" s="63" t="b">
+      <c r="B374" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C374" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D374" s="71" t="s">
+      <c r="D374" s="63" t="s">
         <v>341</v>
       </c>
       <c r="E374" s="40"/>
@@ -8088,13 +8225,13 @@
       <c r="A375" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B375" s="63" t="b">
+      <c r="B375" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C375" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D375" s="71" t="s">
+      <c r="D375" s="63" t="s">
         <v>342</v>
       </c>
       <c r="E375" s="40"/>
@@ -8103,13 +8240,13 @@
       <c r="A376" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B376" s="63" t="b">
+      <c r="B376" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C376" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D376" s="71" t="s">
+      <c r="D376" s="63" t="s">
         <v>343</v>
       </c>
       <c r="E376" s="40"/>
@@ -8118,13 +8255,13 @@
       <c r="A377" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B377" s="63" t="b">
+      <c r="B377" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C377" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D377" s="71" t="s">
+      <c r="D377" s="63" t="s">
         <v>344</v>
       </c>
       <c r="E377" s="40"/>
@@ -8133,13 +8270,13 @@
       <c r="A378" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B378" s="63" t="b">
+      <c r="B378" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C378" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D378" s="71" t="s">
+      <c r="D378" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E378" s="40"/>
@@ -8148,13 +8285,13 @@
       <c r="A379" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B379" s="63" t="b">
+      <c r="B379" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C379" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D379" s="71" t="s">
+      <c r="D379" s="63" t="s">
         <v>346</v>
       </c>
       <c r="E379" s="40"/>
@@ -8169,16 +8306,16 @@
       <c r="C380" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D380" s="72" t="s">
+      <c r="D380" s="64" t="s">
         <v>347</v>
       </c>
       <c r="E380" s="41"/>
     </row>
     <row r="381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="64"/>
-      <c r="B381" s="64"/>
-      <c r="C381" s="64"/>
-      <c r="D381" s="69" t="s">
+      <c r="A381" s="56"/>
+      <c r="B381" s="56"/>
+      <c r="C381" s="56"/>
+      <c r="D381" s="61" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8192,7 +8329,7 @@
       <c r="C382" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D382" s="70" t="s">
+      <c r="D382" s="62" t="s">
         <v>296</v>
       </c>
       <c r="E382" s="39"/>
@@ -8201,13 +8338,13 @@
       <c r="A383" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B383" s="63" t="b">
+      <c r="B383" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C383" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D383" s="71" t="s">
+      <c r="D383" s="63" t="s">
         <v>349</v>
       </c>
       <c r="E383" s="40"/>
@@ -8216,13 +8353,13 @@
       <c r="A384" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B384" s="63" t="b">
+      <c r="B384" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C384" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D384" s="71" t="s">
+      <c r="D384" s="63" t="s">
         <v>350</v>
       </c>
       <c r="E384" s="40"/>
@@ -8231,13 +8368,13 @@
       <c r="A385" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B385" s="63" t="b">
+      <c r="B385" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C385" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D385" s="71" t="s">
+      <c r="D385" s="63" t="s">
         <v>351</v>
       </c>
       <c r="E385" s="40"/>
@@ -8246,13 +8383,13 @@
       <c r="A386" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B386" s="63" t="b">
+      <c r="B386" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C386" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D386" s="71" t="s">
+      <c r="D386" s="63" t="s">
         <v>352</v>
       </c>
       <c r="E386" s="40"/>
@@ -8261,13 +8398,13 @@
       <c r="A387" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B387" s="63" t="b">
+      <c r="B387" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C387" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D387" s="71" t="s">
+      <c r="D387" s="63" t="s">
         <v>353</v>
       </c>
       <c r="E387" s="40" t="s">
@@ -8278,13 +8415,13 @@
       <c r="A388" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B388" s="63" t="b">
+      <c r="B388" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C388" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D388" s="71" t="s">
+      <c r="D388" s="63" t="s">
         <v>315</v>
       </c>
       <c r="E388" s="40"/>
@@ -8293,13 +8430,13 @@
       <c r="A389" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B389" s="63" t="b">
+      <c r="B389" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C389" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D389" s="71" t="s">
+      <c r="D389" s="63" t="s">
         <v>354</v>
       </c>
       <c r="E389" s="40"/>
@@ -8308,13 +8445,13 @@
       <c r="A390" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B390" s="63" t="b">
+      <c r="B390" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C390" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D390" s="71" t="s">
+      <c r="D390" s="63" t="s">
         <v>355</v>
       </c>
       <c r="E390" s="40"/>
@@ -8323,13 +8460,13 @@
       <c r="A391" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B391" s="63" t="b">
+      <c r="B391" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C391" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D391" s="71" t="s">
+      <c r="D391" s="63" t="s">
         <v>356</v>
       </c>
       <c r="E391" s="40"/>
@@ -8338,13 +8475,13 @@
       <c r="A392" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B392" s="63" t="b">
+      <c r="B392" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C392" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D392" s="71" t="s">
+      <c r="D392" s="63" t="s">
         <v>357</v>
       </c>
       <c r="E392" s="40"/>
@@ -8353,13 +8490,13 @@
       <c r="A393" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B393" s="63" t="b">
+      <c r="B393" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C393" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D393" s="71" t="s">
+      <c r="D393" s="63" t="s">
         <v>358</v>
       </c>
       <c r="E393" s="40"/>
@@ -8368,13 +8505,13 @@
       <c r="A394" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B394" s="63" t="b">
+      <c r="B394" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C394" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D394" s="71" t="s">
+      <c r="D394" s="63" t="s">
         <v>325</v>
       </c>
       <c r="E394" s="40"/>
@@ -8383,13 +8520,13 @@
       <c r="A395" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B395" s="63" t="b">
+      <c r="B395" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C395" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D395" s="71" t="s">
+      <c r="D395" s="63" t="s">
         <v>359</v>
       </c>
       <c r="E395" s="40"/>
@@ -8398,13 +8535,13 @@
       <c r="A396" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B396" s="63" t="b">
+      <c r="B396" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C396" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D396" s="71" t="s">
+      <c r="D396" s="63" t="s">
         <v>326</v>
       </c>
       <c r="E396" s="40"/>
@@ -8413,13 +8550,13 @@
       <c r="A397" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B397" s="63" t="b">
+      <c r="B397" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C397" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D397" s="71" t="s">
+      <c r="D397" s="63" t="s">
         <v>360</v>
       </c>
       <c r="E397" s="40"/>
@@ -8428,13 +8565,13 @@
       <c r="A398" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B398" s="63" t="b">
+      <c r="B398" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C398" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D398" s="71" t="s">
+      <c r="D398" s="63" t="s">
         <v>361</v>
       </c>
       <c r="E398" s="40"/>
@@ -8443,13 +8580,13 @@
       <c r="A399" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B399" s="63" t="b">
+      <c r="B399" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C399" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D399" s="71" t="s">
+      <c r="D399" s="63" t="s">
         <v>362</v>
       </c>
       <c r="E399" s="40"/>
@@ -8458,13 +8595,13 @@
       <c r="A400" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B400" s="63" t="b">
+      <c r="B400" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C400" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D400" s="71" t="s">
+      <c r="D400" s="63" t="s">
         <v>213</v>
       </c>
       <c r="E400" s="40"/>
@@ -8473,13 +8610,13 @@
       <c r="A401" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B401" s="63" t="b">
+      <c r="B401" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C401" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D401" s="71" t="s">
+      <c r="D401" s="63" t="s">
         <v>363</v>
       </c>
       <c r="E401" s="40"/>
@@ -8494,16 +8631,16 @@
       <c r="C402" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D402" s="72" t="s">
+      <c r="D402" s="64" t="s">
         <v>364</v>
       </c>
       <c r="E402" s="41"/>
     </row>
     <row r="403" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="64"/>
-      <c r="B403" s="64"/>
-      <c r="C403" s="64"/>
-      <c r="D403" s="69" t="s">
+      <c r="A403" s="56"/>
+      <c r="B403" s="56"/>
+      <c r="C403" s="56"/>
+      <c r="D403" s="61" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8517,7 +8654,7 @@
       <c r="C404" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D404" s="70" t="s">
+      <c r="D404" s="62" t="s">
         <v>366</v>
       </c>
       <c r="E404" s="39"/>
@@ -8526,13 +8663,13 @@
       <c r="A405" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B405" s="63" t="b">
+      <c r="B405" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C405" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D405" s="71" t="s">
+      <c r="D405" s="63" t="s">
         <v>367</v>
       </c>
       <c r="E405" s="40"/>
@@ -8541,13 +8678,13 @@
       <c r="A406" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B406" s="63" t="b">
+      <c r="B406" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C406" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D406" s="71" t="s">
+      <c r="D406" s="63" t="s">
         <v>368</v>
       </c>
       <c r="E406" s="40"/>
@@ -8562,16 +8699,16 @@
       <c r="C407" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D407" s="72" t="s">
+      <c r="D407" s="64" t="s">
         <v>369</v>
       </c>
       <c r="E407" s="41"/>
     </row>
     <row r="408" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="64"/>
-      <c r="B408" s="64"/>
-      <c r="C408" s="64"/>
-      <c r="D408" s="69" t="s">
+      <c r="A408" s="56"/>
+      <c r="B408" s="56"/>
+      <c r="C408" s="56"/>
+      <c r="D408" s="61" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8585,7 +8722,7 @@
       <c r="C409" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D409" s="70" t="s">
+      <c r="D409" s="62" t="s">
         <v>296</v>
       </c>
       <c r="E409" s="39"/>
@@ -8594,13 +8731,13 @@
       <c r="A410" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B410" s="63" t="b">
+      <c r="B410" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C410" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D410" s="71" t="s">
+      <c r="D410" s="63" t="s">
         <v>371</v>
       </c>
       <c r="E410" s="40"/>
@@ -8609,13 +8746,13 @@
       <c r="A411" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B411" s="63" t="b">
+      <c r="B411" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C411" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D411" s="71" t="s">
+      <c r="D411" s="63" t="s">
         <v>372</v>
       </c>
       <c r="E411" s="40"/>
@@ -8624,13 +8761,13 @@
       <c r="A412" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B412" s="63" t="b">
+      <c r="B412" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C412" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D412" s="71" t="s">
+      <c r="D412" s="63" t="s">
         <v>373</v>
       </c>
       <c r="E412" s="40"/>
@@ -8639,13 +8776,13 @@
       <c r="A413" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B413" s="63" t="b">
+      <c r="B413" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C413" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D413" s="71" t="s">
+      <c r="D413" s="63" t="s">
         <v>374</v>
       </c>
       <c r="E413" s="40"/>
@@ -8654,13 +8791,13 @@
       <c r="A414" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B414" s="63" t="b">
+      <c r="B414" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C414" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D414" s="71" t="s">
+      <c r="D414" s="63" t="s">
         <v>375</v>
       </c>
       <c r="E414" s="40"/>
@@ -8669,13 +8806,13 @@
       <c r="A415" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B415" s="63" t="b">
+      <c r="B415" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C415" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D415" s="71" t="s">
+      <c r="D415" s="63" t="s">
         <v>376</v>
       </c>
       <c r="E415" s="40"/>
@@ -8684,13 +8821,13 @@
       <c r="A416" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B416" s="63" t="b">
+      <c r="B416" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C416" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D416" s="71" t="s">
+      <c r="D416" s="63" t="s">
         <v>377</v>
       </c>
       <c r="E416" s="40"/>
@@ -8699,13 +8836,13 @@
       <c r="A417" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B417" s="63" t="b">
+      <c r="B417" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C417" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D417" s="71" t="s">
+      <c r="D417" s="63" t="s">
         <v>378</v>
       </c>
       <c r="E417" s="40"/>
@@ -8714,13 +8851,13 @@
       <c r="A418" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B418" s="63" t="b">
+      <c r="B418" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C418" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D418" s="71" t="s">
+      <c r="D418" s="63" t="s">
         <v>379</v>
       </c>
       <c r="E418" s="40"/>
@@ -8729,13 +8866,13 @@
       <c r="A419" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B419" s="63" t="b">
+      <c r="B419" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C419" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D419" s="71" t="s">
+      <c r="D419" s="63" t="s">
         <v>380</v>
       </c>
       <c r="E419" s="40"/>
@@ -8744,13 +8881,13 @@
       <c r="A420" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B420" s="63" t="b">
+      <c r="B420" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C420" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D420" s="71" t="s">
+      <c r="D420" s="63" t="s">
         <v>353</v>
       </c>
       <c r="E420" s="40"/>
@@ -8759,13 +8896,13 @@
       <c r="A421" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B421" s="63" t="b">
+      <c r="B421" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C421" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D421" s="71" t="s">
+      <c r="D421" s="63" t="s">
         <v>381</v>
       </c>
       <c r="E421" s="40"/>
@@ -8774,13 +8911,13 @@
       <c r="A422" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B422" s="63" t="b">
+      <c r="B422" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C422" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D422" s="71" t="s">
+      <c r="D422" s="63" t="s">
         <v>382</v>
       </c>
       <c r="E422" s="40"/>
@@ -8789,13 +8926,13 @@
       <c r="A423" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B423" s="63" t="b">
+      <c r="B423" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C423" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D423" s="71" t="s">
+      <c r="D423" s="63" t="s">
         <v>383</v>
       </c>
       <c r="E423" s="40"/>
@@ -8804,13 +8941,13 @@
       <c r="A424" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B424" s="63" t="b">
+      <c r="B424" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C424" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D424" s="71" t="s">
+      <c r="D424" s="63" t="s">
         <v>384</v>
       </c>
       <c r="E424" s="40"/>
@@ -8819,13 +8956,13 @@
       <c r="A425" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B425" s="63" t="b">
+      <c r="B425" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C425" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D425" s="71" t="s">
+      <c r="D425" s="63" t="s">
         <v>385</v>
       </c>
       <c r="E425" s="40"/>
@@ -8834,13 +8971,13 @@
       <c r="A426" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B426" s="63" t="b">
+      <c r="B426" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C426" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D426" s="71" t="s">
+      <c r="D426" s="63" t="s">
         <v>386</v>
       </c>
       <c r="E426" s="40"/>
@@ -8849,13 +8986,13 @@
       <c r="A427" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B427" s="63" t="b">
+      <c r="B427" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C427" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D427" s="71" t="s">
+      <c r="D427" s="63" t="s">
         <v>387</v>
       </c>
       <c r="E427" s="40"/>
@@ -8864,13 +9001,13 @@
       <c r="A428" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B428" s="63" t="b">
+      <c r="B428" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C428" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D428" s="71" t="s">
+      <c r="D428" s="63" t="s">
         <v>388</v>
       </c>
       <c r="E428" s="40"/>
@@ -8879,13 +9016,13 @@
       <c r="A429" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B429" s="63" t="b">
+      <c r="B429" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C429" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D429" s="71" t="s">
+      <c r="D429" s="63" t="s">
         <v>389</v>
       </c>
       <c r="E429" s="40"/>
@@ -8894,13 +9031,13 @@
       <c r="A430" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B430" s="63" t="b">
+      <c r="B430" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C430" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D430" s="71" t="s">
+      <c r="D430" s="63" t="s">
         <v>390</v>
       </c>
       <c r="E430" s="40"/>
@@ -8909,13 +9046,13 @@
       <c r="A431" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B431" s="63" t="b">
+      <c r="B431" s="55" t="b">
         <v>1</v>
       </c>
       <c r="C431" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D431" s="71" t="s">
+      <c r="D431" s="63" t="s">
         <v>359</v>
       </c>
       <c r="E431" s="40"/>
@@ -8924,13 +9061,13 @@
       <c r="A432" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B432" s="63" t="b">
+      <c r="B432" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C432" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D432" s="71" t="s">
+      <c r="D432" s="63" t="s">
         <v>311</v>
       </c>
       <c r="E432" s="40"/>
@@ -8939,13 +9076,13 @@
       <c r="A433" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B433" s="63" t="b">
+      <c r="B433" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C433" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D433" s="71" t="s">
+      <c r="D433" s="63" t="s">
         <v>312</v>
       </c>
       <c r="E433" s="40"/>
@@ -8954,13 +9091,13 @@
       <c r="A434" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B434" s="63" t="b">
+      <c r="B434" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C434" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D434" s="71" t="s">
+      <c r="D434" s="63" t="s">
         <v>313</v>
       </c>
       <c r="E434" s="40"/>
@@ -8969,13 +9106,13 @@
       <c r="A435" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B435" s="63" t="b">
+      <c r="B435" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C435" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D435" s="71" t="s">
+      <c r="D435" s="63" t="s">
         <v>391</v>
       </c>
       <c r="E435" s="40"/>
@@ -8984,13 +9121,13 @@
       <c r="A436" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B436" s="63" t="b">
+      <c r="B436" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C436" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D436" s="71" t="s">
+      <c r="D436" s="63" t="s">
         <v>392</v>
       </c>
       <c r="E436" s="40"/>
@@ -8999,13 +9136,13 @@
       <c r="A437" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B437" s="63" t="b">
+      <c r="B437" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C437" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D437" s="71" t="s">
+      <c r="D437" s="63" t="s">
         <v>393</v>
       </c>
       <c r="E437" s="40"/>
@@ -9014,13 +9151,13 @@
       <c r="A438" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B438" s="63" t="b">
+      <c r="B438" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C438" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D438" s="71" t="s">
+      <c r="D438" s="63" t="s">
         <v>394</v>
       </c>
       <c r="E438" s="40"/>
@@ -9029,13 +9166,13 @@
       <c r="A439" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B439" s="63" t="b">
+      <c r="B439" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C439" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D439" s="71" t="s">
+      <c r="D439" s="63" t="s">
         <v>395</v>
       </c>
       <c r="E439" s="40"/>
@@ -9044,13 +9181,13 @@
       <c r="A440" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B440" s="63" t="b">
+      <c r="B440" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C440" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D440" s="71" t="s">
+      <c r="D440" s="63" t="s">
         <v>396</v>
       </c>
       <c r="E440" s="40"/>
@@ -9059,13 +9196,13 @@
       <c r="A441" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B441" s="63" t="b">
+      <c r="B441" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C441" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D441" s="71" t="s">
+      <c r="D441" s="63" t="s">
         <v>397</v>
       </c>
       <c r="E441" s="40"/>
@@ -9074,13 +9211,13 @@
       <c r="A442" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B442" s="63" t="b">
+      <c r="B442" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C442" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D442" s="71" t="s">
+      <c r="D442" s="63" t="s">
         <v>398</v>
       </c>
       <c r="E442" s="40"/>
@@ -9089,13 +9226,13 @@
       <c r="A443" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B443" s="63" t="b">
+      <c r="B443" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C443" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D443" s="71" t="s">
+      <c r="D443" s="63" t="s">
         <v>399</v>
       </c>
       <c r="E443" s="40"/>
@@ -9104,13 +9241,13 @@
       <c r="A444" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B444" s="63" t="b">
+      <c r="B444" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C444" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D444" s="71" t="s">
+      <c r="D444" s="63" t="s">
         <v>400</v>
       </c>
       <c r="E444" s="40"/>
@@ -9119,13 +9256,13 @@
       <c r="A445" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B445" s="63" t="b">
+      <c r="B445" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C445" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D445" s="71" t="s">
+      <c r="D445" s="63" t="s">
         <v>401</v>
       </c>
       <c r="E445" s="40"/>
@@ -9134,13 +9271,13 @@
       <c r="A446" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B446" s="63" t="b">
+      <c r="B446" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C446" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D446" s="71" t="s">
+      <c r="D446" s="63" t="s">
         <v>402</v>
       </c>
       <c r="E446" s="40"/>
@@ -9149,13 +9286,13 @@
       <c r="A447" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B447" s="63" t="b">
+      <c r="B447" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C447" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D447" s="71" t="s">
+      <c r="D447" s="63" t="s">
         <v>403</v>
       </c>
       <c r="E447" s="40"/>
@@ -9164,13 +9301,13 @@
       <c r="A448" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B448" s="63" t="b">
+      <c r="B448" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C448" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D448" s="71" t="s">
+      <c r="D448" s="63" t="s">
         <v>404</v>
       </c>
       <c r="E448" s="40"/>
@@ -9179,13 +9316,13 @@
       <c r="A449" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B449" s="63" t="b">
+      <c r="B449" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C449" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D449" s="71" t="s">
+      <c r="D449" s="63" t="s">
         <v>405</v>
       </c>
       <c r="E449" s="40"/>
@@ -9194,13 +9331,13 @@
       <c r="A450" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B450" s="63" t="b">
+      <c r="B450" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C450" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D450" s="71" t="s">
+      <c r="D450" s="63" t="s">
         <v>406</v>
       </c>
       <c r="E450" s="40"/>
@@ -9209,13 +9346,13 @@
       <c r="A451" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B451" s="63" t="b">
+      <c r="B451" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C451" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D451" s="71" t="s">
+      <c r="D451" s="63" t="s">
         <v>407</v>
       </c>
       <c r="E451" s="40"/>
@@ -9224,13 +9361,13 @@
       <c r="A452" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B452" s="63" t="b">
+      <c r="B452" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C452" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D452" s="71" t="s">
+      <c r="D452" s="63" t="s">
         <v>408</v>
       </c>
       <c r="E452" s="40"/>
@@ -9239,13 +9376,13 @@
       <c r="A453" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B453" s="63" t="b">
+      <c r="B453" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C453" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D453" s="71" t="s">
+      <c r="D453" s="63" t="s">
         <v>409</v>
       </c>
       <c r="E453" s="40"/>
@@ -9254,13 +9391,13 @@
       <c r="A454" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B454" s="63" t="b">
+      <c r="B454" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C454" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D454" s="71" t="s">
+      <c r="D454" s="63" t="s">
         <v>410</v>
       </c>
       <c r="E454" s="40"/>
@@ -9269,13 +9406,13 @@
       <c r="A455" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B455" s="63" t="b">
+      <c r="B455" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C455" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D455" s="71" t="s">
+      <c r="D455" s="63" t="s">
         <v>411</v>
       </c>
       <c r="E455" s="40"/>
@@ -9284,13 +9421,13 @@
       <c r="A456" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B456" s="63" t="b">
+      <c r="B456" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C456" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D456" s="71" t="s">
+      <c r="D456" s="63" t="s">
         <v>412</v>
       </c>
       <c r="E456" s="40"/>
@@ -9299,13 +9436,13 @@
       <c r="A457" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B457" s="63" t="b">
+      <c r="B457" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C457" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D457" s="71" t="s">
+      <c r="D457" s="63" t="s">
         <v>413</v>
       </c>
       <c r="E457" s="40"/>
@@ -9314,13 +9451,13 @@
       <c r="A458" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B458" s="63" t="b">
+      <c r="B458" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C458" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D458" s="71" t="s">
+      <c r="D458" s="63" t="s">
         <v>414</v>
       </c>
       <c r="E458" s="40"/>
@@ -9329,13 +9466,13 @@
       <c r="A459" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B459" s="63" t="b">
+      <c r="B459" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C459" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D459" s="71" t="s">
+      <c r="D459" s="63" t="s">
         <v>415</v>
       </c>
       <c r="E459" s="40"/>
@@ -9344,13 +9481,13 @@
       <c r="A460" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B460" s="63" t="b">
+      <c r="B460" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C460" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D460" s="71" t="s">
+      <c r="D460" s="63" t="s">
         <v>416</v>
       </c>
       <c r="E460" s="40"/>
@@ -9359,13 +9496,13 @@
       <c r="A461" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B461" s="63" t="b">
+      <c r="B461" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C461" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D461" s="71" t="s">
+      <c r="D461" s="63" t="s">
         <v>417</v>
       </c>
       <c r="E461" s="40"/>
@@ -9374,13 +9511,13 @@
       <c r="A462" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B462" s="63" t="b">
+      <c r="B462" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C462" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D462" s="71" t="s">
+      <c r="D462" s="63" t="s">
         <v>418</v>
       </c>
       <c r="E462" s="40"/>
@@ -9395,16 +9532,16 @@
       <c r="C463" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D463" s="72" t="s">
+      <c r="D463" s="64" t="s">
         <v>363</v>
       </c>
       <c r="E463" s="41"/>
     </row>
     <row r="464" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="64"/>
-      <c r="B464" s="64"/>
-      <c r="C464" s="64"/>
-      <c r="D464" s="69" t="s">
+      <c r="A464" s="56"/>
+      <c r="B464" s="56"/>
+      <c r="C464" s="56"/>
+      <c r="D464" s="61" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9418,7 +9555,7 @@
       <c r="C465" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D465" s="70" t="s">
+      <c r="D465" s="62" t="s">
         <v>420</v>
       </c>
       <c r="E465" s="39"/>
@@ -9427,13 +9564,13 @@
       <c r="A466" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B466" s="63" t="b">
+      <c r="B466" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C466" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D466" s="71" t="s">
+      <c r="D466" s="63" t="s">
         <v>421</v>
       </c>
       <c r="E466" s="40"/>
@@ -9442,13 +9579,13 @@
       <c r="A467" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B467" s="63" t="b">
+      <c r="B467" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C467" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D467" s="71" t="s">
+      <c r="D467" s="63" t="s">
         <v>422</v>
       </c>
       <c r="E467" s="40"/>
@@ -9463,16 +9600,16 @@
       <c r="C468" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D468" s="72" t="s">
+      <c r="D468" s="64" t="s">
         <v>423</v>
       </c>
       <c r="E468" s="41"/>
     </row>
     <row r="469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="64"/>
-      <c r="B469" s="64"/>
-      <c r="C469" s="64"/>
-      <c r="D469" s="69" t="s">
+      <c r="A469" s="56"/>
+      <c r="B469" s="56"/>
+      <c r="C469" s="56"/>
+      <c r="D469" s="61" t="s">
         <v>424</v>
       </c>
     </row>
@@ -9486,7 +9623,7 @@
       <c r="C470" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D470" s="70" t="s">
+      <c r="D470" s="62" t="s">
         <v>425</v>
       </c>
       <c r="E470" s="39"/>
@@ -9495,13 +9632,13 @@
       <c r="A471" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B471" s="63" t="b">
+      <c r="B471" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C471" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D471" s="71" t="s">
+      <c r="D471" s="63" t="s">
         <v>426</v>
       </c>
       <c r="E471" s="40"/>
@@ -9510,13 +9647,13 @@
       <c r="A472" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B472" s="63" t="b">
+      <c r="B472" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C472" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D472" s="71" t="s">
+      <c r="D472" s="63" t="s">
         <v>427</v>
       </c>
       <c r="E472" s="40"/>
@@ -9525,13 +9662,13 @@
       <c r="A473" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B473" s="63" t="b">
+      <c r="B473" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C473" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D473" s="71" t="s">
+      <c r="D473" s="63" t="s">
         <v>428</v>
       </c>
       <c r="E473" s="40"/>
@@ -9540,13 +9677,13 @@
       <c r="A474" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B474" s="63" t="b">
+      <c r="B474" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C474" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D474" s="71" t="s">
+      <c r="D474" s="63" t="s">
         <v>429</v>
       </c>
       <c r="E474" s="40"/>
@@ -9555,13 +9692,13 @@
       <c r="A475" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B475" s="63" t="b">
+      <c r="B475" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C475" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D475" s="71" t="s">
+      <c r="D475" s="63" t="s">
         <v>430</v>
       </c>
       <c r="E475" s="40"/>
@@ -9570,13 +9707,13 @@
       <c r="A476" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B476" s="63" t="b">
+      <c r="B476" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C476" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D476" s="71" t="s">
+      <c r="D476" s="63" t="s">
         <v>431</v>
       </c>
       <c r="E476" s="40"/>
@@ -9591,16 +9728,16 @@
       <c r="C477" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D477" s="72" t="s">
+      <c r="D477" s="64" t="s">
         <v>432</v>
       </c>
       <c r="E477" s="41"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="64"/>
-      <c r="B478" s="64"/>
-      <c r="C478" s="64"/>
-      <c r="D478" s="69" t="s">
+      <c r="A478" s="56"/>
+      <c r="B478" s="56"/>
+      <c r="C478" s="56"/>
+      <c r="D478" s="61" t="s">
         <v>433</v>
       </c>
     </row>
@@ -9614,7 +9751,7 @@
       <c r="C479" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D479" s="70" t="s">
+      <c r="D479" s="62" t="s">
         <v>434</v>
       </c>
       <c r="E479" s="39"/>
@@ -9623,13 +9760,13 @@
       <c r="A480" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B480" s="63" t="b">
+      <c r="B480" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C480" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D480" s="71" t="s">
+      <c r="D480" s="63" t="s">
         <v>435</v>
       </c>
       <c r="E480" s="40"/>
@@ -9638,13 +9775,13 @@
       <c r="A481" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B481" s="63" t="b">
+      <c r="B481" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C481" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D481" s="71" t="s">
+      <c r="D481" s="63" t="s">
         <v>436</v>
       </c>
       <c r="E481" s="40"/>
@@ -9653,13 +9790,13 @@
       <c r="A482" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B482" s="63" t="b">
+      <c r="B482" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C482" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D482" s="71" t="s">
+      <c r="D482" s="63" t="s">
         <v>437</v>
       </c>
       <c r="E482" s="40"/>
@@ -9668,13 +9805,13 @@
       <c r="A483" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B483" s="63" t="b">
+      <c r="B483" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C483" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D483" s="71" t="s">
+      <c r="D483" s="63" t="s">
         <v>438</v>
       </c>
       <c r="E483" s="40"/>
@@ -9683,13 +9820,13 @@
       <c r="A484" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B484" s="63" t="b">
+      <c r="B484" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C484" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D484" s="71" t="s">
+      <c r="D484" s="63" t="s">
         <v>439</v>
       </c>
       <c r="E484" s="40"/>
@@ -9698,13 +9835,13 @@
       <c r="A485" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B485" s="63" t="b">
+      <c r="B485" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C485" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D485" s="71" t="s">
+      <c r="D485" s="63" t="s">
         <v>440</v>
       </c>
       <c r="E485" s="40"/>
@@ -9713,13 +9850,13 @@
       <c r="A486" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B486" s="63" t="b">
+      <c r="B486" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C486" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D486" s="71" t="s">
+      <c r="D486" s="63" t="s">
         <v>441</v>
       </c>
       <c r="E486" s="40"/>
@@ -9728,13 +9865,13 @@
       <c r="A487" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B487" s="63" t="b">
+      <c r="B487" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C487" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D487" s="71" t="s">
+      <c r="D487" s="63" t="s">
         <v>442</v>
       </c>
       <c r="E487" s="40"/>
@@ -9743,13 +9880,13 @@
       <c r="A488" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B488" s="63" t="b">
+      <c r="B488" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C488" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D488" s="71" t="s">
+      <c r="D488" s="63" t="s">
         <v>443</v>
       </c>
       <c r="E488" s="40"/>
@@ -9758,13 +9895,13 @@
       <c r="A489" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B489" s="63" t="b">
+      <c r="B489" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C489" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D489" s="71" t="s">
+      <c r="D489" s="63" t="s">
         <v>444</v>
       </c>
       <c r="E489" s="40"/>
@@ -9773,13 +9910,13 @@
       <c r="A490" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B490" s="63" t="b">
+      <c r="B490" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C490" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D490" s="71" t="s">
+      <c r="D490" s="63" t="s">
         <v>445</v>
       </c>
       <c r="E490" s="40"/>
@@ -9788,13 +9925,13 @@
       <c r="A491" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B491" s="63" t="b">
+      <c r="B491" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C491" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D491" s="71" t="s">
+      <c r="D491" s="63" t="s">
         <v>446</v>
       </c>
       <c r="E491" s="40"/>
@@ -9803,13 +9940,13 @@
       <c r="A492" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B492" s="63" t="b">
+      <c r="B492" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C492" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D492" s="71" t="s">
+      <c r="D492" s="63" t="s">
         <v>447</v>
       </c>
       <c r="E492" s="40"/>
@@ -9818,13 +9955,13 @@
       <c r="A493" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B493" s="63" t="b">
+      <c r="B493" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C493" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D493" s="71" t="s">
+      <c r="D493" s="63" t="s">
         <v>448</v>
       </c>
       <c r="E493" s="40"/>
@@ -9833,13 +9970,13 @@
       <c r="A494" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B494" s="63" t="b">
+      <c r="B494" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C494" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D494" s="71" t="s">
+      <c r="D494" s="63" t="s">
         <v>449</v>
       </c>
       <c r="E494" s="40"/>
@@ -9848,13 +9985,13 @@
       <c r="A495" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B495" s="63" t="b">
+      <c r="B495" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C495" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D495" s="71" t="s">
+      <c r="D495" s="63" t="s">
         <v>450</v>
       </c>
       <c r="E495" s="40"/>
@@ -9863,13 +10000,13 @@
       <c r="A496" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B496" s="63" t="b">
+      <c r="B496" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C496" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D496" s="71" t="s">
+      <c r="D496" s="63" t="s">
         <v>451</v>
       </c>
       <c r="E496" s="40"/>
@@ -9878,13 +10015,13 @@
       <c r="A497" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B497" s="63" t="b">
+      <c r="B497" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C497" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D497" s="71" t="s">
+      <c r="D497" s="63" t="s">
         <v>452</v>
       </c>
       <c r="E497" s="40"/>
@@ -9893,13 +10030,13 @@
       <c r="A498" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B498" s="63" t="b">
+      <c r="B498" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C498" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D498" s="71" t="s">
+      <c r="D498" s="63" t="s">
         <v>453</v>
       </c>
       <c r="E498" s="40"/>
@@ -9908,13 +10045,13 @@
       <c r="A499" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B499" s="63" t="b">
+      <c r="B499" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C499" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D499" s="71" t="s">
+      <c r="D499" s="63" t="s">
         <v>454</v>
       </c>
       <c r="E499" s="40"/>
@@ -9923,13 +10060,13 @@
       <c r="A500" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B500" s="63" t="b">
+      <c r="B500" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C500" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D500" s="71" t="s">
+      <c r="D500" s="63" t="s">
         <v>455</v>
       </c>
       <c r="E500" s="40"/>
@@ -9938,13 +10075,13 @@
       <c r="A501" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B501" s="63" t="b">
+      <c r="B501" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C501" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D501" s="71" t="s">
+      <c r="D501" s="63" t="s">
         <v>456</v>
       </c>
       <c r="E501" s="40"/>
@@ -9953,13 +10090,13 @@
       <c r="A502" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B502" s="63" t="b">
+      <c r="B502" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C502" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D502" s="71" t="s">
+      <c r="D502" s="63" t="s">
         <v>457</v>
       </c>
       <c r="E502" s="40"/>
@@ -9968,13 +10105,13 @@
       <c r="A503" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B503" s="63" t="b">
+      <c r="B503" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C503" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D503" s="71" t="s">
+      <c r="D503" s="63" t="s">
         <v>458</v>
       </c>
       <c r="E503" s="40"/>
@@ -9983,13 +10120,13 @@
       <c r="A504" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B504" s="63" t="b">
+      <c r="B504" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C504" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D504" s="71" t="s">
+      <c r="D504" s="63" t="s">
         <v>459</v>
       </c>
       <c r="E504" s="40"/>
@@ -9998,13 +10135,13 @@
       <c r="A505" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B505" s="63" t="b">
+      <c r="B505" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C505" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D505" s="71" t="s">
+      <c r="D505" s="63" t="s">
         <v>413</v>
       </c>
       <c r="E505" s="40"/>
@@ -10019,16 +10156,16 @@
       <c r="C506" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D506" s="72" t="s">
+      <c r="D506" s="64" t="s">
         <v>414</v>
       </c>
       <c r="E506" s="41"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="64"/>
-      <c r="B507" s="64"/>
-      <c r="C507" s="64"/>
-      <c r="D507" s="69" t="s">
+      <c r="A507" s="56"/>
+      <c r="B507" s="56"/>
+      <c r="C507" s="56"/>
+      <c r="D507" s="61" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10042,7 +10179,7 @@
       <c r="C508" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D508" s="70" t="s">
+      <c r="D508" s="62" t="s">
         <v>349</v>
       </c>
       <c r="E508" s="39"/>
@@ -10051,13 +10188,13 @@
       <c r="A509" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B509" s="63" t="b">
+      <c r="B509" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C509" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D509" s="71" t="s">
+      <c r="D509" s="63" t="s">
         <v>350</v>
       </c>
       <c r="E509" s="40"/>
@@ -10066,13 +10203,13 @@
       <c r="A510" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B510" s="63" t="b">
+      <c r="B510" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C510" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D510" s="71" t="s">
+      <c r="D510" s="63" t="s">
         <v>351</v>
       </c>
       <c r="E510" s="40"/>
@@ -10081,13 +10218,13 @@
       <c r="A511" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B511" s="63" t="b">
+      <c r="B511" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C511" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D511" s="71" t="s">
+      <c r="D511" s="63" t="s">
         <v>352</v>
       </c>
       <c r="E511" s="40"/>
@@ -10096,13 +10233,13 @@
       <c r="A512" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B512" s="63" t="b">
+      <c r="B512" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C512" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D512" s="71" t="s">
+      <c r="D512" s="63" t="s">
         <v>357</v>
       </c>
       <c r="E512" s="40"/>
@@ -10111,13 +10248,13 @@
       <c r="A513" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B513" s="63" t="b">
+      <c r="B513" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C513" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D513" s="71" t="s">
+      <c r="D513" s="63" t="s">
         <v>358</v>
       </c>
       <c r="E513" s="40"/>
@@ -10126,13 +10263,13 @@
       <c r="A514" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B514" s="63" t="b">
+      <c r="B514" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C514" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D514" s="71" t="s">
+      <c r="D514" s="63" t="s">
         <v>360</v>
       </c>
       <c r="E514" s="40"/>
@@ -10141,13 +10278,13 @@
       <c r="A515" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B515" s="63" t="b">
+      <c r="B515" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C515" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D515" s="71" t="s">
+      <c r="D515" s="63" t="s">
         <v>361</v>
       </c>
       <c r="E515" s="40"/>
@@ -10156,13 +10293,13 @@
       <c r="A516" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B516" s="63" t="b">
+      <c r="B516" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C516" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D516" s="71" t="s">
+      <c r="D516" s="63" t="s">
         <v>461</v>
       </c>
       <c r="E516" s="40"/>
@@ -10171,13 +10308,13 @@
       <c r="A517" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B517" s="63" t="b">
+      <c r="B517" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C517" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D517" s="71" t="s">
+      <c r="D517" s="63" t="s">
         <v>462</v>
       </c>
       <c r="E517" s="40"/>
@@ -10186,13 +10323,13 @@
       <c r="A518" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B518" s="63" t="b">
+      <c r="B518" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C518" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D518" s="71" t="s">
+      <c r="D518" s="63" t="s">
         <v>463</v>
       </c>
       <c r="E518" s="40"/>
@@ -10201,13 +10338,13 @@
       <c r="A519" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B519" s="63" t="b">
+      <c r="B519" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C519" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D519" s="71" t="s">
+      <c r="D519" s="63" t="s">
         <v>464</v>
       </c>
       <c r="E519" s="40"/>
@@ -10216,13 +10353,13 @@
       <c r="A520" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B520" s="63" t="b">
+      <c r="B520" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C520" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D520" s="71" t="s">
+      <c r="D520" s="63" t="s">
         <v>465</v>
       </c>
       <c r="E520" s="40"/>
@@ -10231,13 +10368,13 @@
       <c r="A521" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B521" s="63" t="b">
+      <c r="B521" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C521" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D521" s="71" t="s">
+      <c r="D521" s="63" t="s">
         <v>466</v>
       </c>
       <c r="E521" s="40"/>
@@ -10246,13 +10383,13 @@
       <c r="A522" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B522" s="63" t="b">
+      <c r="B522" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C522" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D522" s="71" t="s">
+      <c r="D522" s="63" t="s">
         <v>467</v>
       </c>
       <c r="E522" s="40"/>
@@ -10261,13 +10398,13 @@
       <c r="A523" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B523" s="63" t="b">
+      <c r="B523" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C523" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D523" s="71" t="s">
+      <c r="D523" s="63" t="s">
         <v>468</v>
       </c>
       <c r="E523" s="40"/>
@@ -10276,13 +10413,13 @@
       <c r="A524" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="B524" s="63" t="b">
+      <c r="B524" s="55" t="b">
         <v>0</v>
       </c>
       <c r="C524" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D524" s="71" t="s">
+      <c r="D524" s="63" t="s">
         <v>469</v>
       </c>
       <c r="E524" s="40"/>
@@ -10297,7 +10434,7 @@
       <c r="C525" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D525" s="72" t="s">
+      <c r="D525" s="64" t="s">
         <v>362</v>
       </c>
       <c r="E525" s="41"/>
@@ -10310,6 +10447,7 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B178 A180:B200 A202:B203 A205:B224 A226:B226 A228:B235 A237:B258 A260:B260 A262:B273 A275:B279 A281:B300 A302:B311 A313:B316 A318:B319 A321:B327 A329:B346 A348:B359 A361:B368 A370:B380 A382:B402 A404:B407 A409:B463 A465:B468 A470:B477 A479:B506 A508:B525">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>TRUE</formula>
@@ -10318,7 +10456,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C202:C203 C226 C228:C235 C237:C258 C260 C262:C273 C275:C279 C281:C300 C302:C311 C313:C316 C318:C319 C321:C327 C329:C346 C348:C359 C361:C368 C370:C380 C382:C402 C404:C407 C409:C463 C465:C468 C470:C477 C479:C506 C508:C525 C3:C88 C90:C121 C123:C136 C138:C178 C180:C200 C205:C224">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C202:C203 C205:C224 C226 C228:C235 C237:C258 C260 C262:C273 C275:C279 C281:C300 C302:C311 C313:C316 C318:C319 C321:C327 C329:C346 C348:C359 C361:C368 C370:C380 C382:C402 C404:C407 C409:C463 C465:C468 C470:C477 C479:C506 C508:C525 C138:C178 C180:C200">
     <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
     </cfRule>
@@ -10359,20 +10497,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C61:C88 C90:C121 C123:C136 C138:C178 C202:C203 C180:C200 C226 C228:C235 C237:C258 C260 C262:C273 C275:C279 C281:C300 C302:C311 C313:C316 C318:C319 C321:C327 C329:C346 C348:C359 C361:C368 C370:C380 C382:C402 C404:C407 C409:C463 C465:C468 C470:C477 C479:C506 C508:C525 C3:C12 C24:C25 C14:C22 C205:C224" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C61:C88 C90:C121 C123:C136 C237:C258 C202:C203 C138:C178 C226 C228:C235 C205:C224 C260 C262:C273 C275:C279 C281:C300 C302:C311 C313:C316 C318:C319 C321:C327 C329:C346 C348:C359 C361:C368 C370:C380 C382:C402 C404:C407 C409:C463 C465:C468 C470:C477 C479:C506 C508:C525 C3:C12 C24:C25 C14:C22 C180:C200" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10417,7 +10556,7 @@
       <c r="A4" s="38">
         <v>45972</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>489</v>
       </c>
       <c r="C4" s="37" t="b">
@@ -10428,7 +10567,7 @@
       <c r="A5" s="38">
         <v>45972</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>494</v>
       </c>
       <c r="C5" s="37" t="b">
@@ -10447,10 +10586,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="48">
         <v>45973</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="49" t="s">
         <v>499</v>
       </c>
       <c r="C7" s="37" t="b">
@@ -10458,10 +10597,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="48">
         <v>45973</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="49" t="s">
         <v>500</v>
       </c>
       <c r="C8" s="37" t="b">
@@ -10469,10 +10608,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="48">
         <v>45973</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="49" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="37" t="b">
@@ -10480,10 +10619,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="A10" s="48">
         <v>45973</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="49" t="s">
         <v>502</v>
       </c>
       <c r="C10" s="37" t="b">
@@ -10494,37 +10633,59 @@
       <c r="A11" s="38">
         <v>45973</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>45974</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="C11" s="37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="C12" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
         <v>45974</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" s="37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
-        <v>45974</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>516</v>
+      <c r="B13" t="s">
+        <v>515</v>
       </c>
       <c r="C13" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>45980</v>
+      </c>
+      <c r="B14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>45980</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="37" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C13">
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -10559,10 +10720,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -10575,7 +10736,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10583,14 +10744,14 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -10605,10 +10766,10 @@
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
@@ -10637,7 +10798,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10663,7 +10824,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10811,7 +10972,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10819,7 +10980,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10843,7 +11004,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10853,18 +11014,18 @@
       <c r="B42" s="14"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="46" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1681" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FB8022-6D15-441C-A9ED-94435BD1C10A}"/>
+  <xr:revisionPtr revIDLastSave="1764" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057FE750-078E-4FDB-850E-F2F20CC33D7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="528">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1610,6 +1610,21 @@
   </si>
   <si>
     <t>Will need backdoor commands to implement</t>
+  </si>
+  <si>
+    <t>Support Auto Null</t>
+  </si>
+  <si>
+    <t>Support Resistance Measurements</t>
+  </si>
+  <si>
+    <t>Ranges go higher on 34461 but lower on 6500</t>
+  </si>
+  <si>
+    <t>NPLC goes lower on 6500 but higher on 34461</t>
+  </si>
+  <si>
+    <t>Null value slightly more limited on 6500</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2231,9 +2246,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2610,19 +2630,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.69734151329243355</c:v>
+                  <c:v>0.69325153374233128</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.6809815950920248E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7755102040816324E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4539877300613498E-2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15163934426229508</c:v>
+                  <c:v>0.1598360655737705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,8 +3630,8 @@
   <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,7 +3691,7 @@
       </c>
       <c r="H3" s="110">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.69734151329243355</v>
+        <v>0.69325153374233128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3695,7 +3715,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(C2:C523, "Working")/COUNTA(C2:C523)</f>
-        <v>3.6809815950920248E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3717,7 +3737,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>8.7755102040816324E-2</v>
+        <v>0.10816326530612246</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3739,7 +3759,7 @@
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>2.4539877300613498E-2</v>
+        <v>3.6809815950920248E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,7 +3781,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.15163934426229508</v>
+        <v>0.1598360655737705</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3781,13 +3801,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>7</v>
@@ -4578,13 +4598,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>7</v>
@@ -4676,43 +4696,45 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="84" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="17"/>
+      <c r="E67" s="112" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C68" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C68" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="112"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C69" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D69" s="59" t="s">
         <v>63</v>
@@ -4721,13 +4743,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C70" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C70" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D70" s="59" t="s">
         <v>64</v>
@@ -4736,28 +4758,30 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C71" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C71" s="113" t="s">
+        <v>510</v>
       </c>
       <c r="D71" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="17" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C72" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D72" s="59" t="s">
         <v>66</v>
@@ -4766,13 +4790,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C73" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C73" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D73" s="59" t="s">
         <v>67</v>
@@ -4781,13 +4805,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C74" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C74" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D74" s="59" t="s">
         <v>68</v>
@@ -4801,8 +4825,8 @@
       <c r="B75" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="111" t="s">
-        <v>494</v>
+      <c r="C75" s="113" t="s">
+        <v>505</v>
       </c>
       <c r="D75" s="59" t="s">
         <v>69</v>
@@ -4816,8 +4840,8 @@
       <c r="B76" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="111" t="s">
-        <v>494</v>
+      <c r="C76" s="113" t="s">
+        <v>505</v>
       </c>
       <c r="D76" s="59" t="s">
         <v>70</v>
@@ -4831,8 +4855,8 @@
       <c r="B77" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="111" t="s">
-        <v>494</v>
+      <c r="C77" s="113" t="s">
+        <v>505</v>
       </c>
       <c r="D77" s="59" t="s">
         <v>71</v>
@@ -4846,8 +4870,8 @@
       <c r="B78" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C78" s="111" t="s">
-        <v>494</v>
+      <c r="C78" s="113" t="s">
+        <v>505</v>
       </c>
       <c r="D78" s="59" t="s">
         <v>72</v>
@@ -4856,28 +4880,30 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C79" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C79" s="113" t="s">
+        <v>510</v>
       </c>
       <c r="D79" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="17"/>
+      <c r="E79" s="17" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C80" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D80" s="59" t="s">
         <v>74</v>
@@ -4886,13 +4912,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C81" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C81" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D81" s="59" t="s">
         <v>75</v>
@@ -4901,13 +4927,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="113" t="s">
+        <v>493</v>
       </c>
       <c r="D82" s="59" t="s">
         <v>76</v>
@@ -4984,28 +5010,30 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" s="55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="85" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D87" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E87" s="17"/>
+      <c r="E87" s="111" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D88" s="60" t="s">
         <v>82</v>
@@ -11553,10 +11581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11729,8 +11757,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="114">
+        <v>45981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="114">
+        <v>45981</v>
+      </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C15">
+  <conditionalFormatting sqref="C2:C17">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1764" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057FE750-078E-4FDB-850E-F2F20CC33D7B}"/>
+  <xr:revisionPtr revIDLastSave="1939" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366ABC76-D5F1-4001-A45E-EE2FC2BC2182}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="533">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1625,6 +1625,21 @@
   </si>
   <si>
     <t>Null value slightly more limited on 6500</t>
+  </si>
+  <si>
+    <t>Support Current Measurements</t>
+  </si>
+  <si>
+    <t>6500 Does not support histogram commands</t>
+  </si>
+  <si>
+    <t>6500 only has 3A terminal</t>
+  </si>
+  <si>
+    <t>Fix Range Commands</t>
+  </si>
+  <si>
+    <t>Ranges different on 6500</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2150,6 +2165,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2161,139 +2182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2381,6 +2274,41 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2539,6 +2467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ECDD-4573-A5CE-89809A5D7CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2554,6 +2487,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ECDD-4573-A5CE-89809A5D7CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2569,6 +2507,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ECDD-4573-A5CE-89809A5D7CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2584,6 +2527,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ECDD-4573-A5CE-89809A5D7CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2599,6 +2547,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ECDD-4573-A5CE-89809A5D7CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2630,19 +2583,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.69325153374233128</c:v>
+                  <c:v>0.59100204498977504</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10816326530612246</c:v>
+                  <c:v>0.13673469387755102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6809815950920248E-2</c:v>
+                  <c:v>4.7034764826175871E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1598360655737705</c:v>
+                  <c:v>0.22336065573770492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,9 +3582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,15 +3615,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="75" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="b">
@@ -3689,9 +3642,9 @@
       <c r="G3" t="s">
         <v>520</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.69325153374233128</v>
+        <v>0.59100204498977504</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3737,7 +3690,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.10816326530612246</v>
+        <v>0.13673469387755102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>4</v>
@@ -3759,7 +3712,7 @@
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>3.6809815950920248E-2</v>
+        <v>4.7034764826175871E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3781,7 +3734,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.1598360655737705</v>
+        <v>0.22336065573770492</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,9 +3797,7 @@
       <c r="D11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="b">
@@ -3864,10 +3815,10 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="b">
@@ -4009,10 +3960,10 @@
       <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="76"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="b">
@@ -4045,10 +3996,10 @@
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="78"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="b">
@@ -4618,7 +4569,7 @@
       <c r="B62" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D62" s="59" t="s">
@@ -4701,13 +4652,13 @@
       <c r="B67" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="76" t="s">
         <v>510</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="112" t="s">
+      <c r="E67" s="18" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4718,13 +4669,13 @@
       <c r="B68" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C68" s="113" t="s">
+      <c r="C68" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="b">
@@ -4733,7 +4684,7 @@
       <c r="B69" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C69" s="113" t="s">
+      <c r="C69" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D69" s="59" t="s">
@@ -4748,7 +4699,7 @@
       <c r="B70" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C70" s="113" t="s">
+      <c r="C70" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D70" s="59" t="s">
@@ -4763,7 +4714,7 @@
       <c r="B71" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C71" s="113" t="s">
+      <c r="C71" s="76" t="s">
         <v>510</v>
       </c>
       <c r="D71" s="59" t="s">
@@ -4780,7 +4731,7 @@
       <c r="B72" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C72" s="113" t="s">
+      <c r="C72" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D72" s="59" t="s">
@@ -4795,7 +4746,7 @@
       <c r="B73" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D73" s="59" t="s">
@@ -4810,7 +4761,7 @@
       <c r="B74" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C74" s="113" t="s">
+      <c r="C74" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D74" s="59" t="s">
@@ -4825,7 +4776,7 @@
       <c r="B75" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="113" t="s">
+      <c r="C75" s="76" t="s">
         <v>505</v>
       </c>
       <c r="D75" s="59" t="s">
@@ -4840,7 +4791,7 @@
       <c r="B76" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="113" t="s">
+      <c r="C76" s="76" t="s">
         <v>505</v>
       </c>
       <c r="D76" s="59" t="s">
@@ -4855,7 +4806,7 @@
       <c r="B77" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="113" t="s">
+      <c r="C77" s="76" t="s">
         <v>505</v>
       </c>
       <c r="D77" s="59" t="s">
@@ -4870,7 +4821,7 @@
       <c r="B78" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C78" s="113" t="s">
+      <c r="C78" s="76" t="s">
         <v>505</v>
       </c>
       <c r="D78" s="59" t="s">
@@ -4885,7 +4836,7 @@
       <c r="B79" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C79" s="113" t="s">
+      <c r="C79" s="76" t="s">
         <v>510</v>
       </c>
       <c r="D79" s="59" t="s">
@@ -4902,7 +4853,7 @@
       <c r="B80" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D80" s="59" t="s">
@@ -4917,7 +4868,7 @@
       <c r="B81" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C81" s="113" t="s">
+      <c r="C81" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D81" s="59" t="s">
@@ -4932,7 +4883,7 @@
       <c r="B82" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C82" s="113" t="s">
+      <c r="C82" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D82" s="59" t="s">
@@ -5015,13 +4966,13 @@
       <c r="B87" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="76" t="s">
         <v>510</v>
       </c>
       <c r="D87" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E87" s="111" t="s">
+      <c r="E87" s="17" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5050,18 +5001,20 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D90" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="13"/>
+      <c r="E90" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="b">
@@ -5070,7 +5023,7 @@
       <c r="B91" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C91" s="108" t="s">
+      <c r="C91" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D91" s="59" t="s">
@@ -5080,28 +5033,30 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C92" s="107" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D92" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="17"/>
+      <c r="E92" s="17" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="106" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C93" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D93" s="59" t="s">
         <v>85</v>
@@ -5110,13 +5065,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C94" s="105" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C94" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D94" s="59" t="s">
         <v>86</v>
@@ -5125,13 +5080,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C95" s="104" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D95" s="59" t="s">
         <v>87</v>
@@ -5140,28 +5095,30 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C96" s="103" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="D96" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E96" s="17"/>
+      <c r="E96" s="17" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C97" s="102" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D97" s="59" t="s">
         <v>89</v>
@@ -5170,13 +5127,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C98" s="101" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D98" s="59" t="s">
         <v>90</v>
@@ -5185,13 +5142,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C99" s="100" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D99" s="59" t="s">
         <v>91</v>
@@ -5200,28 +5157,30 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C100" s="99" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C100" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="D100" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="E100" s="17"/>
+      <c r="E100" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C101" s="98" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C101" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D101" s="59" t="s">
         <v>93</v>
@@ -5230,13 +5189,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C102" s="97" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C102" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D102" s="59" t="s">
         <v>94</v>
@@ -5245,13 +5204,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C103" s="95" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D103" s="59" t="s">
         <v>95</v>
@@ -5265,23 +5224,25 @@
       <c r="B104" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C104" s="96" t="s">
-        <v>520</v>
+      <c r="C104" s="76" t="s">
+        <v>505</v>
       </c>
       <c r="D104" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="17"/>
+      <c r="E104" s="17" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C105" s="93" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C105" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D105" s="59" t="s">
         <v>97</v>
@@ -5295,13 +5256,15 @@
       <c r="B106" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C106" s="92" t="s">
-        <v>520</v>
+      <c r="C106" s="76" t="s">
+        <v>505</v>
       </c>
       <c r="D106" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E106" s="17"/>
+      <c r="E106" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="b">
@@ -5310,13 +5273,15 @@
       <c r="B107" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="94" t="s">
-        <v>520</v>
+      <c r="C107" s="76" t="s">
+        <v>505</v>
       </c>
       <c r="D107" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E107" s="17"/>
+      <c r="E107" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="b">
@@ -5388,28 +5353,30 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C112" s="86" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C112" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="D112" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="17"/>
+      <c r="E112" s="18" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C113" s="87" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C113" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D113" s="59" t="s">
         <v>105</v>
@@ -5486,13 +5453,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C118" s="88" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D118" s="59" t="s">
         <v>110</v>
@@ -5501,13 +5468,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C119" s="89" t="s">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C119" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="D119" s="59" t="s">
         <v>111</v>
@@ -5521,8 +5488,8 @@
       <c r="B120" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C120" s="90" t="s">
-        <v>520</v>
+      <c r="C120" s="76" t="s">
+        <v>505</v>
       </c>
       <c r="D120" s="59" t="s">
         <v>112</v>
@@ -5537,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D121" s="60" t="s">
         <v>113</v>
@@ -5574,7 +5541,7 @@
       <c r="B124" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C124" s="91" t="s">
+      <c r="C124" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D124" s="59" t="s">
@@ -5589,7 +5556,7 @@
       <c r="B125" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C125" s="91" t="s">
+      <c r="C125" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D125" s="59" t="s">
@@ -5604,7 +5571,7 @@
       <c r="B126" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C126" s="91" t="s">
+      <c r="C126" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D126" s="59" t="s">
@@ -5619,7 +5586,7 @@
       <c r="B127" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C127" s="91" t="s">
+      <c r="C127" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D127" s="59" t="s">
@@ -5634,7 +5601,7 @@
       <c r="B128" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C128" s="91" t="s">
+      <c r="C128" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D128" s="59" t="s">
@@ -5649,7 +5616,7 @@
       <c r="B129" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C129" s="91" t="s">
+      <c r="C129" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D129" s="59" t="s">
@@ -5664,7 +5631,7 @@
       <c r="B130" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C130" s="91" t="s">
+      <c r="C130" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D130" s="59" t="s">
@@ -5679,7 +5646,7 @@
       <c r="B131" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C131" s="91" t="s">
+      <c r="C131" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D131" s="59" t="s">
@@ -5694,7 +5661,7 @@
       <c r="B132" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C132" s="91" t="s">
+      <c r="C132" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D132" s="59" t="s">
@@ -5709,7 +5676,7 @@
       <c r="B133" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C133" s="91" t="s">
+      <c r="C133" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D133" s="59" t="s">
@@ -5724,7 +5691,7 @@
       <c r="B134" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="C134" s="91" t="s">
+      <c r="C134" s="76" t="s">
         <v>520</v>
       </c>
       <c r="D134" s="59" t="s">
@@ -5784,7 +5751,7 @@
       <c r="C138" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="D138" s="82" t="s">
+      <c r="D138" s="75" t="s">
         <v>521</v>
       </c>
       <c r="E138" s="13"/>
@@ -5796,7 +5763,7 @@
       <c r="B139" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="C139" s="109" t="s">
+      <c r="C139" s="76" t="s">
         <v>493</v>
       </c>
       <c r="D139" s="63" t="s">
@@ -7661,12 +7628,14 @@
         <v>0</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D261" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="E261" s="39"/>
+      <c r="E261" s="39" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="b">
@@ -7676,12 +7645,14 @@
         <v>0</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D262" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="E262" s="40"/>
+      <c r="E262" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="b">
@@ -7691,12 +7662,14 @@
         <v>0</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D263" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="E263" s="40"/>
+      <c r="E263" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="b">
@@ -7706,12 +7679,14 @@
         <v>0</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D264" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="E264" s="40"/>
+      <c r="E264" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="b">
@@ -7721,12 +7696,14 @@
         <v>0</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D265" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="E265" s="40"/>
+      <c r="E265" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="b">
@@ -7736,12 +7713,14 @@
         <v>0</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D266" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="E266" s="40"/>
+      <c r="E266" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="b">
@@ -7751,12 +7730,14 @@
         <v>0</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D267" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="E267" s="40"/>
+      <c r="E267" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="b">
@@ -7766,12 +7747,14 @@
         <v>0</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D268" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="E268" s="40"/>
+      <c r="E268" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="b">
@@ -7781,12 +7764,14 @@
         <v>0</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D269" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="E269" s="40"/>
+      <c r="E269" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="b">
@@ -7796,12 +7781,14 @@
         <v>0</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D270" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="E270" s="40"/>
+      <c r="E270" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="b">
@@ -7811,12 +7798,14 @@
         <v>0</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D271" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="E271" s="40"/>
+      <c r="E271" s="40" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="27" t="b">
@@ -7826,12 +7815,14 @@
         <v>0</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D272" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E272" s="41"/>
+      <c r="E272" s="41" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="56"/>
@@ -8022,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D286" s="63" t="s">
         <v>252</v>
@@ -8037,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D287" s="63" t="s">
         <v>253</v>
@@ -8052,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="C288" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D288" s="63" t="s">
         <v>254</v>
@@ -8067,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D289" s="63" t="s">
         <v>255</v>
@@ -8112,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D292" s="63" t="s">
         <v>258</v>
@@ -8127,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="C293" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D293" s="63" t="s">
         <v>259</v>
@@ -8172,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D296" s="63" t="s">
         <v>262</v>
@@ -8187,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D297" s="63" t="s">
         <v>263</v>
@@ -8202,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D298" s="63" t="s">
         <v>264</v>
@@ -8217,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="C299" s="29" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D299" s="64" t="s">
         <v>265</v>
@@ -8398,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D312" s="62" t="s">
         <v>278</v>
@@ -8413,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="C313" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D313" s="63" t="s">
         <v>279</v>
@@ -8428,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="C314" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D314" s="63" t="s">
         <v>280</v>
@@ -8443,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="C315" s="29" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D315" s="64" t="s">
         <v>281</v>
@@ -11511,7 +11502,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A478:B505 A507:B524 A138:B177">
+  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A478:B505 A507:B524">
     <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -11519,57 +11510,57 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C317:C318 C320:C326 C403:C406 C464:C467 C90:C121 C123:C136 C138:C177 C179:C199 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C328:C345 C347:C358 C381:C401 C408:C462 C469:C476 C478:C505 C507:C524 C360:C367 C369:C379 C3:C88">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Not Started">
+  <conditionalFormatting sqref="C3:C88 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C90:C121">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D524">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C90:C121 C236:C257 C201:C202 C123:C136 C225 C227:C234 C204:C223 C259 C179:C199 C261:C272 C274:C278 C280:C299 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C507:C524 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C469:C476 C478:C505 C138:C177 C24:C25 C3:C12 C61:C88" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C123:C136 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C507:C524 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C469:C476 C478:C505 C138:C177 C24:C25 C3:C12 C90:C121" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11581,10 +11572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11758,33 +11749,55 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="114">
+      <c r="A16" s="48">
         <v>45981</v>
       </c>
       <c r="B16" t="s">
         <v>523</v>
       </c>
       <c r="C16" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="114">
+      <c r="A17" s="48">
         <v>45981</v>
       </c>
       <c r="B17" t="s">
         <v>524</v>
       </c>
       <c r="C17" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>45982</v>
+      </c>
+      <c r="B18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>45985</v>
+      </c>
+      <c r="B19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="37" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11796,7 +11809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E716A1E8-2C3A-40D7-B3A9-329FD5B14B09}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -11815,10 +11828,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -11843,10 +11856,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="78"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -11861,10 +11874,10 @@
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2194" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F62AED0-48C7-492E-9EF3-C6DEDB4A0CFE}"/>
+  <xr:revisionPtr revIDLastSave="2242" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8DE5988-7487-4D40-A6AE-F8C6AAE6E147}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="575">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1752,6 +1752,21 @@
   </si>
   <si>
     <t>Only checks 6500 Errors</t>
+  </si>
+  <si>
+    <t>No way to check for corrupt calibration on 6500</t>
+  </si>
+  <si>
+    <t>No way to check that instrument is calibrating on 6500</t>
+  </si>
+  <si>
+    <t>No instrument locking on 6500</t>
+  </si>
+  <si>
+    <t>No locking on 6500</t>
+  </si>
+  <si>
+    <t>No license on 6500</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2258,11 +2273,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="96">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2879,41 +2930,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3184,7 +3200,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.53374233128834359</c:v>
+                  <c:v>0.50920245398773001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3196,7 +3212,7 @@
                   <c:v>5.112474437627812E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23360655737704919</c:v>
+                  <c:v>0.25819672131147542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4183,9 +4199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E476" sqref="E476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,7 +4261,7 @@
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.53374233128834359</v>
+        <v>0.50920245398773001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4335,7 +4351,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.23360655737704919</v>
+        <v>0.25819672131147542</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11208,12 +11224,14 @@
         <v>0</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D464" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="E464" s="26"/>
+      <c r="E464" s="26" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="14" t="b">
@@ -11223,12 +11241,14 @@
         <v>0</v>
       </c>
       <c r="C465" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D465" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="E465" s="27"/>
+      <c r="E465" s="27" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="14" t="b">
@@ -11238,12 +11258,14 @@
         <v>0</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D466" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="E466" s="27"/>
+      <c r="E466" s="75" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="16" t="b">
@@ -11253,12 +11275,14 @@
         <v>0</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D467" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E467" s="28"/>
+      <c r="E467" s="28" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
@@ -11276,12 +11300,14 @@
         <v>0</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D469" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="E469" s="26"/>
+      <c r="E469" s="26" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="b">
@@ -11291,12 +11317,14 @@
         <v>0</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D470" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="E470" s="27"/>
+      <c r="E470" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="b">
@@ -11306,12 +11334,14 @@
         <v>0</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D471" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E471" s="27"/>
+      <c r="E471" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="b">
@@ -11321,12 +11351,14 @@
         <v>0</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D472" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="E472" s="27"/>
+      <c r="E472" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="b">
@@ -11336,12 +11368,14 @@
         <v>0</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D473" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="E473" s="27"/>
+      <c r="E473" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="b">
@@ -11351,12 +11385,14 @@
         <v>0</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D474" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E474" s="27"/>
+      <c r="E474" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="b">
@@ -11366,12 +11402,14 @@
         <v>0</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D475" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="E475" s="27"/>
+      <c r="E475" s="27" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="16" t="b">
@@ -11381,12 +11419,14 @@
         <v>0</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D476" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="E476" s="28"/>
+      <c r="E476" s="28" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
@@ -12115,57 +12155,57 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="Not Started">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C478:C505 C507:C524 C469:C476">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="16" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="17" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="18" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D524">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="3">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="89" priority="4">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="88" priority="5">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="6">
+    <cfRule type="expression" dxfId="87" priority="6">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="7">
+    <cfRule type="expression" dxfId="86" priority="7">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="8">
+    <cfRule type="expression" dxfId="85" priority="8">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="9">
+    <cfRule type="expression" dxfId="84" priority="9">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="11">
+    <cfRule type="expression" dxfId="82" priority="11">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C123:C136 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C469:C476 C478:C505 C138:C177 C24:C25 C3:C12 C507:C524" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C123:C136 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C469:C476" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12179,8 +12219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F460CAF1-5027-428A-BC3C-18A19A959A70}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12221,7 +12261,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>535</v>
@@ -12239,7 +12279,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>537</v>
@@ -12248,7 +12288,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>538</v>
@@ -12257,7 +12297,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>539</v>
@@ -12332,7 +12372,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>549</v>
@@ -12341,7 +12381,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>550</v>
@@ -12350,7 +12390,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>551</v>
@@ -12359,7 +12399,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>552</v>
@@ -12368,16 +12408,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>554</v>
@@ -12386,7 +12428,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>555</v>
@@ -12413,12 +12455,14 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>558</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="28" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="73" t="s">
@@ -12428,12 +12472,14 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
@@ -12479,12 +12525,14 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="27" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
@@ -12503,209 +12551,209 @@
     <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="containsText" dxfId="76" priority="46" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="81" priority="46" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="80" priority="59" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="79" priority="60" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="62" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B34">
-    <cfRule type="expression" dxfId="71" priority="47">
+    <cfRule type="expression" dxfId="76" priority="47">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="48">
+    <cfRule type="expression" dxfId="75" priority="48">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="49">
+    <cfRule type="expression" dxfId="74" priority="49">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="50">
+    <cfRule type="expression" dxfId="73" priority="50">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="51">
+    <cfRule type="expression" dxfId="72" priority="51">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52">
+    <cfRule type="expression" dxfId="71" priority="52">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="53">
+    <cfRule type="expression" dxfId="70" priority="53">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="54">
+    <cfRule type="expression" dxfId="69" priority="54">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="68" priority="55">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="67" priority="56">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="containsText" dxfId="61" priority="41" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="66" priority="41" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="42" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="65" priority="42" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="64" priority="43" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="63" priority="44" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="56" priority="36" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="61" priority="36" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="37" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="60" priority="37" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="38" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="59" priority="38" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="58" priority="39" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="56" priority="31" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="32" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="55" priority="32" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="54" priority="33" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="53" priority="34" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A25">
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="49" priority="28" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A33">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8 A10:A15 A17:A26 A28:A34" xr:uid="{97B7372F-F718-4E79-90DE-3BDD429F4C86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8 A10:A15 A28:A34 A17:A26" xr:uid="{97B7372F-F718-4E79-90DE-3BDD429F4C86}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12992,10 +13040,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C24">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14676,51 +14724,51 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A73 A75:A106 A108:A127 A129:A136 A138:A159 A161:A167">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B167">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2242" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8DE5988-7487-4D40-A6AE-F8C6AAE6E147}"/>
+  <xr:revisionPtr revIDLastSave="2288" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45508ACB-942D-4E75-A2BD-48D9283F2C0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3200,13 +3200,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.50920245398773001</c:v>
+                  <c:v>0.48670756646216767</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18367346938775511</c:v>
+                  <c:v>0.20612244897959184</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.112474437627812E-2</c:v>
@@ -4199,9 +4199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E476" sqref="E476"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.50920245398773001</v>
+        <v>0.48670756646216767</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.18367346938775511</v>
+        <v>0.20612244897959184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6168,13 +6168,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B125" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>117</v>
@@ -6183,13 +6183,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>118</v>
@@ -6198,13 +6198,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>119</v>
@@ -6213,13 +6213,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>120</v>
@@ -6228,13 +6228,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D129" s="43" t="s">
         <v>121</v>
@@ -6243,13 +6243,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D130" s="43" t="s">
         <v>122</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D131" s="43" t="s">
         <v>123</v>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D132" s="43" t="s">
         <v>124</v>
@@ -6288,13 +6288,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D133" s="43" t="s">
         <v>125</v>
@@ -6303,13 +6303,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" s="60" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D134" s="43" t="s">
         <v>126</v>
@@ -7701,13 +7701,13 @@
     </row>
     <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B225" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D225" s="49" t="s">
         <v>195</v>
@@ -12155,7 +12155,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C478:C505 C507:C524 C469:C476">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C478:C505 C507:C524 C469:C476 C123:C136">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
@@ -12205,7 +12205,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C123:C136 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C469:C476" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C123:C136" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2288" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45508ACB-942D-4E75-A2BD-48D9283F2C0A}"/>
+  <xr:revisionPtr revIDLastSave="2307" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC063C9-9452-4E78-A9D2-871EDC9F5EB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28695" yWindow="-5295" windowWidth="16410" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2253,6 +2253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2264,21 +2267,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2311,6 +2380,236 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDA9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2442,516 +2741,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCDCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDA9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCDCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2966,8 +2755,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{2008A3F9-383F-4862-93F4-F95837752461}">
-      <tableStyleElement type="wholeTable" dxfId="95"/>
-      <tableStyleElement type="firstRowStripe" dxfId="94"/>
+      <tableStyleElement type="wholeTable" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3200,13 +2989,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.48670756646216767</c:v>
+                  <c:v>0.47443762781186094</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20612244897959184</c:v>
+                  <c:v>0.21836734693877552</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.112474437627812E-2</c:v>
@@ -4200,8 +3989,8 @@
   <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,15 +4021,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="b">
@@ -4261,18 +4050,18 @@
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.48670756646216767</v>
+        <v>0.47443762781186094</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D4" s="54" t="s">
         <v>2</v>
@@ -4296,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>3</v>
@@ -4307,15 +4096,15 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.20612244897959184</v>
+        <v>0.21836734693877552</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>504</v>
@@ -4340,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>5</v>
@@ -4432,10 +4221,10 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="b">
@@ -4577,10 +4366,10 @@
       <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="b">
@@ -4613,10 +4402,10 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="b">
@@ -6138,13 +5927,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D123" s="42" t="s">
         <v>116</v>
@@ -7315,13 +7104,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D201" s="42" t="s">
         <v>3</v>
@@ -7330,13 +7119,13 @@
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B202" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D202" s="44" t="s">
         <v>5</v>
@@ -11263,7 +11052,7 @@
       <c r="D466" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="E466" s="75" t="s">
+      <c r="E466" s="27" t="s">
         <v>573</v>
       </c>
     </row>
@@ -12148,59 +11937,59 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A478:B505 A507:B524">
-    <cfRule type="cellIs" dxfId="93" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C478:C505 C507:C524 C469:C476 C123:C136">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Not Started">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D524">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12243,10 +12032,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
@@ -12255,7 +12044,7 @@
       <c r="B3" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="65" t="s">
         <v>569</v>
       </c>
     </row>
@@ -12551,205 +12340,103 @@
     <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="containsText" dxfId="81" priority="46" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="59" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="60" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="42" priority="61" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A15">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",A10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Not Supported">
+      <formula>NOT(ISERROR(SEARCH("Not Supported",A10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Partial Support">
+      <formula>NOT(ISERROR(SEARCH("Partial Support",A10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",A10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A26">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Not Supported">
+      <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Partial Support">
+      <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A34">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",A28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Not Supported">
+      <formula>NOT(ISERROR(SEARCH("Not Supported",A28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Partial Support">
+      <formula>NOT(ISERROR(SEARCH("Partial Support",A28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",A28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B34">
-    <cfRule type="expression" dxfId="76" priority="47">
+    <cfRule type="expression" dxfId="26" priority="47">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="48">
+    <cfRule type="expression" dxfId="25" priority="48">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="49">
+    <cfRule type="expression" dxfId="24" priority="49">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="50">
+    <cfRule type="expression" dxfId="23" priority="50">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="51">
+    <cfRule type="expression" dxfId="22" priority="51">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="52">
+    <cfRule type="expression" dxfId="21" priority="52">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="53">
-      <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="54">
+    <cfRule type="expression" dxfId="20" priority="54">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="55">
+    <cfRule type="expression" dxfId="19" priority="55">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="56">
+    <cfRule type="expression" dxfId="18" priority="56">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
-    <cfRule type="containsText" dxfId="66" priority="41" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="42" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="43" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="44" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="61" priority="36" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="37" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="38" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="39" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="56" priority="31" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="32" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="33" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="34" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A25">
-    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="28" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A33">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Supported">
-      <formula>NOT(ISERROR(SEARCH("Supported",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A28)))</formula>
+    <cfRule type="expression" dxfId="17" priority="53">
+      <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -13040,10 +12727,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C24">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13080,10 +12767,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -13131,10 +12818,10 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -13155,10 +12842,10 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -14724,51 +14411,51 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A73 A75:A106 A108:A127 A129:A136 A138:A159 A161:A167">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B167">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2307" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC063C9-9452-4E78-A9D2-871EDC9F5EB7}"/>
+  <xr:revisionPtr revIDLastSave="2513" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73EB7B15-B035-408E-A8D6-36F48E8D53B6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28695" yWindow="-5295" windowWidth="16410" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="583">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1767,6 +1767,30 @@
   </si>
   <si>
     <t>No license on 6500</t>
+  </si>
+  <si>
+    <t>No meas complete trigger to map external out to</t>
+  </si>
+  <si>
+    <t>If buffer doesn't have enough readings and measurement is idle, just returns with no error</t>
+  </si>
+  <si>
+    <t>Limit max/min more limited on 6500</t>
+  </si>
+  <si>
+    <t>Could accept and just return 0</t>
+  </si>
+  <si>
+    <t>PCT and SCALe don't apply to 34461A</t>
+  </si>
+  <si>
+    <t>6500 does not have an auto reference option</t>
+  </si>
+  <si>
+    <t>Simpler trigger model state</t>
+  </si>
+  <si>
+    <t>Update Scan State Function</t>
   </si>
 </sst>
 </file>
@@ -2406,13 +2430,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCDCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2428,6 +2445,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2511,6 +2535,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2526,20 +2564,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2581,6 +2605,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2603,13 +2634,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2989,19 +3013,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.47443762781186094</c:v>
+                  <c:v>0.30674846625766872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.0449897750511249E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21836734693877552</c:v>
+                  <c:v>0.26530612244897961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.112474437627812E-2</c:v>
+                  <c:v>5.5214723926380369E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25819672131147542</c:v>
+                  <c:v>0.37295081967213117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,9 +4012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,7 +4022,7 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="94" style="52" customWidth="1"/>
+    <col min="4" max="4" width="102" style="52" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
@@ -4050,7 +4074,7 @@
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.47443762781186094</v>
+        <v>0.30674846625766872</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4074,7 +4098,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(C2:C523, "Working")/COUNTA(C2:C523)</f>
-        <v>0</v>
+        <v>2.0449897750511249E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4096,7 +4120,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.21836734693877552</v>
+        <v>0.26530612244897961</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,7 +4142,7 @@
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>5.112474437627812E-2</v>
+        <v>5.5214723926380369E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4140,7 +4164,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.25819672131147542</v>
+        <v>0.37295081967213117</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7691,12 +7715,14 @@
         <v>0</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D238" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="E238" s="27"/>
+      <c r="E238" s="27" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="b">
@@ -7706,12 +7732,14 @@
         <v>0</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D239" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E239" s="27"/>
+      <c r="E239" s="27" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="b">
@@ -7800,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D245" s="47" t="s">
         <v>211</v>
@@ -8005,13 +8033,13 @@
     </row>
     <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B259" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D259" s="49" t="s">
         <v>225</v>
@@ -8240,13 +8268,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D274" s="46" t="s">
         <v>240</v>
@@ -8255,43 +8283,47 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B275" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D275" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="E275" s="27"/>
+      <c r="E275" s="27" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D276" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="E276" s="27"/>
+      <c r="E276" s="27" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B277" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D277" s="47" t="s">
         <v>243</v>
@@ -8300,13 +8332,13 @@
     </row>
     <row r="278" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B278" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D278" s="48" t="s">
         <v>244</v>
@@ -8323,13 +8355,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B280" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D280" s="46" t="s">
         <v>246</v>
@@ -8338,13 +8370,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B281" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D281" s="47" t="s">
         <v>247</v>
@@ -8353,13 +8385,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D282" s="47" t="s">
         <v>248</v>
@@ -8368,13 +8400,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D283" s="47" t="s">
         <v>249</v>
@@ -8383,28 +8415,30 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D284" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="E284" s="27"/>
+      <c r="E284" s="27" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B285" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D285" s="47" t="s">
         <v>251</v>
@@ -8479,12 +8513,14 @@
         <v>0</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D290" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E290" s="27"/>
+      <c r="E290" s="27" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="b">
@@ -8494,12 +8530,14 @@
         <v>0</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D291" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="E291" s="27"/>
+      <c r="E291" s="27" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="b">
@@ -8533,13 +8571,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B294" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D294" s="47" t="s">
         <v>260</v>
@@ -8548,13 +8586,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B295" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D295" s="47" t="s">
         <v>261</v>
@@ -8631,13 +8669,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B301" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D301" s="46" t="s">
         <v>267</v>
@@ -8646,13 +8684,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B302" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D302" s="47" t="s">
         <v>268</v>
@@ -8661,13 +8699,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B303" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D303" s="47" t="s">
         <v>269</v>
@@ -8676,13 +8714,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D304" s="47" t="s">
         <v>270</v>
@@ -8691,13 +8729,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B305" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D305" s="47" t="s">
         <v>271</v>
@@ -8706,13 +8744,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B306" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D306" s="47" t="s">
         <v>272</v>
@@ -8721,13 +8759,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B307" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D307" s="47" t="s">
         <v>273</v>
@@ -8736,13 +8774,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B308" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D308" s="47" t="s">
         <v>274</v>
@@ -8751,13 +8789,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B309" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D309" s="47" t="s">
         <v>275</v>
@@ -8766,13 +8804,13 @@
     </row>
     <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B310" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D310" s="48" t="s">
         <v>276</v>
@@ -8918,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="C321" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D321" s="47" t="s">
         <v>287</v>
@@ -8933,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D322" s="47" t="s">
         <v>288</v>
@@ -8969,7 +9007,7 @@
         <v>290</v>
       </c>
       <c r="E324" s="36" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,7 +9038,7 @@
       <c r="D326" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="E326" s="36"/>
+      <c r="E326" s="64"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
@@ -9033,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="C329" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D329" s="47" t="s">
         <v>295</v>
@@ -9048,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D330" s="47" t="s">
         <v>296</v>
@@ -9063,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D331" s="47" t="s">
         <v>297</v>
@@ -9078,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D332" s="47" t="s">
         <v>298</v>
@@ -9093,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D333" s="47" t="s">
         <v>299</v>
@@ -9108,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D334" s="47" t="s">
         <v>300</v>
@@ -9123,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D335" s="47" t="s">
         <v>301</v>
@@ -9138,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D336" s="47" t="s">
         <v>302</v>
@@ -9153,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D337" s="47" t="s">
         <v>303</v>
@@ -9168,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D338" s="47" t="s">
         <v>304</v>
@@ -9183,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D339" s="47" t="s">
         <v>305</v>
@@ -9198,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D340" s="47" t="s">
         <v>306</v>
@@ -9213,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="C341" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D341" s="47" t="s">
         <v>307</v>
@@ -9228,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D342" s="47" t="s">
         <v>308</v>
@@ -9243,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D343" s="47" t="s">
         <v>309</v>
@@ -9258,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="C344" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D344" s="47" t="s">
         <v>310</v>
@@ -9273,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D345" s="48" t="s">
         <v>311</v>
@@ -10074,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D400" s="47" t="s">
         <v>361</v>
@@ -10112,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D403" s="46" t="s">
         <v>364</v>
@@ -10127,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D404" s="47" t="s">
         <v>365</v>
@@ -10142,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D405" s="47" t="s">
         <v>366</v>
@@ -10157,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D406" s="48" t="s">
         <v>367</v>
@@ -10300,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D416" s="47" t="s">
         <v>376</v>
@@ -10315,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D417" s="47" t="s">
         <v>377</v>
@@ -10330,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D418" s="47" t="s">
         <v>378</v>
@@ -10360,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D420" s="47" t="s">
         <v>379</v>
@@ -10375,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D421" s="47" t="s">
         <v>380</v>
@@ -10390,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D422" s="47" t="s">
         <v>381</v>
@@ -10405,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D423" s="47" t="s">
         <v>382</v>
@@ -10420,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D424" s="47" t="s">
         <v>383</v>
@@ -10435,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D425" s="47" t="s">
         <v>384</v>
@@ -10450,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D426" s="47" t="s">
         <v>385</v>
@@ -10465,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D427" s="47" t="s">
         <v>386</v>
@@ -10525,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D431" s="47" t="s">
         <v>309</v>
@@ -10540,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D432" s="47" t="s">
         <v>310</v>
@@ -10555,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D433" s="47" t="s">
         <v>311</v>
@@ -10615,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D437" s="47" t="s">
         <v>392</v>
@@ -10630,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D438" s="47" t="s">
         <v>393</v>
@@ -10780,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D448" s="47" t="s">
         <v>403</v>
@@ -10810,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D450" s="47" t="s">
         <v>405</v>
@@ -10825,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D451" s="47" t="s">
         <v>406</v>
@@ -10840,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="C452" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D452" s="47" t="s">
         <v>407</v>
@@ -10885,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="C455" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D455" s="47" t="s">
         <v>410</v>
@@ -10900,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D456" s="47" t="s">
         <v>411</v>
@@ -10915,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D457" s="47" t="s">
         <v>412</v>
@@ -10945,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D459" s="47" t="s">
         <v>414</v>
@@ -10960,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D460" s="47" t="s">
         <v>415</v>
@@ -10975,12 +11013,14 @@
         <v>0</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D461" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="E461" s="27"/>
+      <c r="E461" s="27" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="16" t="b">
@@ -10990,12 +11030,14 @@
         <v>0</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D462" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="E462" s="28"/>
+      <c r="E462" s="28" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
@@ -11233,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D478" s="46" t="s">
         <v>432</v>
@@ -11248,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D479" s="47" t="s">
         <v>433</v>
@@ -11944,7 +11986,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C301:C310 C280:C299">
     <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
@@ -11994,7 +12036,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C280:C299 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C301:C310 C317:C318 C320:C326 C312:C315 C328:C345 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C408:C462 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C123:C136" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C408:C462 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C280:C299" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12009,7 +12051,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12226,7 +12268,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>556</v>
@@ -12235,7 +12277,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>557</v>
@@ -12340,20 +12382,20 @@
     <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="61" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A15">
@@ -12374,20 +12416,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A26">
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Not Supported">
+      <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Partial Support">
+      <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Partial Support">
-      <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A34">
@@ -12426,17 +12468,17 @@
     <cfRule type="expression" dxfId="21" priority="52">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="54">
+    <cfRule type="expression" dxfId="20" priority="53">
+      <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="54">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="55">
+    <cfRule type="expression" dxfId="18" priority="55">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="56">
+    <cfRule type="expression" dxfId="17" priority="56">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="53">
-      <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -12450,10 +12492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12612,7 +12654,7 @@
         <v>511</v>
       </c>
       <c r="C14" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12623,7 +12665,7 @@
         <v>512</v>
       </c>
       <c r="C15" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12700,7 +12742,7 @@
         <v>529</v>
       </c>
       <c r="C22" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12725,8 +12767,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>45993</v>
+      </c>
+      <c r="B25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>45993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C26">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2513" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73EB7B15-B035-408E-A8D6-36F48E8D53B6}"/>
+  <xr:revisionPtr revIDLastSave="2720" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C60EE9D-19F1-4237-848A-8110F63DE5FD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="587">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1529,9 +1529,6 @@
     <t>Working</t>
   </si>
   <si>
-    <t>Should display Keithly or Keysight??</t>
-  </si>
-  <si>
     <t>Ratio shares all config variables with DCV</t>
   </si>
   <si>
@@ -1791,6 +1788,21 @@
   </si>
   <si>
     <t>Update Scan State Function</t>
+  </si>
+  <si>
+    <t>Does not apply to 34461</t>
+  </si>
+  <si>
+    <t>No self test on 6500</t>
+  </si>
+  <si>
+    <t>No calibration control on 6500</t>
+  </si>
+  <si>
+    <t>TCouple Does not apply to 34461 FTHermistor not available on 6500</t>
+  </si>
+  <si>
+    <t>Values limited by 6500</t>
   </si>
 </sst>
 </file>
@@ -3013,19 +3025,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30674846625766872</c:v>
+                  <c:v>0.24130879345603273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0449897750511249E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26530612244897961</c:v>
+                  <c:v>0.29387755102040819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5214723926380369E-2</c:v>
+                  <c:v>6.1349693251533742E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37295081967213117</c:v>
+                  <c:v>0.40573770491803279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,9 +4024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>478</v>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="G3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.30674846625766872</v>
+        <v>0.24130879345603273</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,7 +4110,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(C2:C523, "Working")/COUNTA(C2:C523)</f>
-        <v>2.0449897750511249E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,7 +4132,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.26530612244897961</v>
+        <v>0.29387755102040819</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4131,18 +4143,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>5.5214723926380369E-2</v>
+        <v>6.1349693251533742E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,11 +4172,11 @@
       </c>
       <c r="E7" s="3"/>
       <c r="G7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.37295081967213117</v>
+        <v>0.40573770491803279</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4175,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>6</v>
@@ -4190,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>7</v>
@@ -4205,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -4222,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>8</v>
@@ -4237,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>9</v>
@@ -4258,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>11</v>
@@ -4275,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>12</v>
@@ -4290,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>13</v>
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>14</v>
@@ -4320,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>15</v>
@@ -4335,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>16</v>
@@ -4350,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -4365,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>17</v>
@@ -4382,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>18</v>
@@ -4439,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>8</v>
@@ -4456,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D34" s="54" t="s">
         <v>26</v>
@@ -4614,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" s="54" t="s">
         <v>30</v>
@@ -4676,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>34</v>
@@ -4693,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D43" s="54" t="s">
         <v>35</v>
@@ -4710,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D44" s="54" t="s">
         <v>36</v>
@@ -4727,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="54" t="s">
         <v>37</v>
@@ -4744,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D46" s="54" t="s">
         <v>38</v>
@@ -4761,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>39</v>
@@ -4778,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>40</v>
@@ -4795,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D49" s="54" t="s">
         <v>41</v>
@@ -4812,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D50" s="54" t="s">
         <v>42</v>
@@ -4829,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D51" s="54" t="s">
         <v>43</v>
@@ -4846,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D52" s="54" t="s">
         <v>44</v>
@@ -4863,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D53" s="54" t="s">
         <v>45</v>
@@ -4880,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D54" s="54" t="s">
         <v>46</v>
@@ -4897,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D55" s="54" t="s">
         <v>47</v>
@@ -4914,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D56" s="54" t="s">
         <v>48</v>
@@ -4931,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D57" s="54" t="s">
         <v>49</v>
@@ -4948,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D58" s="54" t="s">
         <v>50</v>
@@ -4985,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>7</v>
@@ -5015,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>57</v>
@@ -5032,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D64" s="43" t="s">
         <v>58</v>
@@ -5049,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>59</v>
@@ -5066,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>60</v>
@@ -5083,13 +5095,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D67" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5145,13 +5157,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>65</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,12 +5219,14 @@
         <v>0</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D75" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="b">
@@ -5222,12 +5236,14 @@
         <v>0</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="b">
@@ -5237,12 +5253,14 @@
         <v>0</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="b">
@@ -5252,12 +5270,14 @@
         <v>0</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D78" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="b">
@@ -5267,13 +5287,13 @@
         <v>1</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D79" s="43" t="s">
         <v>73</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D83" s="43" t="s">
         <v>77</v>
@@ -5346,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D84" s="43" t="s">
         <v>78</v>
@@ -5363,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D85" s="43" t="s">
         <v>79</v>
@@ -5380,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D86" s="43" t="s">
         <v>80</v>
@@ -5397,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D87" s="43" t="s">
         <v>81</v>
@@ -5437,13 +5457,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,13 +5551,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D96" s="43" t="s">
         <v>88</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5593,13 +5613,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D100" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5655,13 +5675,13 @@
         <v>0</v>
       </c>
       <c r="C104" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D104" s="43" t="s">
         <v>96</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>98</v>
@@ -5704,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>99</v>
@@ -5721,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D108" s="43" t="s">
         <v>100</v>
@@ -5738,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D109" s="43" t="s">
         <v>101</v>
@@ -5755,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D110" s="43" t="s">
         <v>102</v>
@@ -5772,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D111" s="43" t="s">
         <v>103</v>
@@ -5789,13 +5809,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D112" s="43" t="s">
         <v>104</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D114" s="43" t="s">
         <v>106</v>
@@ -5838,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D115" s="43" t="s">
         <v>107</v>
@@ -5855,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D116" s="43" t="s">
         <v>108</v>
@@ -5872,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D117" s="43" t="s">
         <v>109</v>
@@ -5919,12 +5939,14 @@
         <v>0</v>
       </c>
       <c r="C120" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D120" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="b">
@@ -5934,12 +5956,14 @@
         <v>0</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D121" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E121" s="7"/>
+      <c r="E121" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
@@ -6137,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D135" s="43" t="s">
         <v>127</v>
@@ -6154,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D136" s="44" t="s">
         <v>128</v>
@@ -6179,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="C138" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D138" s="59" t="s">
         <v>514</v>
-      </c>
-      <c r="D138" s="59" t="s">
-        <v>515</v>
       </c>
       <c r="E138" s="6"/>
     </row>
@@ -6209,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D140" s="47" t="s">
         <v>130</v>
@@ -6226,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D141" s="47" t="s">
         <v>131</v>
@@ -6243,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D142" s="47" t="s">
         <v>132</v>
@@ -6260,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>133</v>
@@ -6271,28 +6295,30 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E144" s="8"/>
+      <c r="E144" s="8" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>135</v>
@@ -6301,13 +6327,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>136</v>
@@ -6316,13 +6342,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>137</v>
@@ -6331,43 +6357,47 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E148" s="8"/>
+      <c r="E148" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E149" s="8"/>
+      <c r="E149" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>140</v>
@@ -6376,13 +6406,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>141</v>
@@ -6397,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>142</v>
@@ -6414,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>143</v>
@@ -6431,12 +6461,14 @@
         <v>0</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E154" s="8"/>
+      <c r="E154" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="b">
@@ -6446,12 +6478,14 @@
         <v>0</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D155" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E155" s="8"/>
+      <c r="E155" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="b">
@@ -6461,12 +6495,14 @@
         <v>0</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D156" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E156" s="8"/>
+      <c r="E156" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="b">
@@ -6476,22 +6512,24 @@
         <v>0</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D157" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E157" s="8"/>
+      <c r="E157" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B158" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D158" s="47" t="s">
         <v>148</v>
@@ -6500,13 +6538,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D159" s="47" t="s">
         <v>149</v>
@@ -6521,12 +6559,14 @@
         <v>0</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D160" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="E160" s="8"/>
+      <c r="E160" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="b">
@@ -6536,12 +6576,14 @@
         <v>0</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D161" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E161" s="8"/>
+      <c r="E161" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="b">
@@ -6551,12 +6593,14 @@
         <v>0</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D162" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E162" s="8"/>
+      <c r="E162" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="b">
@@ -6566,12 +6610,14 @@
         <v>0</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D163" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E163" s="8"/>
+      <c r="E163" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="b">
@@ -6581,12 +6627,14 @@
         <v>0</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D164" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E164" s="8"/>
+      <c r="E164" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="b">
@@ -6596,12 +6644,14 @@
         <v>0</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D165" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="E165" s="8"/>
+      <c r="E165" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="b">
@@ -6611,12 +6661,14 @@
         <v>0</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D166" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E166" s="8"/>
+      <c r="E166" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="b">
@@ -6626,12 +6678,14 @@
         <v>0</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E167" s="8"/>
+      <c r="E167" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="b">
@@ -6641,12 +6695,14 @@
         <v>0</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D168" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="E168" s="8"/>
+      <c r="E168" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="b">
@@ -6656,12 +6712,14 @@
         <v>0</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D169" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E169" s="8"/>
+      <c r="E169" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="b">
@@ -6671,12 +6729,14 @@
         <v>0</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E170" s="8"/>
+      <c r="E170" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="b">
@@ -6686,52 +6746,58 @@
         <v>0</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D171" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D172" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D173" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E173" s="8"/>
+      <c r="E173" s="9" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D174" s="47" t="s">
         <v>164</v>
@@ -6740,13 +6806,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D175" s="47" t="s">
         <v>165</v>
@@ -6755,13 +6821,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>166</v>
@@ -6770,13 +6836,13 @@
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D177" s="48" t="s">
         <v>167</v>
@@ -6799,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D179" s="42" t="s">
         <v>168</v>
@@ -6829,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D181" s="43" t="s">
         <v>169</v>
@@ -6846,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D182" s="43" t="s">
         <v>170</v>
@@ -6863,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D183" s="43" t="s">
         <v>171</v>
@@ -6878,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D184" s="43" t="s">
         <v>172</v>
@@ -6893,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D185" s="43" t="s">
         <v>173</v>
@@ -6908,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D186" s="43" t="s">
         <v>174</v>
@@ -6923,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D187" s="43" t="s">
         <v>175</v>
@@ -6938,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D188" s="43" t="s">
         <v>176</v>
@@ -6953,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D189" s="43" t="s">
         <v>177</v>
@@ -6968,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D190" s="43" t="s">
         <v>178</v>
@@ -6983,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>179</v>
@@ -6998,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>180</v>
@@ -7013,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>181</v>
@@ -7028,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D194" s="43" t="s">
         <v>182</v>
@@ -7043,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D195" s="43" t="s">
         <v>183</v>
@@ -7058,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D196" s="43" t="s">
         <v>184</v>
@@ -7075,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D197" s="43" t="s">
         <v>185</v>
@@ -7092,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D198" s="43" t="s">
         <v>186</v>
@@ -7109,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D199" s="44" t="s">
         <v>187</v>
@@ -7172,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D204" s="46" t="s">
         <v>191</v>
@@ -7189,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D205" s="47" t="s">
         <v>128</v>
@@ -7206,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D206" s="47" t="s">
         <v>98</v>
@@ -7223,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D207" s="47" t="s">
         <v>99</v>
@@ -7240,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D208" s="47" t="s">
         <v>108</v>
@@ -7257,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D209" s="47" t="s">
         <v>109</v>
@@ -7274,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D210" s="47" t="s">
         <v>192</v>
@@ -7291,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D211" s="47" t="s">
         <v>193</v>
@@ -7308,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D212" s="47" t="s">
         <v>79</v>
@@ -7325,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D213" s="47" t="s">
         <v>80</v>
@@ -7342,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D214" s="47" t="s">
         <v>184</v>
@@ -7359,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D215" s="47" t="s">
         <v>186</v>
@@ -7376,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D216" s="47" t="s">
         <v>142</v>
@@ -7393,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D217" s="47" t="s">
         <v>143</v>
@@ -7410,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D218" s="47" t="s">
         <v>34</v>
@@ -7427,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D219" s="47" t="s">
         <v>35</v>
@@ -7444,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D220" s="47" t="s">
         <v>44</v>
@@ -7461,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D221" s="47" t="s">
         <v>45</v>
@@ -7478,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D222" s="47" t="s">
         <v>48</v>
@@ -7495,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D223" s="48" t="s">
         <v>49</v>
@@ -7573,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D229" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -7590,13 +7656,13 @@
         <v>0</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D230" s="43" t="s">
         <v>200</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -7607,13 +7673,13 @@
         <v>0</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D231" s="43" t="s">
         <v>201</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -7624,13 +7690,13 @@
         <v>0</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D232" s="43" t="s">
         <v>202</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,13 +7707,13 @@
         <v>0</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D233" s="43" t="s">
         <v>203</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7658,13 +7724,13 @@
         <v>0</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D234" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7683,13 +7749,13 @@
         <v>1</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D236" s="46" t="s">
         <v>206</v>
       </c>
       <c r="E236" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,13 +7781,13 @@
         <v>0</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D238" s="47" t="s">
         <v>208</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -7732,13 +7798,13 @@
         <v>0</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D239" s="47" t="s">
         <v>209</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7794,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D243" s="47" t="s">
         <v>199</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -7811,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D244" s="47" t="s">
         <v>200</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7828,13 +7894,13 @@
         <v>0</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D245" s="47" t="s">
         <v>211</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,13 +8001,13 @@
         <v>0</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D252" s="47" t="s">
         <v>218</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7952,13 +8018,13 @@
         <v>0</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D253" s="47" t="s">
         <v>219</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7999,13 +8065,13 @@
         <v>1</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D256" s="47" t="s">
         <v>222</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8039,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D259" s="49" t="s">
         <v>225</v>
@@ -8062,13 +8128,13 @@
         <v>0</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D261" s="46" t="s">
         <v>227</v>
       </c>
       <c r="E261" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -8079,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D262" s="47" t="s">
         <v>228</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8096,13 +8162,13 @@
         <v>0</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D263" s="47" t="s">
         <v>229</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -8113,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D264" s="47" t="s">
         <v>230</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -8130,13 +8196,13 @@
         <v>0</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D265" s="47" t="s">
         <v>231</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -8147,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D266" s="47" t="s">
         <v>232</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -8164,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D267" s="47" t="s">
         <v>233</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -8181,13 +8247,13 @@
         <v>0</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D268" s="47" t="s">
         <v>234</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -8198,13 +8264,13 @@
         <v>0</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D269" s="47" t="s">
         <v>235</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,13 +8281,13 @@
         <v>0</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D270" s="47" t="s">
         <v>236</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -8232,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D271" s="47" t="s">
         <v>237</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8249,13 +8315,13 @@
         <v>0</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D272" s="48" t="s">
         <v>238</v>
       </c>
       <c r="E272" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8289,13 +8355,13 @@
         <v>1</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D275" s="47" t="s">
         <v>241</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8306,13 +8372,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D276" s="47" t="s">
         <v>242</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8427,7 +8493,7 @@
         <v>250</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -8453,12 +8519,14 @@
         <v>0</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D286" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E286" s="27"/>
+      <c r="E286" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="b">
@@ -8468,12 +8536,14 @@
         <v>0</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D287" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E287" s="27"/>
+      <c r="E287" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="b">
@@ -8483,12 +8553,14 @@
         <v>0</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D288" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="E288" s="27"/>
+      <c r="E288" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="b">
@@ -8498,12 +8570,14 @@
         <v>0</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D289" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E289" s="27"/>
+      <c r="E289" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="b">
@@ -8513,13 +8587,13 @@
         <v>0</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D290" s="47" t="s">
         <v>256</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8530,13 +8604,13 @@
         <v>0</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D291" s="47" t="s">
         <v>257</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8547,12 +8621,14 @@
         <v>0</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D292" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="E292" s="27"/>
+      <c r="E292" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="b">
@@ -8562,12 +8638,14 @@
         <v>0</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D293" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="E293" s="27"/>
+      <c r="E293" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="b">
@@ -8607,12 +8685,14 @@
         <v>0</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D296" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E296" s="27"/>
+      <c r="E296" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="b">
@@ -8622,12 +8702,14 @@
         <v>0</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D297" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="E297" s="27"/>
+      <c r="E297" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="b">
@@ -8637,12 +8719,14 @@
         <v>0</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D298" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E298" s="27"/>
+      <c r="E298" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="b">
@@ -8652,12 +8736,14 @@
         <v>0</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D299" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E299" s="28"/>
+      <c r="E299" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
@@ -8833,12 +8919,14 @@
         <v>0</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D312" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="E312" s="26"/>
+      <c r="E312" s="6" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="b">
@@ -8848,12 +8936,14 @@
         <v>0</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D313" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="E313" s="27"/>
+      <c r="E313" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="b">
@@ -8863,12 +8953,14 @@
         <v>0</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D314" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E314" s="27"/>
+      <c r="E314" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="16" t="b">
@@ -8878,12 +8970,14 @@
         <v>0</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D315" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="E315" s="28"/>
+      <c r="E315" s="7" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
@@ -8901,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D317" s="46" t="s">
         <v>283</v>
@@ -8916,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D318" s="48" t="s">
         <v>284</v>
@@ -8945,7 +9039,7 @@
         <v>286</v>
       </c>
       <c r="E320" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -9001,13 +9095,13 @@
         <v>1</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D324" s="47" t="s">
         <v>290</v>
       </c>
       <c r="E324" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -9056,12 +9150,14 @@
         <v>0</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D328" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="E328" s="26"/>
+      <c r="E328" s="26" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="b">
@@ -9071,12 +9167,14 @@
         <v>0</v>
       </c>
       <c r="C329" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D329" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="E329" s="27"/>
+      <c r="E329" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="b">
@@ -9086,12 +9184,14 @@
         <v>0</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D330" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="E330" s="27"/>
+      <c r="E330" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="b">
@@ -9101,12 +9201,14 @@
         <v>0</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D331" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="E331" s="27"/>
+      <c r="E331" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="b">
@@ -9116,12 +9218,14 @@
         <v>0</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D332" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E332" s="27"/>
+      <c r="E332" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="b">
@@ -9131,12 +9235,14 @@
         <v>0</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D333" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="E333" s="27"/>
+      <c r="E333" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="b">
@@ -9146,12 +9252,14 @@
         <v>0</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D334" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="E334" s="27"/>
+      <c r="E334" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="b">
@@ -9161,12 +9269,14 @@
         <v>0</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D335" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="E335" s="27"/>
+      <c r="E335" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="b">
@@ -9176,12 +9286,14 @@
         <v>0</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D336" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="E336" s="27"/>
+      <c r="E336" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="b">
@@ -9191,12 +9303,14 @@
         <v>0</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D337" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E337" s="27"/>
+      <c r="E337" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="b">
@@ -9206,12 +9320,14 @@
         <v>0</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D338" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="E338" s="27"/>
+      <c r="E338" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="b">
@@ -9221,12 +9337,14 @@
         <v>0</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D339" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="E339" s="27"/>
+      <c r="E339" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="b">
@@ -9236,12 +9354,14 @@
         <v>0</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D340" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="E340" s="27"/>
+      <c r="E340" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="b">
@@ -9251,12 +9371,14 @@
         <v>0</v>
       </c>
       <c r="C341" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D341" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="E341" s="27"/>
+      <c r="E341" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="b">
@@ -9266,12 +9388,14 @@
         <v>0</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D342" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="E342" s="27"/>
+      <c r="E342" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="b">
@@ -9281,12 +9405,14 @@
         <v>0</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D343" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="E343" s="27"/>
+      <c r="E343" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="b">
@@ -9296,12 +9422,14 @@
         <v>0</v>
       </c>
       <c r="C344" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D344" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="E344" s="27"/>
+      <c r="E344" s="27" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="16" t="b">
@@ -9311,12 +9439,14 @@
         <v>0</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D345" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="E345" s="28"/>
+      <c r="E345" s="28" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
@@ -9334,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D347" s="46" t="s">
         <v>313</v>
@@ -9349,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="C348" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D348" s="47" t="s">
         <v>314</v>
@@ -9364,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D349" s="47" t="s">
         <v>315</v>
@@ -9379,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D350" s="47" t="s">
         <v>316</v>
@@ -9394,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D351" s="47" t="s">
         <v>317</v>
@@ -9409,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D352" s="47" t="s">
         <v>318</v>
@@ -9424,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D353" s="47" t="s">
         <v>319</v>
@@ -9439,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D354" s="47" t="s">
         <v>320</v>
@@ -9454,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D355" s="47" t="s">
         <v>321</v>
@@ -9469,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D356" s="47" t="s">
         <v>322</v>
@@ -9484,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D357" s="47" t="s">
         <v>323</v>
@@ -9499,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D358" s="48" t="s">
         <v>324</v>
@@ -9522,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D360" s="46" t="s">
         <v>326</v>
@@ -9537,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D361" s="47" t="s">
         <v>327</v>
@@ -9552,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D362" s="47" t="s">
         <v>328</v>
@@ -9567,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D363" s="51" t="s">
         <v>329</v>
@@ -9582,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D364" s="47" t="s">
         <v>330</v>
@@ -9597,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D365" s="47" t="s">
         <v>331</v>
@@ -9612,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D366" s="47" t="s">
         <v>332</v>
@@ -9627,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="C367" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D367" s="48" t="s">
         <v>333</v>
@@ -9650,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D369" s="46" t="s">
         <v>335</v>
@@ -9665,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D370" s="47" t="s">
         <v>336</v>
@@ -9680,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D371" s="47" t="s">
         <v>337</v>
@@ -9695,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="C372" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D372" s="47" t="s">
         <v>338</v>
@@ -9710,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="C373" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D373" s="47" t="s">
         <v>339</v>
@@ -9725,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="C374" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D374" s="47" t="s">
         <v>340</v>
@@ -9740,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D375" s="47" t="s">
         <v>341</v>
@@ -9755,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D376" s="47" t="s">
         <v>342</v>
@@ -9770,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D377" s="47" t="s">
         <v>343</v>
@@ -9785,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D378" s="47" t="s">
         <v>344</v>
@@ -9800,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="C379" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D379" s="48" t="s">
         <v>345</v>
@@ -9823,19 +9953,21 @@
         <v>0</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D381" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="E381" s="26"/>
+      <c r="E381" s="26" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>493</v>
@@ -9847,10 +9979,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B383" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>493</v>
@@ -9862,10 +9994,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B384" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>493</v>
@@ -9877,10 +10009,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B385" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>493</v>
@@ -9903,9 +10035,7 @@
       <c r="D386" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="E386" s="27" t="s">
-        <v>495</v>
-      </c>
+      <c r="E386" s="27"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="b">
@@ -9915,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D387" s="47" t="s">
         <v>313</v>
@@ -9930,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D388" s="47" t="s">
         <v>352</v>
@@ -9945,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D389" s="47" t="s">
         <v>353</v>
@@ -9960,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D390" s="47" t="s">
         <v>354</v>
@@ -9975,22 +10105,24 @@
         <v>0</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D391" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="E391" s="27"/>
+      <c r="E391" s="27" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B392" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D392" s="47" t="s">
         <v>356</v>
@@ -10005,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D393" s="47" t="s">
         <v>323</v>
@@ -10035,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D395" s="47" t="s">
         <v>324</v>
@@ -10044,10 +10176,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B396" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" s="15" t="s">
         <v>493</v>
@@ -10059,10 +10191,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
         <v>493</v>
@@ -10074,10 +10206,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B398" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" s="15" t="s">
         <v>493</v>
@@ -10095,13 +10227,13 @@
         <v>0</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D399" s="47" t="s">
         <v>211</v>
       </c>
       <c r="E399" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -10112,12 +10244,14 @@
         <v>0</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D400" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="E400" s="27"/>
+      <c r="E400" s="27" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="16" t="b">
@@ -10127,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="C401" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D401" s="48" t="s">
         <v>362</v>
@@ -10150,12 +10284,14 @@
         <v>0</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D403" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="E403" s="26"/>
+      <c r="E403" s="6" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="b">
@@ -10165,12 +10301,14 @@
         <v>0</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D404" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="E404" s="27"/>
+      <c r="E404" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="b">
@@ -10180,12 +10318,14 @@
         <v>0</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D405" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="E405" s="27"/>
+      <c r="E405" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="16" t="b">
@@ -10195,12 +10335,14 @@
         <v>0</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D406" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E406" s="28"/>
+      <c r="E406" s="7" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
@@ -10218,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D408" s="46" t="s">
         <v>294</v>
@@ -10233,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D409" s="47" t="s">
         <v>369</v>
@@ -10248,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D410" s="47" t="s">
         <v>370</v>
@@ -10263,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D411" s="47" t="s">
         <v>371</v>
@@ -10278,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D412" s="47" t="s">
         <v>372</v>
@@ -10293,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D413" s="47" t="s">
         <v>373</v>
@@ -10308,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D414" s="47" t="s">
         <v>374</v>
@@ -10323,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D415" s="47" t="s">
         <v>375</v>
@@ -10338,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D416" s="47" t="s">
         <v>376</v>
@@ -10353,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D417" s="47" t="s">
         <v>377</v>
@@ -10368,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D418" s="47" t="s">
         <v>378</v>
@@ -10398,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D420" s="47" t="s">
         <v>379</v>
@@ -10413,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D421" s="47" t="s">
         <v>380</v>
@@ -10428,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D422" s="47" t="s">
         <v>381</v>
@@ -10443,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D423" s="47" t="s">
         <v>382</v>
@@ -10458,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D424" s="47" t="s">
         <v>383</v>
@@ -10473,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D425" s="47" t="s">
         <v>384</v>
@@ -10488,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D426" s="47" t="s">
         <v>385</v>
@@ -10503,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D427" s="47" t="s">
         <v>386</v>
@@ -10518,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D428" s="47" t="s">
         <v>387</v>
@@ -10533,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D429" s="47" t="s">
         <v>388</v>
@@ -10563,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D431" s="47" t="s">
         <v>309</v>
@@ -10578,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D432" s="47" t="s">
         <v>310</v>
@@ -10593,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D433" s="47" t="s">
         <v>311</v>
@@ -10608,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D434" s="47" t="s">
         <v>389</v>
@@ -10623,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="C435" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D435" s="47" t="s">
         <v>390</v>
@@ -10638,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D436" s="47" t="s">
         <v>391</v>
@@ -10653,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D437" s="47" t="s">
         <v>392</v>
@@ -10668,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D438" s="47" t="s">
         <v>393</v>
@@ -10683,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D439" s="47" t="s">
         <v>394</v>
@@ -10698,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D440" s="47" t="s">
         <v>395</v>
@@ -10713,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D441" s="47" t="s">
         <v>396</v>
@@ -10728,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="C442" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D442" s="47" t="s">
         <v>397</v>
@@ -10743,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D443" s="47" t="s">
         <v>398</v>
@@ -10758,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D444" s="47" t="s">
         <v>399</v>
@@ -10773,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="C445" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D445" s="47" t="s">
         <v>400</v>
@@ -10788,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="C446" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D446" s="47" t="s">
         <v>401</v>
@@ -10803,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="C447" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D447" s="47" t="s">
         <v>402</v>
@@ -10818,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D448" s="47" t="s">
         <v>403</v>
@@ -10833,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D449" s="47" t="s">
         <v>404</v>
@@ -10848,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D450" s="47" t="s">
         <v>405</v>
@@ -10863,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D451" s="47" t="s">
         <v>406</v>
@@ -10878,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="C452" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D452" s="47" t="s">
         <v>407</v>
@@ -10893,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="C453" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D453" s="47" t="s">
         <v>408</v>
@@ -10908,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D454" s="47" t="s">
         <v>409</v>
@@ -10923,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="C455" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D455" s="47" t="s">
         <v>410</v>
@@ -10938,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D456" s="47" t="s">
         <v>411</v>
@@ -10953,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D457" s="47" t="s">
         <v>412</v>
@@ -10968,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D458" s="47" t="s">
         <v>413</v>
@@ -10983,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D459" s="47" t="s">
         <v>414</v>
@@ -10998,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D460" s="47" t="s">
         <v>415</v>
@@ -11013,13 +11155,13 @@
         <v>0</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D461" s="47" t="s">
         <v>416</v>
       </c>
       <c r="E461" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11030,13 +11172,13 @@
         <v>0</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D462" s="48" t="s">
         <v>361</v>
       </c>
       <c r="E462" s="28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11055,13 +11197,13 @@
         <v>0</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D464" s="46" t="s">
         <v>418</v>
       </c>
       <c r="E464" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -11072,13 +11214,13 @@
         <v>0</v>
       </c>
       <c r="C465" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D465" s="47" t="s">
         <v>419</v>
       </c>
       <c r="E465" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -11089,13 +11231,13 @@
         <v>0</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D466" s="47" t="s">
         <v>420</v>
       </c>
       <c r="E466" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11106,13 +11248,13 @@
         <v>0</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D467" s="48" t="s">
         <v>421</v>
       </c>
       <c r="E467" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11131,13 +11273,13 @@
         <v>0</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D469" s="46" t="s">
         <v>423</v>
       </c>
       <c r="E469" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -11148,13 +11290,13 @@
         <v>0</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D470" s="47" t="s">
         <v>424</v>
       </c>
       <c r="E470" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -11165,13 +11307,13 @@
         <v>0</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D471" s="47" t="s">
         <v>425</v>
       </c>
       <c r="E471" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -11182,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D472" s="47" t="s">
         <v>426</v>
       </c>
       <c r="E472" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -11199,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D473" s="47" t="s">
         <v>427</v>
       </c>
       <c r="E473" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -11216,13 +11358,13 @@
         <v>0</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D474" s="47" t="s">
         <v>428</v>
       </c>
       <c r="E474" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -11233,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D475" s="47" t="s">
         <v>429</v>
       </c>
       <c r="E475" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11250,13 +11392,13 @@
         <v>0</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D476" s="48" t="s">
         <v>430</v>
       </c>
       <c r="E476" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11275,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D478" s="46" t="s">
         <v>432</v>
@@ -11290,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D479" s="47" t="s">
         <v>433</v>
@@ -11305,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D480" s="47" t="s">
         <v>434</v>
@@ -11320,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D481" s="47" t="s">
         <v>435</v>
@@ -11335,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D482" s="47" t="s">
         <v>436</v>
@@ -11350,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D483" s="47" t="s">
         <v>437</v>
@@ -11365,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D484" s="47" t="s">
         <v>438</v>
@@ -11380,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D485" s="47" t="s">
         <v>439</v>
@@ -11395,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D486" s="47" t="s">
         <v>440</v>
@@ -11410,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D487" s="47" t="s">
         <v>441</v>
@@ -11425,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="C488" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D488" s="47" t="s">
         <v>442</v>
@@ -11440,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D489" s="47" t="s">
         <v>443</v>
@@ -11455,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D490" s="47" t="s">
         <v>444</v>
@@ -11470,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D491" s="47" t="s">
         <v>445</v>
@@ -11485,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D492" s="47" t="s">
         <v>446</v>
@@ -11500,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D493" s="47" t="s">
         <v>447</v>
@@ -11515,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D494" s="47" t="s">
         <v>448</v>
@@ -11530,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D495" s="47" t="s">
         <v>449</v>
@@ -11545,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D496" s="47" t="s">
         <v>450</v>
@@ -11560,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D497" s="47" t="s">
         <v>451</v>
@@ -11575,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D498" s="47" t="s">
         <v>452</v>
@@ -11590,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D499" s="47" t="s">
         <v>453</v>
@@ -11605,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D500" s="47" t="s">
         <v>454</v>
@@ -11620,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="C501" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D501" s="47" t="s">
         <v>455</v>
@@ -11635,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D502" s="47" t="s">
         <v>456</v>
@@ -11650,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="C503" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D503" s="47" t="s">
         <v>457</v>
@@ -11665,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="C504" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D504" s="47" t="s">
         <v>411</v>
@@ -11680,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D505" s="48" t="s">
         <v>412</v>
@@ -11763,13 +11905,13 @@
         <v>0</v>
       </c>
       <c r="C511" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D511" s="47" t="s">
         <v>355</v>
       </c>
       <c r="E511" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -11780,13 +11922,13 @@
         <v>1</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D512" s="47" t="s">
         <v>356</v>
       </c>
       <c r="E512" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11986,7 +12128,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C301:C310 C280:C299">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C138:C177">
     <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
@@ -12036,7 +12178,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C408:C462 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C138:C177 C24:C25 C3:C12 C280:C299" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C408:C462 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C280:C299 C24:C25 C3:C12 C138:C177" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12051,7 +12193,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12075,19 +12217,19 @@
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="66" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12095,7 +12237,7 @@
         <v>493</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -12104,7 +12246,7 @@
         <v>493</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -12113,7 +12255,7 @@
         <v>493</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -12122,7 +12264,7 @@
         <v>493</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -12131,73 +12273,73 @@
         <v>493</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C16" s="74"/>
     </row>
@@ -12206,7 +12348,7 @@
         <v>493</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C17" s="26"/>
     </row>
@@ -12215,7 +12357,7 @@
         <v>493</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C18" s="27"/>
     </row>
@@ -12224,7 +12366,7 @@
         <v>493</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C19" s="27"/>
     </row>
@@ -12233,19 +12375,19 @@
         <v>493</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12253,7 +12395,7 @@
         <v>493</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C22" s="27"/>
     </row>
@@ -12262,7 +12404,7 @@
         <v>493</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C23" s="27"/>
     </row>
@@ -12271,7 +12413,7 @@
         <v>493</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C24" s="27"/>
     </row>
@@ -12280,36 +12422,36 @@
         <v>493</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C27" s="74"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12317,19 +12459,19 @@
         <v>493</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -12337,40 +12479,40 @@
         <v>493</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C34" s="28"/>
     </row>
@@ -12494,7 +12636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -12574,7 +12716,7 @@
         <v>45973</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C7" s="24" t="b">
         <v>1</v>
@@ -12585,7 +12727,7 @@
         <v>45973</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" s="24" t="b">
         <v>1</v>
@@ -12596,7 +12738,7 @@
         <v>45973</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="24" t="b">
         <v>1</v>
@@ -12607,7 +12749,7 @@
         <v>45973</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C10" s="24" t="b">
         <v>1</v>
@@ -12618,7 +12760,7 @@
         <v>45973</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C11" s="24" t="b">
         <v>1</v>
@@ -12629,7 +12771,7 @@
         <v>45974</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C12" s="24" t="b">
         <v>1</v>
@@ -12640,7 +12782,7 @@
         <v>45974</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" s="24" t="b">
         <v>1</v>
@@ -12651,7 +12793,7 @@
         <v>45980</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C14" s="24" t="b">
         <v>1</v>
@@ -12662,7 +12804,7 @@
         <v>45980</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C15" s="24" t="b">
         <v>1</v>
@@ -12673,7 +12815,7 @@
         <v>45981</v>
       </c>
       <c r="B16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="24" t="b">
         <v>1</v>
@@ -12684,7 +12826,7 @@
         <v>45981</v>
       </c>
       <c r="B17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C17" s="24" t="b">
         <v>1</v>
@@ -12695,7 +12837,7 @@
         <v>45982</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C18" s="24" t="b">
         <v>1</v>
@@ -12706,7 +12848,7 @@
         <v>45985</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" s="24" t="b">
         <v>1</v>
@@ -12717,7 +12859,7 @@
         <v>45985</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C20" s="24" t="b">
         <v>1</v>
@@ -12728,7 +12870,7 @@
         <v>45985</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C21" s="24" t="b">
         <v>1</v>
@@ -12739,7 +12881,7 @@
         <v>45986</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C22" s="24" t="b">
         <v>1</v>
@@ -12750,7 +12892,7 @@
         <v>45987</v>
       </c>
       <c r="B23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C23" s="24" t="b">
         <v>0</v>
@@ -12761,7 +12903,7 @@
         <v>45987</v>
       </c>
       <c r="B24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C24" s="24" t="b">
         <v>0</v>
@@ -12772,7 +12914,7 @@
         <v>45993</v>
       </c>
       <c r="B25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C25" s="24" t="b">
         <v>0</v>
@@ -12783,7 +12925,7 @@
         <v>45993</v>
       </c>
       <c r="B26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C26" s="24" t="b">
         <v>0</v>
@@ -12847,7 +12989,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>4</v>
@@ -12856,7 +12998,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>7</v>
@@ -12865,7 +13007,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>8</v>
@@ -12874,7 +13016,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>9</v>
@@ -12913,7 +13055,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>8</v>
@@ -12924,13 +13066,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -12982,7 +13124,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>26</v>
@@ -13022,7 +13164,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>30</v>
@@ -13060,7 +13202,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>34</v>
@@ -13071,7 +13213,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>35</v>
@@ -13082,7 +13224,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>36</v>
@@ -13093,7 +13235,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>37</v>
@@ -13104,7 +13246,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>38</v>
@@ -13115,7 +13257,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>39</v>
@@ -13126,7 +13268,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -13137,7 +13279,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>41</v>
@@ -13148,7 +13290,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>42</v>
@@ -13159,7 +13301,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>43</v>
@@ -13170,7 +13312,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>44</v>
@@ -13181,7 +13323,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>45</v>
@@ -13192,7 +13334,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>46</v>
@@ -13203,7 +13345,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B40" s="54" t="s">
         <v>47</v>
@@ -13214,7 +13356,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B41" s="54" t="s">
         <v>48</v>
@@ -13225,7 +13367,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B42" s="54" t="s">
         <v>49</v>
@@ -13236,7 +13378,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>50</v>
@@ -13261,7 +13403,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>7</v>
@@ -13279,7 +13421,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B48" s="43" t="s">
         <v>57</v>
@@ -13290,7 +13432,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B49" s="43" t="s">
         <v>58</v>
@@ -13301,7 +13443,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>59</v>
@@ -13312,7 +13454,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>60</v>
@@ -13323,13 +13465,13 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13361,13 +13503,13 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13399,7 +13541,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>69</v>
@@ -13408,7 +13550,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B61" s="43" t="s">
         <v>70</v>
@@ -13417,7 +13559,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>71</v>
@@ -13426,7 +13568,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>72</v>
@@ -13435,13 +13577,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -13473,7 +13615,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>77</v>
@@ -13484,7 +13626,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B69" s="43" t="s">
         <v>78</v>
@@ -13495,7 +13637,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B70" s="43" t="s">
         <v>79</v>
@@ -13506,7 +13648,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>80</v>
@@ -13517,7 +13659,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B72" s="43" t="s">
         <v>81</v>
@@ -13543,13 +13685,13 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,13 +13743,13 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B81" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -13639,13 +13781,13 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B85" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -13677,13 +13819,13 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -13697,7 +13839,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B91" s="43" t="s">
         <v>98</v>
@@ -13708,7 +13850,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>99</v>
@@ -13719,7 +13861,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>100</v>
@@ -13730,7 +13872,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B94" s="43" t="s">
         <v>101</v>
@@ -13741,7 +13883,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B95" s="43" t="s">
         <v>102</v>
@@ -13752,7 +13894,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B96" s="43" t="s">
         <v>103</v>
@@ -13763,13 +13905,13 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>104</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -13783,7 +13925,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B99" s="43" t="s">
         <v>106</v>
@@ -13794,7 +13936,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>107</v>
@@ -13805,7 +13947,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>108</v>
@@ -13816,7 +13958,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B102" s="43" t="s">
         <v>109</v>
@@ -13845,7 +13987,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>112</v>
@@ -13854,7 +13996,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>113</v>
@@ -13869,7 +14011,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B108" s="46" t="s">
         <v>191</v>
@@ -13880,7 +14022,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>128</v>
@@ -13891,7 +14033,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>98</v>
@@ -13902,7 +14044,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>99</v>
@@ -13913,7 +14055,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>108</v>
@@ -13924,7 +14066,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>109</v>
@@ -13935,7 +14077,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>192</v>
@@ -13946,7 +14088,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>193</v>
@@ -13957,7 +14099,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>79</v>
@@ -13968,7 +14110,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B117" s="47" t="s">
         <v>80</v>
@@ -13979,7 +14121,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B118" s="47" t="s">
         <v>184</v>
@@ -13990,7 +14132,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>186</v>
@@ -14001,7 +14143,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B120" s="47" t="s">
         <v>142</v>
@@ -14012,7 +14154,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>143</v>
@@ -14023,7 +14165,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B122" s="47" t="s">
         <v>34</v>
@@ -14034,7 +14176,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B123" s="47" t="s">
         <v>35</v>
@@ -14045,7 +14187,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B124" s="47" t="s">
         <v>44</v>
@@ -14056,7 +14198,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>45</v>
@@ -14067,7 +14209,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B126" s="47" t="s">
         <v>48</v>
@@ -14078,7 +14220,7 @@
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B127" s="48" t="s">
         <v>49</v>
@@ -14113,68 +14255,68 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B131" s="43" t="s">
         <v>199</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B132" s="43" t="s">
         <v>200</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B133" s="43" t="s">
         <v>201</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B134" s="43" t="s">
         <v>202</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B135" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B136" s="44" t="s">
         <v>204</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14185,13 +14327,13 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B138" s="46" t="s">
         <v>206</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -14205,7 +14347,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B140" s="47" t="s">
         <v>208</v>
@@ -14214,7 +14356,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B141" s="47" t="s">
         <v>209</v>
@@ -14250,35 +14392,35 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B145" s="47" t="s">
         <v>199</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B146" s="47" t="s">
         <v>200</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B147" s="47" t="s">
         <v>211</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -14337,24 +14479,24 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B154" s="47" t="s">
         <v>218</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B155" s="47" t="s">
         <v>219</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -14377,13 +14519,13 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B158" s="47" t="s">
         <v>222</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14409,12 +14551,12 @@
         <v>286</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B162" s="47" t="s">
         <v>287</v>
@@ -14423,7 +14565,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B163" s="47" t="s">
         <v>288</v>
@@ -14441,13 +14583,13 @@
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B165" s="47" t="s">
         <v>290</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2720" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C60EE9D-19F1-4237-848A-8110F63DE5FD}"/>
+  <xr:revisionPtr revIDLastSave="2819" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9573168-35DB-404A-86B1-D5DB208896A6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="587">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1447,19 +1447,9 @@
     <t>STATus:QUEStionable[:EVENt]?</t>
   </si>
   <si>
-    <t>Check some of these parameters</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Resolution Ignored and set to 4.5 digits
-Figure out how reading buffers should be handled</t>
-  </si>
-  <si>
-    <t>Resolution ignored for AC and set to 6.5 digits</t>
-  </si>
-  <si>
     <t>Options are slightly different</t>
   </si>
   <si>
@@ -1472,9 +1462,6 @@
     <t>34461 Does not have this option</t>
   </si>
   <si>
-    <t>Display digits ignored fixed at 4.5 dig</t>
-  </si>
-  <si>
     <t>Checklist</t>
   </si>
   <si>
@@ -1803,6 +1790,18 @@
   </si>
   <si>
     <t>Values limited by 6500</t>
+  </si>
+  <si>
+    <t>Freq/Per range not supported on 6500</t>
+  </si>
+  <si>
+    <t>No timeout control on 6500</t>
+  </si>
+  <si>
+    <t>TCouple Does not apply to 34461 FTHermistor not available on 6500, Type is ignored, Resolution is ignored</t>
+  </si>
+  <si>
+    <t>Both parameters are ignored</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2307,6 +2306,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3025,19 +3039,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.24130879345603273</c:v>
+                  <c:v>0.20654396728016361</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29387755102040819</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1349693251533742E-2</c:v>
+                  <c:v>7.5664621676891614E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40573770491803279</c:v>
+                  <c:v>0.42008196721311475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,9 +4038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4041,24 +4055,24 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="72"/>
@@ -4075,18 +4089,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53"/>
       <c r="G3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>0.24130879345603273</v>
+        <v>0.20654396728016361</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,16 +4111,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>476</v>
-      </c>
+      <c r="E4" s="54"/>
       <c r="G4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H4">
         <f>COUNTIF(C2:C523, "Working")/COUNTA(C2:C523)</f>
@@ -4115,24 +4127,24 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="54"/>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.29387755102040819</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4143,56 +4155,60 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="54" t="s">
+        <v>521</v>
+      </c>
       <c r="G6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>6.1349693251533742E-2</v>
+        <v>7.5664621676891614E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="54"/>
       <c r="G7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.40573770491803279</v>
+        <v>0.42008196721311475</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D8" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="b">
@@ -4202,28 +4218,30 @@
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="54" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>468</v>
+      <c r="E10" s="9" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,12 +4252,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="b">
@@ -4249,12 +4269,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="55" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="66" t="s">
@@ -4270,14 +4292,12 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>470</v>
-      </c>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="b">
@@ -4287,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>12</v>
@@ -4302,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>13</v>
@@ -4317,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>14</v>
@@ -4332,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>15</v>
@@ -4347,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>16</v>
@@ -4362,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -4377,14 +4397,12 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>471</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="b">
@@ -4394,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>18</v>
@@ -4415,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>20</v>
@@ -4430,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>21</v>
@@ -4451,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>1</v>
@@ -4500,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D31" s="54" t="s">
         <v>23</v>
@@ -4532,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D32" s="54" t="s">
         <v>24</v>
@@ -4547,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>25</v>
@@ -4562,13 +4580,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D34" s="54" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>27</v>
@@ -4594,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D36" s="54" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D37" s="54" t="s">
         <v>29</v>
@@ -4626,13 +4644,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D38" s="54" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4643,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>31</v>
@@ -4658,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D40" s="54" t="s">
         <v>32</v>
@@ -4673,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>33</v>
@@ -4688,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D43" s="54" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4722,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D44" s="54" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4739,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D45" s="54" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D46" s="54" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D49" s="54" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,13 +4842,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D50" s="54" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,14 +4859,12 @@
         <v>1</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D51" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>482</v>
-      </c>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="b">
@@ -4858,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D52" s="54" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D53" s="54" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4892,13 +4908,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D54" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D55" s="54" t="s">
         <v>47</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4926,13 +4942,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D56" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4943,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D57" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4960,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D58" s="54" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4977,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D59" s="55" t="s">
         <v>51</v>
@@ -4997,12 +5013,14 @@
         <v>1</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="b">
@@ -5012,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>1</v>
@@ -5027,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5044,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D64" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5061,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5078,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5095,13 +5113,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D67" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5112,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D68" s="43" t="s">
         <v>62</v>
@@ -5127,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D69" s="43" t="s">
         <v>63</v>
@@ -5142,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D70" s="43" t="s">
         <v>64</v>
@@ -5157,13 +5175,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>65</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D72" s="43" t="s">
         <v>66</v>
@@ -5189,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D73" s="43" t="s">
         <v>67</v>
@@ -5204,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D74" s="43" t="s">
         <v>68</v>
@@ -5219,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D75" s="43" t="s">
         <v>69</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>70</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>71</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,13 +5288,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D78" s="43" t="s">
         <v>72</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D79" s="43" t="s">
         <v>73</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D80" s="43" t="s">
         <v>74</v>
@@ -5319,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D81" s="43" t="s">
         <v>75</v>
@@ -5334,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D82" s="43" t="s">
         <v>76</v>
@@ -5349,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D83" s="43" t="s">
         <v>77</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D84" s="43" t="s">
         <v>78</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D85" s="43" t="s">
         <v>79</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D86" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,13 +5435,13 @@
         <v>1</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D87" s="43" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D88" s="44" t="s">
         <v>82</v>
@@ -5457,13 +5475,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>525</v>
+      <c r="E90" s="6" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D91" s="43" t="s">
         <v>1</v>
@@ -5489,13 +5507,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D92" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5506,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D93" s="43" t="s">
         <v>85</v>
@@ -5521,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D94" s="43" t="s">
         <v>86</v>
@@ -5536,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D95" s="43" t="s">
         <v>87</v>
@@ -5551,13 +5569,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D96" s="43" t="s">
         <v>88</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5568,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D97" s="43" t="s">
         <v>89</v>
@@ -5583,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D98" s="43" t="s">
         <v>90</v>
@@ -5598,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D99" s="43" t="s">
         <v>91</v>
@@ -5613,13 +5631,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D100" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5630,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D101" s="43" t="s">
         <v>93</v>
@@ -5645,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D102" s="43" t="s">
         <v>94</v>
@@ -5660,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D103" s="43" t="s">
         <v>95</v>
@@ -5675,13 +5693,13 @@
         <v>0</v>
       </c>
       <c r="C104" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D104" s="43" t="s">
         <v>96</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5692,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D105" s="43" t="s">
         <v>97</v>
@@ -5707,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D108" s="43" t="s">
         <v>100</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D109" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5775,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D110" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,13 +5810,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D111" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5809,13 +5827,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D112" s="43" t="s">
         <v>104</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D113" s="43" t="s">
         <v>105</v>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D114" s="43" t="s">
         <v>106</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D115" s="43" t="s">
         <v>107</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D116" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D117" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D118" s="43" t="s">
         <v>110</v>
@@ -5924,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D119" s="43" t="s">
         <v>111</v>
@@ -5939,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="C120" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D120" s="43" t="s">
         <v>112</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5956,13 +5974,13 @@
         <v>0</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D121" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>582</v>
+      <c r="E121" s="7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5981,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D123" s="42" t="s">
         <v>116</v>
@@ -5996,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D124" s="43" t="s">
         <v>1</v>
@@ -6011,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>117</v>
@@ -6026,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>118</v>
@@ -6041,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>119</v>
@@ -6056,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>120</v>
@@ -6071,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D129" s="43" t="s">
         <v>121</v>
@@ -6086,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D130" s="43" t="s">
         <v>122</v>
@@ -6101,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D131" s="43" t="s">
         <v>123</v>
@@ -6116,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D132" s="43" t="s">
         <v>124</v>
@@ -6131,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D133" s="43" t="s">
         <v>125</v>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D134" s="43" t="s">
         <v>126</v>
@@ -6161,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D135" s="43" t="s">
         <v>127</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6178,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D136" s="44" t="s">
         <v>128</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6197,18 +6215,20 @@
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D138" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="E138" s="6"/>
+        <v>510</v>
+      </c>
+      <c r="E138" s="75" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="b">
@@ -6218,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>1</v>
@@ -6233,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D140" s="47" t="s">
         <v>130</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6250,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D141" s="47" t="s">
         <v>131</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D142" s="47" t="s">
         <v>132</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6284,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6301,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>134</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6318,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>135</v>
@@ -6333,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>136</v>
@@ -6348,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>137</v>
@@ -6363,13 +6383,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>138</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6380,13 +6400,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>139</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>140</v>
@@ -6412,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>141</v>
@@ -6427,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>142</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6444,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>143</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>144</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,13 +6498,13 @@
         <v>0</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D155" s="47" t="s">
         <v>145</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6495,13 +6515,13 @@
         <v>0</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D156" s="47" t="s">
         <v>146</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6512,13 +6532,13 @@
         <v>0</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D157" s="47" t="s">
         <v>147</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D158" s="47" t="s">
         <v>148</v>
@@ -6544,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D159" s="47" t="s">
         <v>149</v>
@@ -6559,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D160" s="47" t="s">
         <v>150</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6576,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D161" s="47" t="s">
         <v>151</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6593,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D162" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6610,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D163" s="47" t="s">
         <v>153</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D164" s="47" t="s">
         <v>154</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6644,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D165" s="47" t="s">
         <v>155</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6661,13 +6681,13 @@
         <v>0</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D166" s="47" t="s">
         <v>156</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>157</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6695,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D168" s="47" t="s">
         <v>158</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6712,13 +6732,13 @@
         <v>0</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D169" s="47" t="s">
         <v>159</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6729,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>160</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6746,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D171" s="47" t="s">
         <v>161</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6763,13 +6783,13 @@
         <v>1</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D172" s="47" t="s">
         <v>162</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6780,13 +6800,13 @@
         <v>1</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D173" s="47" t="s">
         <v>163</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6797,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D174" s="47" t="s">
         <v>164</v>
@@ -6812,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D175" s="47" t="s">
         <v>165</v>
@@ -6827,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>166</v>
@@ -6842,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D177" s="48" t="s">
         <v>167</v>
@@ -6859,18 +6879,20 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D179" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E179" s="6"/>
+      <c r="E179" s="6" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="b">
@@ -6880,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D180" s="43" t="s">
         <v>1</v>
@@ -6895,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D181" s="43" t="s">
         <v>169</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6912,24 +6934,24 @@
         <v>0</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D182" s="43" t="s">
         <v>170</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D183" s="43" t="s">
         <v>171</v>
@@ -6938,13 +6960,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B184" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D184" s="43" t="s">
         <v>172</v>
@@ -6953,43 +6975,47 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D185" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E185" s="8"/>
+      <c r="E185" s="8" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D186" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E186" s="8"/>
+      <c r="E186" s="8" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D187" s="43" t="s">
         <v>175</v>
@@ -6998,13 +7024,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D188" s="43" t="s">
         <v>176</v>
@@ -7019,12 +7045,14 @@
         <v>0</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D189" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E189" s="8"/>
+      <c r="E189" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="b">
@@ -7034,12 +7062,14 @@
         <v>0</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D190" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E190" s="8"/>
+      <c r="E190" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="b">
@@ -7049,12 +7079,14 @@
         <v>0</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E191" s="8"/>
+      <c r="E191" s="8" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="b">
@@ -7064,12 +7096,14 @@
         <v>0</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="E192" s="8"/>
+      <c r="E192" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="b">
@@ -7079,12 +7113,14 @@
         <v>0</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="E193" s="8"/>
+      <c r="E193" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="b">
@@ -7094,12 +7130,14 @@
         <v>0</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D194" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E194" s="8"/>
+      <c r="E194" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="b">
@@ -7109,12 +7147,14 @@
         <v>0</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D195" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="E195" s="8"/>
+      <c r="E195" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="b">
@@ -7124,13 +7164,13 @@
         <v>0</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D196" s="43" t="s">
         <v>184</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -7141,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D197" s="43" t="s">
         <v>185</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7158,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D198" s="43" t="s">
         <v>186</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7175,13 +7215,13 @@
         <v>0</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D199" s="44" t="s">
         <v>187</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7200,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D201" s="42" t="s">
         <v>3</v>
@@ -7215,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D202" s="44" t="s">
         <v>5</v>
@@ -7238,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D204" s="46" t="s">
         <v>191</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D205" s="47" t="s">
         <v>128</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -7272,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D206" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,13 +7329,13 @@
         <v>0</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D207" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -7306,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D208" s="47" t="s">
         <v>108</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7323,13 +7363,13 @@
         <v>0</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D209" s="47" t="s">
         <v>109</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7340,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D210" s="47" t="s">
         <v>192</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -7357,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D211" s="47" t="s">
         <v>193</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -7374,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D212" s="47" t="s">
         <v>79</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7391,13 +7431,13 @@
         <v>0</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D213" s="47" t="s">
         <v>80</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -7408,13 +7448,13 @@
         <v>0</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D214" s="47" t="s">
         <v>184</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7425,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D215" s="47" t="s">
         <v>186</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7442,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D216" s="47" t="s">
         <v>142</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,13 +7499,13 @@
         <v>0</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D217" s="47" t="s">
         <v>143</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -7476,13 +7516,13 @@
         <v>0</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D218" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -7493,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D219" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -7510,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D220" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -7527,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D221" s="47" t="s">
         <v>45</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -7544,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D222" s="47" t="s">
         <v>48</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7561,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D223" s="48" t="s">
         <v>49</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7586,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D225" s="49" t="s">
         <v>195</v>
@@ -7609,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D227" s="42" t="s">
         <v>197</v>
@@ -7624,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D228" s="43" t="s">
         <v>198</v>
@@ -7639,13 +7679,13 @@
         <v>0</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D229" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -7656,13 +7696,13 @@
         <v>0</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D230" s="43" t="s">
         <v>200</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D231" s="43" t="s">
         <v>201</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -7690,13 +7730,13 @@
         <v>0</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D232" s="43" t="s">
         <v>202</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -7707,13 +7747,13 @@
         <v>0</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D233" s="43" t="s">
         <v>203</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7724,13 +7764,13 @@
         <v>0</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D234" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7749,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D236" s="46" t="s">
         <v>206</v>
       </c>
       <c r="E236" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7766,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D237" s="47" t="s">
         <v>207</v>
@@ -7781,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D238" s="47" t="s">
         <v>208</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -7798,13 +7838,13 @@
         <v>0</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D239" s="47" t="s">
         <v>209</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7815,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D240" s="50" t="s">
         <v>210</v>
@@ -7830,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D241" s="47" t="s">
         <v>197</v>
@@ -7845,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D242" s="47" t="s">
         <v>198</v>
@@ -7860,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D243" s="47" t="s">
         <v>199</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -7877,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D244" s="47" t="s">
         <v>200</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7894,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D245" s="47" t="s">
         <v>211</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7911,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>212</v>
@@ -7926,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D247" s="47" t="s">
         <v>213</v>
@@ -7941,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D248" s="47" t="s">
         <v>214</v>
@@ -7956,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D249" s="47" t="s">
         <v>215</v>
@@ -7971,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D250" s="47" t="s">
         <v>216</v>
@@ -7986,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D251" s="47" t="s">
         <v>217</v>
@@ -8001,13 +8041,13 @@
         <v>0</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D252" s="47" t="s">
         <v>218</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -8018,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D253" s="47" t="s">
         <v>219</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -8035,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D254" s="47" t="s">
         <v>220</v>
@@ -8050,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D255" s="47" t="s">
         <v>221</v>
@@ -8065,13 +8105,13 @@
         <v>1</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D256" s="47" t="s">
         <v>222</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8082,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D257" s="48" t="s">
         <v>223</v>
@@ -8105,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D259" s="49" t="s">
         <v>225</v>
@@ -8128,13 +8168,13 @@
         <v>0</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D261" s="46" t="s">
         <v>227</v>
       </c>
       <c r="E261" s="26" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,13 +8185,13 @@
         <v>0</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D262" s="47" t="s">
         <v>228</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8162,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D263" s="47" t="s">
         <v>229</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -8179,13 +8219,13 @@
         <v>0</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D264" s="47" t="s">
         <v>230</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -8196,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D265" s="47" t="s">
         <v>231</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -8213,13 +8253,13 @@
         <v>0</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D266" s="47" t="s">
         <v>232</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D267" s="47" t="s">
         <v>233</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -8247,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D268" s="47" t="s">
         <v>234</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -8264,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D269" s="47" t="s">
         <v>235</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -8281,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D270" s="47" t="s">
         <v>236</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -8298,13 +8338,13 @@
         <v>0</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D271" s="47" t="s">
         <v>237</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8315,13 +8355,13 @@
         <v>0</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D272" s="48" t="s">
         <v>238</v>
       </c>
       <c r="E272" s="28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8340,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D274" s="46" t="s">
         <v>240</v>
@@ -8355,13 +8395,13 @@
         <v>1</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D275" s="47" t="s">
         <v>241</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8372,13 +8412,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D276" s="47" t="s">
         <v>242</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8389,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D277" s="47" t="s">
         <v>243</v>
@@ -8404,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D278" s="48" t="s">
         <v>244</v>
@@ -8427,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D280" s="46" t="s">
         <v>246</v>
@@ -8442,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D281" s="47" t="s">
         <v>247</v>
@@ -8457,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D282" s="47" t="s">
         <v>248</v>
@@ -8472,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D283" s="47" t="s">
         <v>249</v>
@@ -8487,13 +8527,13 @@
         <v>1</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D284" s="47" t="s">
         <v>250</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -8504,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D285" s="47" t="s">
         <v>251</v>
@@ -8519,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D286" s="47" t="s">
         <v>252</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -8536,13 +8576,13 @@
         <v>0</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D287" s="47" t="s">
         <v>253</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -8553,13 +8593,13 @@
         <v>0</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D288" s="47" t="s">
         <v>254</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -8570,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D289" s="47" t="s">
         <v>255</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -8587,13 +8627,13 @@
         <v>0</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D290" s="47" t="s">
         <v>256</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8604,13 +8644,13 @@
         <v>0</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D291" s="47" t="s">
         <v>257</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8621,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D292" s="47" t="s">
         <v>258</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -8638,13 +8678,13 @@
         <v>0</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D293" s="47" t="s">
         <v>259</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -8655,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D294" s="47" t="s">
         <v>260</v>
@@ -8670,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D295" s="47" t="s">
         <v>261</v>
@@ -8685,13 +8725,13 @@
         <v>0</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D296" s="47" t="s">
         <v>262</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8702,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D297" s="47" t="s">
         <v>263</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8719,13 +8759,13 @@
         <v>0</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D298" s="47" t="s">
         <v>264</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8736,13 +8776,13 @@
         <v>0</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D299" s="48" t="s">
         <v>265</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8761,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D301" s="46" t="s">
         <v>267</v>
@@ -8776,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D302" s="47" t="s">
         <v>268</v>
@@ -8791,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D303" s="47" t="s">
         <v>269</v>
@@ -8806,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D304" s="47" t="s">
         <v>270</v>
@@ -8821,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D305" s="47" t="s">
         <v>271</v>
@@ -8836,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D306" s="47" t="s">
         <v>272</v>
@@ -8851,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D307" s="47" t="s">
         <v>273</v>
@@ -8866,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D308" s="47" t="s">
         <v>274</v>
@@ -8881,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D309" s="47" t="s">
         <v>275</v>
@@ -8896,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D310" s="48" t="s">
         <v>276</v>
@@ -8919,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D312" s="46" t="s">
         <v>278</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -8936,13 +8976,13 @@
         <v>0</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D313" s="47" t="s">
         <v>279</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -8953,13 +8993,13 @@
         <v>0</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D314" s="47" t="s">
         <v>280</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8970,13 +9010,13 @@
         <v>0</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D315" s="48" t="s">
         <v>281</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8995,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D317" s="46" t="s">
         <v>283</v>
@@ -9010,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D318" s="48" t="s">
         <v>284</v>
@@ -9033,13 +9073,13 @@
         <v>1</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D320" s="46" t="s">
         <v>286</v>
       </c>
       <c r="E320" s="26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -9050,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="C321" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D321" s="47" t="s">
         <v>287</v>
@@ -9065,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D322" s="47" t="s">
         <v>288</v>
@@ -9080,7 +9120,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D323" s="47" t="s">
         <v>289</v>
@@ -9095,13 +9135,13 @@
         <v>1</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D324" s="47" t="s">
         <v>290</v>
       </c>
       <c r="E324" s="36" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -9112,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="C325" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D325" s="47" t="s">
         <v>291</v>
@@ -9127,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D326" s="48" t="s">
         <v>292</v>
@@ -9150,13 +9190,13 @@
         <v>0</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D328" s="46" t="s">
         <v>294</v>
       </c>
       <c r="E328" s="26" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -9167,13 +9207,13 @@
         <v>0</v>
       </c>
       <c r="C329" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D329" s="47" t="s">
         <v>295</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -9184,13 +9224,13 @@
         <v>0</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D330" s="47" t="s">
         <v>296</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -9201,13 +9241,13 @@
         <v>0</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D331" s="47" t="s">
         <v>297</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -9218,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D332" s="47" t="s">
         <v>298</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -9235,13 +9275,13 @@
         <v>0</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D333" s="47" t="s">
         <v>299</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -9252,13 +9292,13 @@
         <v>0</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D334" s="47" t="s">
         <v>300</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -9269,13 +9309,13 @@
         <v>0</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D335" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -9286,13 +9326,13 @@
         <v>0</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D336" s="47" t="s">
         <v>302</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -9303,13 +9343,13 @@
         <v>0</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D337" s="47" t="s">
         <v>303</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -9320,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D338" s="47" t="s">
         <v>304</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -9337,13 +9377,13 @@
         <v>0</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D339" s="47" t="s">
         <v>305</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,13 +9394,13 @@
         <v>0</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D340" s="47" t="s">
         <v>306</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -9371,13 +9411,13 @@
         <v>0</v>
       </c>
       <c r="C341" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D341" s="47" t="s">
         <v>307</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -9388,13 +9428,13 @@
         <v>0</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D342" s="47" t="s">
         <v>308</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,13 +9445,13 @@
         <v>0</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D343" s="47" t="s">
         <v>309</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -9422,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="C344" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D344" s="47" t="s">
         <v>310</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9439,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D345" s="48" t="s">
         <v>311</v>
       </c>
       <c r="E345" s="28" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9464,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D347" s="46" t="s">
         <v>313</v>
@@ -9479,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="C348" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D348" s="47" t="s">
         <v>314</v>
@@ -9494,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D349" s="47" t="s">
         <v>315</v>
@@ -9509,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D350" s="47" t="s">
         <v>316</v>
@@ -9524,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D351" s="47" t="s">
         <v>317</v>
@@ -9539,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D352" s="47" t="s">
         <v>318</v>
@@ -9554,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D353" s="47" t="s">
         <v>319</v>
@@ -9569,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D354" s="47" t="s">
         <v>320</v>
@@ -9584,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D355" s="47" t="s">
         <v>321</v>
@@ -9599,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D356" s="47" t="s">
         <v>322</v>
@@ -9614,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D357" s="47" t="s">
         <v>323</v>
@@ -9629,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D358" s="48" t="s">
         <v>324</v>
@@ -9652,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D360" s="46" t="s">
         <v>326</v>
@@ -9667,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D361" s="47" t="s">
         <v>327</v>
@@ -9682,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D362" s="47" t="s">
         <v>328</v>
@@ -9697,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D363" s="51" t="s">
         <v>329</v>
@@ -9712,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D364" s="47" t="s">
         <v>330</v>
@@ -9727,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D365" s="47" t="s">
         <v>331</v>
@@ -9742,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D366" s="47" t="s">
         <v>332</v>
@@ -9757,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="C367" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D367" s="48" t="s">
         <v>333</v>
@@ -9780,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D369" s="46" t="s">
         <v>335</v>
@@ -9795,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D370" s="47" t="s">
         <v>336</v>
@@ -9810,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D371" s="47" t="s">
         <v>337</v>
@@ -9825,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="C372" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D372" s="47" t="s">
         <v>338</v>
@@ -9840,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="C373" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D373" s="47" t="s">
         <v>339</v>
@@ -9855,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="C374" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D374" s="47" t="s">
         <v>340</v>
@@ -9870,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D375" s="47" t="s">
         <v>341</v>
@@ -9885,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D376" s="47" t="s">
         <v>342</v>
@@ -9900,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D377" s="47" t="s">
         <v>343</v>
@@ -9915,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D378" s="47" t="s">
         <v>344</v>
@@ -9930,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="C379" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D379" s="48" t="s">
         <v>345</v>
@@ -9953,13 +9993,13 @@
         <v>0</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D381" s="46" t="s">
         <v>294</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -9970,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D382" s="47" t="s">
         <v>347</v>
@@ -9985,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D383" s="47" t="s">
         <v>348</v>
@@ -10000,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="C384" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D384" s="47" t="s">
         <v>349</v>
@@ -10015,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D385" s="47" t="s">
         <v>350</v>
@@ -10030,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="C386" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D386" s="47" t="s">
         <v>351</v>
@@ -10045,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D387" s="47" t="s">
         <v>313</v>
@@ -10060,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D388" s="47" t="s">
         <v>352</v>
@@ -10075,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D389" s="47" t="s">
         <v>353</v>
@@ -10090,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D390" s="47" t="s">
         <v>354</v>
@@ -10105,13 +10145,13 @@
         <v>0</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D391" s="47" t="s">
         <v>355</v>
       </c>
       <c r="E391" s="27" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -10122,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D392" s="47" t="s">
         <v>356</v>
@@ -10137,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D393" s="47" t="s">
         <v>323</v>
@@ -10152,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D394" s="47" t="s">
         <v>357</v>
@@ -10167,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D395" s="47" t="s">
         <v>324</v>
@@ -10182,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D396" s="47" t="s">
         <v>358</v>
@@ -10197,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D397" s="47" t="s">
         <v>359</v>
@@ -10212,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D398" s="47" t="s">
         <v>360</v>
@@ -10227,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D399" s="47" t="s">
         <v>211</v>
       </c>
       <c r="E399" s="27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -10244,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D400" s="47" t="s">
         <v>361</v>
       </c>
       <c r="E400" s="27" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10261,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="C401" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D401" s="48" t="s">
         <v>362</v>
@@ -10284,13 +10324,13 @@
         <v>0</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D403" s="46" t="s">
         <v>364</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -10301,13 +10341,13 @@
         <v>0</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D404" s="47" t="s">
         <v>365</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -10318,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D405" s="47" t="s">
         <v>366</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10335,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D406" s="48" t="s">
         <v>367</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10360,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D408" s="46" t="s">
         <v>294</v>
@@ -10375,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D409" s="47" t="s">
         <v>369</v>
@@ -10390,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D410" s="47" t="s">
         <v>370</v>
@@ -10405,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D411" s="47" t="s">
         <v>371</v>
@@ -10420,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D412" s="47" t="s">
         <v>372</v>
@@ -10435,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D413" s="47" t="s">
         <v>373</v>
@@ -10450,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D414" s="47" t="s">
         <v>374</v>
@@ -10465,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D415" s="47" t="s">
         <v>375</v>
@@ -10480,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D416" s="47" t="s">
         <v>376</v>
@@ -10495,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D417" s="47" t="s">
         <v>377</v>
@@ -10510,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D418" s="47" t="s">
         <v>378</v>
@@ -10525,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D419" s="47" t="s">
         <v>351</v>
@@ -10540,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D420" s="47" t="s">
         <v>379</v>
@@ -10555,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D421" s="47" t="s">
         <v>380</v>
@@ -10570,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D422" s="47" t="s">
         <v>381</v>
@@ -10585,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D423" s="47" t="s">
         <v>382</v>
@@ -10600,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D424" s="47" t="s">
         <v>383</v>
@@ -10615,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D425" s="47" t="s">
         <v>384</v>
@@ -10630,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D426" s="47" t="s">
         <v>385</v>
@@ -10645,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D427" s="47" t="s">
         <v>386</v>
@@ -10660,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D428" s="47" t="s">
         <v>387</v>
@@ -10675,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D429" s="47" t="s">
         <v>388</v>
@@ -10690,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D430" s="47" t="s">
         <v>357</v>
@@ -10705,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D431" s="47" t="s">
         <v>309</v>
@@ -10720,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D432" s="47" t="s">
         <v>310</v>
@@ -10735,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D433" s="47" t="s">
         <v>311</v>
@@ -10750,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D434" s="47" t="s">
         <v>389</v>
@@ -10765,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="C435" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D435" s="47" t="s">
         <v>390</v>
@@ -10780,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D436" s="47" t="s">
         <v>391</v>
@@ -10795,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D437" s="47" t="s">
         <v>392</v>
@@ -10810,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D438" s="47" t="s">
         <v>393</v>
@@ -10825,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D439" s="47" t="s">
         <v>394</v>
@@ -10840,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D440" s="47" t="s">
         <v>395</v>
@@ -10855,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D441" s="47" t="s">
         <v>396</v>
@@ -10870,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="C442" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D442" s="47" t="s">
         <v>397</v>
@@ -10885,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D443" s="47" t="s">
         <v>398</v>
@@ -10900,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D444" s="47" t="s">
         <v>399</v>
@@ -10915,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="C445" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D445" s="47" t="s">
         <v>400</v>
@@ -10930,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="C446" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D446" s="47" t="s">
         <v>401</v>
@@ -10945,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="C447" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D447" s="47" t="s">
         <v>402</v>
@@ -10960,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D448" s="47" t="s">
         <v>403</v>
@@ -10975,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D449" s="47" t="s">
         <v>404</v>
@@ -10990,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D450" s="47" t="s">
         <v>405</v>
@@ -11005,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D451" s="47" t="s">
         <v>406</v>
@@ -11020,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="C452" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D452" s="47" t="s">
         <v>407</v>
@@ -11035,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="C453" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D453" s="47" t="s">
         <v>408</v>
@@ -11050,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D454" s="47" t="s">
         <v>409</v>
@@ -11065,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="C455" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D455" s="47" t="s">
         <v>410</v>
@@ -11080,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D456" s="47" t="s">
         <v>411</v>
@@ -11095,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D457" s="47" t="s">
         <v>412</v>
@@ -11110,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D458" s="47" t="s">
         <v>413</v>
@@ -11125,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D459" s="47" t="s">
         <v>414</v>
@@ -11140,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D460" s="47" t="s">
         <v>415</v>
@@ -11155,13 +11195,13 @@
         <v>0</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D461" s="47" t="s">
         <v>416</v>
       </c>
       <c r="E461" s="27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11172,13 +11212,13 @@
         <v>0</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D462" s="48" t="s">
         <v>361</v>
       </c>
       <c r="E462" s="28" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11197,13 +11237,13 @@
         <v>0</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D464" s="46" t="s">
         <v>418</v>
       </c>
       <c r="E464" s="26" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -11214,13 +11254,13 @@
         <v>0</v>
       </c>
       <c r="C465" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D465" s="47" t="s">
         <v>419</v>
       </c>
       <c r="E465" s="27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -11231,13 +11271,13 @@
         <v>0</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D466" s="47" t="s">
         <v>420</v>
       </c>
       <c r="E466" s="27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11248,13 +11288,13 @@
         <v>0</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D467" s="48" t="s">
         <v>421</v>
       </c>
       <c r="E467" s="28" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11273,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D469" s="46" t="s">
         <v>423</v>
       </c>
       <c r="E469" s="26" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -11290,13 +11330,13 @@
         <v>0</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D470" s="47" t="s">
         <v>424</v>
       </c>
       <c r="E470" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -11307,13 +11347,13 @@
         <v>0</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D471" s="47" t="s">
         <v>425</v>
       </c>
       <c r="E471" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -11324,13 +11364,13 @@
         <v>0</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D472" s="47" t="s">
         <v>426</v>
       </c>
       <c r="E472" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -11341,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D473" s="47" t="s">
         <v>427</v>
       </c>
       <c r="E473" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -11358,13 +11398,13 @@
         <v>0</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D474" s="47" t="s">
         <v>428</v>
       </c>
       <c r="E474" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -11375,13 +11415,13 @@
         <v>0</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D475" s="47" t="s">
         <v>429</v>
       </c>
       <c r="E475" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11392,13 +11432,13 @@
         <v>0</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D476" s="48" t="s">
         <v>430</v>
       </c>
       <c r="E476" s="28" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11417,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D478" s="46" t="s">
         <v>432</v>
@@ -11432,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D479" s="47" t="s">
         <v>433</v>
@@ -11447,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D480" s="47" t="s">
         <v>434</v>
@@ -11462,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D481" s="47" t="s">
         <v>435</v>
@@ -11477,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D482" s="47" t="s">
         <v>436</v>
@@ -11492,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D483" s="47" t="s">
         <v>437</v>
@@ -11507,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D484" s="47" t="s">
         <v>438</v>
@@ -11522,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D485" s="47" t="s">
         <v>439</v>
@@ -11537,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D486" s="47" t="s">
         <v>440</v>
@@ -11552,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D487" s="47" t="s">
         <v>441</v>
@@ -11567,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="C488" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D488" s="47" t="s">
         <v>442</v>
@@ -11582,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D489" s="47" t="s">
         <v>443</v>
@@ -11597,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D490" s="47" t="s">
         <v>444</v>
@@ -11612,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D491" s="47" t="s">
         <v>445</v>
@@ -11627,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D492" s="47" t="s">
         <v>446</v>
@@ -11642,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D493" s="47" t="s">
         <v>447</v>
@@ -11657,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D494" s="47" t="s">
         <v>448</v>
@@ -11672,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D495" s="47" t="s">
         <v>449</v>
@@ -11687,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D496" s="47" t="s">
         <v>450</v>
@@ -11702,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D497" s="47" t="s">
         <v>451</v>
@@ -11717,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D498" s="47" t="s">
         <v>452</v>
@@ -11732,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D499" s="47" t="s">
         <v>453</v>
@@ -11747,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D500" s="47" t="s">
         <v>454</v>
@@ -11762,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="C501" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D501" s="47" t="s">
         <v>455</v>
@@ -11777,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D502" s="47" t="s">
         <v>456</v>
@@ -11792,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="C503" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D503" s="47" t="s">
         <v>457</v>
@@ -11807,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="C504" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D504" s="47" t="s">
         <v>411</v>
@@ -11822,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D505" s="48" t="s">
         <v>412</v>
@@ -11845,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="C507" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D507" s="46" t="s">
         <v>347</v>
@@ -11860,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="C508" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D508" s="47" t="s">
         <v>348</v>
@@ -11875,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="C509" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D509" s="47" t="s">
         <v>349</v>
@@ -11890,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="C510" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D510" s="47" t="s">
         <v>350</v>
@@ -11905,13 +11945,13 @@
         <v>0</v>
       </c>
       <c r="C511" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D511" s="47" t="s">
         <v>355</v>
       </c>
       <c r="E511" s="27" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -11922,13 +11962,13 @@
         <v>1</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D512" s="47" t="s">
         <v>356</v>
       </c>
       <c r="E512" s="27" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11939,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="C513" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D513" s="47" t="s">
         <v>358</v>
@@ -11954,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="C514" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D514" s="47" t="s">
         <v>359</v>
@@ -11969,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="C515" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D515" s="47" t="s">
         <v>459</v>
@@ -11984,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="C516" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D516" s="47" t="s">
         <v>460</v>
@@ -11999,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D517" s="47" t="s">
         <v>461</v>
@@ -12014,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D518" s="47" t="s">
         <v>462</v>
@@ -12029,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D519" s="47" t="s">
         <v>463</v>
@@ -12044,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="C520" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D520" s="47" t="s">
         <v>464</v>
@@ -12059,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="C521" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D521" s="47" t="s">
         <v>465</v>
@@ -12074,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="C522" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D522" s="47" t="s">
         <v>466</v>
@@ -12089,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="C523" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D523" s="47" t="s">
         <v>467</v>
@@ -12104,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D524" s="48" t="s">
         <v>360</v>
@@ -12128,7 +12168,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C138:C177">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C138:C177 C179:C199">
     <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
@@ -12178,7 +12218,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C179:C199 C61:C88 C274:C278 C261:C272 C408:C462 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C280:C299 C24:C25 C3:C12 C138:C177" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C14:C22 C369:C379 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C138:C177 C61:C88 C274:C278 C261:C272 C408:C462 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C280:C299 C24:C25 C3:C12 C179:C199" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12205,314 +12245,314 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="66" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="73" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="73" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C16" s="74"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="73" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C27" s="74"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B31" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>561</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B32" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>562</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C34" s="28"/>
     </row>
@@ -12647,13 +12687,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12661,7 +12701,7 @@
         <v>45972</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C2" s="24" t="b">
         <v>1</v>
@@ -12672,7 +12712,7 @@
         <v>45972</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C3" s="24" t="b">
         <v>0</v>
@@ -12683,7 +12723,7 @@
         <v>45972</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C4" s="24" t="b">
         <v>1</v>
@@ -12694,7 +12734,7 @@
         <v>45972</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C5" s="24" t="b">
         <v>1</v>
@@ -12705,7 +12745,7 @@
         <v>45972</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C6" s="24" t="b">
         <v>0</v>
@@ -12716,7 +12756,7 @@
         <v>45973</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C7" s="24" t="b">
         <v>1</v>
@@ -12727,7 +12767,7 @@
         <v>45973</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C8" s="24" t="b">
         <v>1</v>
@@ -12738,7 +12778,7 @@
         <v>45973</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C9" s="24" t="b">
         <v>1</v>
@@ -12749,7 +12789,7 @@
         <v>45973</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C10" s="24" t="b">
         <v>1</v>
@@ -12760,7 +12800,7 @@
         <v>45973</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C11" s="24" t="b">
         <v>1</v>
@@ -12771,7 +12811,7 @@
         <v>45974</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C12" s="24" t="b">
         <v>1</v>
@@ -12782,7 +12822,7 @@
         <v>45974</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C13" s="24" t="b">
         <v>1</v>
@@ -12793,7 +12833,7 @@
         <v>45980</v>
       </c>
       <c r="B14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C14" s="24" t="b">
         <v>1</v>
@@ -12804,7 +12844,7 @@
         <v>45980</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C15" s="24" t="b">
         <v>1</v>
@@ -12815,7 +12855,7 @@
         <v>45981</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C16" s="24" t="b">
         <v>1</v>
@@ -12826,7 +12866,7 @@
         <v>45981</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C17" s="24" t="b">
         <v>1</v>
@@ -12837,7 +12877,7 @@
         <v>45982</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C18" s="24" t="b">
         <v>1</v>
@@ -12848,7 +12888,7 @@
         <v>45985</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C19" s="24" t="b">
         <v>1</v>
@@ -12859,7 +12899,7 @@
         <v>45985</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C20" s="24" t="b">
         <v>1</v>
@@ -12870,7 +12910,7 @@
         <v>45985</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C21" s="24" t="b">
         <v>1</v>
@@ -12881,7 +12921,7 @@
         <v>45986</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C22" s="24" t="b">
         <v>1</v>
@@ -12892,7 +12932,7 @@
         <v>45987</v>
       </c>
       <c r="B23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C23" s="24" t="b">
         <v>0</v>
@@ -12903,7 +12943,7 @@
         <v>45987</v>
       </c>
       <c r="B24" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C24" s="24" t="b">
         <v>0</v>
@@ -12914,7 +12954,7 @@
         <v>45993</v>
       </c>
       <c r="B25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C25" s="24" t="b">
         <v>0</v>
@@ -12925,7 +12965,7 @@
         <v>45993</v>
       </c>
       <c r="B26" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C26" s="24" t="b">
         <v>0</v>
@@ -12962,13 +13002,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12980,7 +13020,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>1</v>
@@ -12989,7 +13029,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>4</v>
@@ -12998,7 +13038,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>7</v>
@@ -13007,7 +13047,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>8</v>
@@ -13016,7 +13056,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>9</v>
@@ -13031,7 +13071,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>20</v>
@@ -13040,7 +13080,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>21</v>
@@ -13055,29 +13095,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>1</v>
@@ -13086,18 +13126,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>23</v>
@@ -13106,7 +13146,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>24</v>
@@ -13115,7 +13155,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>25</v>
@@ -13124,18 +13164,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>27</v>
@@ -13144,18 +13184,18 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>29</v>
@@ -13164,18 +13204,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>31</v>
@@ -13184,7 +13224,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>32</v>
@@ -13193,7 +13233,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>33</v>
@@ -13202,194 +13242,194 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B40" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B41" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B42" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>51</v>
@@ -13403,7 +13443,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>7</v>
@@ -13412,7 +13452,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>1</v>
@@ -13421,62 +13461,62 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B48" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B49" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>62</v>
@@ -13485,7 +13525,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B54" s="43" t="s">
         <v>63</v>
@@ -13494,7 +13534,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>64</v>
@@ -13503,18 +13543,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B57" s="43" t="s">
         <v>66</v>
@@ -13523,7 +13563,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>67</v>
@@ -13532,7 +13572,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>68</v>
@@ -13541,7 +13581,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>69</v>
@@ -13550,7 +13590,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B61" s="43" t="s">
         <v>70</v>
@@ -13559,7 +13599,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>71</v>
@@ -13568,7 +13608,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>72</v>
@@ -13577,18 +13617,18 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>74</v>
@@ -13597,7 +13637,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>75</v>
@@ -13606,7 +13646,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>76</v>
@@ -13615,62 +13655,62 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B69" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B70" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B72" s="43" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>82</v>
@@ -13685,18 +13725,18 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B76" s="43" t="s">
         <v>1</v>
@@ -13705,18 +13745,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B77" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B78" s="43" t="s">
         <v>85</v>
@@ -13725,7 +13765,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B79" s="43" t="s">
         <v>86</v>
@@ -13734,7 +13774,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B80" s="43" t="s">
         <v>87</v>
@@ -13743,18 +13783,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B81" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B82" s="43" t="s">
         <v>89</v>
@@ -13763,7 +13803,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B83" s="43" t="s">
         <v>90</v>
@@ -13772,7 +13812,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B84" s="43" t="s">
         <v>91</v>
@@ -13781,18 +13821,18 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B85" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B86" s="43" t="s">
         <v>93</v>
@@ -13801,7 +13841,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>94</v>
@@ -13810,7 +13850,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>95</v>
@@ -13819,18 +13859,18 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B90" s="43" t="s">
         <v>97</v>
@@ -13839,84 +13879,84 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B91" s="43" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>100</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B94" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B95" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B96" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>104</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B98" s="43" t="s">
         <v>105</v>
@@ -13925,51 +13965,51 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B99" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B102" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>110</v>
@@ -13978,7 +14018,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B104" s="43" t="s">
         <v>111</v>
@@ -13987,7 +14027,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>112</v>
@@ -13996,7 +14036,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>113</v>
@@ -14011,222 +14051,222 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B108" s="46" t="s">
         <v>191</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>109</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>192</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>193</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B117" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B118" s="47" t="s">
         <v>184</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>186</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B120" s="47" t="s">
         <v>142</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>143</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B122" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B123" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B124" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B126" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B127" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14237,7 +14277,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B129" s="42" t="s">
         <v>197</v>
@@ -14246,7 +14286,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B130" s="43" t="s">
         <v>198</v>
@@ -14255,68 +14295,68 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B131" s="43" t="s">
         <v>199</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B132" s="43" t="s">
         <v>200</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B133" s="43" t="s">
         <v>201</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B134" s="43" t="s">
         <v>202</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B135" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B136" s="44" t="s">
         <v>204</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14327,18 +14367,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B138" s="46" t="s">
         <v>206</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B139" s="47" t="s">
         <v>207</v>
@@ -14347,7 +14387,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B140" s="47" t="s">
         <v>208</v>
@@ -14356,7 +14396,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B141" s="47" t="s">
         <v>209</v>
@@ -14365,7 +14405,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B142" s="50" t="s">
         <v>210</v>
@@ -14374,7 +14414,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B143" s="47" t="s">
         <v>197</v>
@@ -14383,7 +14423,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B144" s="47" t="s">
         <v>198</v>
@@ -14392,40 +14432,40 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B145" s="47" t="s">
         <v>199</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B146" s="47" t="s">
         <v>200</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B147" s="47" t="s">
         <v>211</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B148" s="47" t="s">
         <v>212</v>
@@ -14434,7 +14474,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B149" s="47" t="s">
         <v>213</v>
@@ -14443,7 +14483,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B150" s="47" t="s">
         <v>214</v>
@@ -14452,7 +14492,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B151" s="47" t="s">
         <v>215</v>
@@ -14461,7 +14501,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B152" s="47" t="s">
         <v>216</v>
@@ -14470,7 +14510,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B153" s="47" t="s">
         <v>217</v>
@@ -14479,29 +14519,29 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B154" s="47" t="s">
         <v>218</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B155" s="47" t="s">
         <v>219</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B156" s="47" t="s">
         <v>220</v>
@@ -14510,7 +14550,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B157" s="47" t="s">
         <v>221</v>
@@ -14519,18 +14559,18 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B158" s="47" t="s">
         <v>222</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B159" s="48" t="s">
         <v>223</v>
@@ -14545,18 +14585,18 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="61" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B161" s="46" t="s">
         <v>286</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B162" s="47" t="s">
         <v>287</v>
@@ -14565,7 +14605,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B163" s="47" t="s">
         <v>288</v>
@@ -14574,7 +14614,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B164" s="47" t="s">
         <v>289</v>
@@ -14583,18 +14623,18 @@
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="62" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B165" s="47" t="s">
         <v>290</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="62" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B166" s="47" t="s">
         <v>291</v>
@@ -14603,7 +14643,7 @@
     </row>
     <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="63" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B167" s="48" t="s">
         <v>292</v>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3078" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CECB130A-D7F2-4D5C-9C07-1E20EBC953C2}"/>
+  <xr:revisionPtr revIDLastSave="3145" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8878F5-AB94-4BA2-8B5B-7AB7F954F0C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="626">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1898,6 +1898,27 @@
   </si>
   <si>
     <t>Just works like waitcomplete()</t>
+  </si>
+  <si>
+    <t>Ensure non-volatiles are non-volatile</t>
+  </si>
+  <si>
+    <t>Cannot access port number</t>
+  </si>
+  <si>
+    <t>Just changes between auto/manual</t>
+  </si>
+  <si>
+    <t>Just indicates auto or manual connection</t>
+  </si>
+  <si>
+    <t>Only prints current</t>
+  </si>
+  <si>
+    <t>Only sets if LAN is manual</t>
+  </si>
+  <si>
+    <t>Cannot set DNS on 6500</t>
   </si>
 </sst>
 </file>
@@ -2387,6 +2408,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2404,46 +2440,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2885,6 +2886,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -3135,19 +3156,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.9754601226993863E-2</c:v>
+                  <c:v>4.9079754601226995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0449897750511249E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34285714285714286</c:v>
+                  <c:v>0.34897959183673471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.815950920245399E-2</c:v>
+                  <c:v>0.1165644171779141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47950819672131145</c:v>
+                  <c:v>0.48565573770491804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,8 +4156,8 @@
   <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E402" sqref="E402"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,15 +4188,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="66" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="b">
@@ -4187,7 +4208,7 @@
       <c r="C3" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="68" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="53"/>
@@ -4196,11 +4217,11 @@
       </c>
       <c r="H3">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>7.9754601226993863E-2</v>
+        <v>4.9079754601226995E-2</v>
       </c>
       <c r="I3">
         <f>COUNTIF(C1:C522, "Not Started")</f>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4213,7 +4234,7 @@
       <c r="C4" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="54"/>
@@ -4239,7 +4260,7 @@
       <c r="C5" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="54"/>
@@ -4248,11 +4269,11 @@
       </c>
       <c r="H5">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.34285714285714286</v>
+        <v>0.34897959183673471</v>
       </c>
       <c r="I5">
         <f>COUNTIF(C3:C524, "Supported")</f>
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4265,7 +4286,7 @@
       <c r="C6" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="54" t="s">
@@ -4276,11 +4297,11 @@
       </c>
       <c r="H6">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>9.815950920245399E-2</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="I6">
         <f>COUNTIF(C4:C525, "Partial Support")</f>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4293,7 +4314,7 @@
       <c r="C7" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="67" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="54"/>
@@ -4302,11 +4323,11 @@
       </c>
       <c r="H7">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.47950819672131145</v>
+        <v>0.48565573770491804</v>
       </c>
       <c r="I7">
         <f>COUNTIF(C5:C526, "Not Supported")</f>
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4319,7 +4340,7 @@
       <c r="C8" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -4336,7 +4357,7 @@
       <c r="C9" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="54" t="s">
@@ -4353,7 +4374,7 @@
       <c r="C10" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="69" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -4370,7 +4391,7 @@
       <c r="C11" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4387,7 +4408,7 @@
       <c r="C12" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="55" t="s">
@@ -4395,10 +4416,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="b">
@@ -4548,10 +4569,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="b">
@@ -4584,10 +4605,10 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="69"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="b">
@@ -6354,7 +6375,7 @@
       <c r="D138" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="E138" s="75" t="s">
+      <c r="E138" s="66" t="s">
         <v>584</v>
       </c>
     </row>
@@ -11715,13 +11736,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B480" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D480" s="47" t="s">
         <v>433</v>
@@ -11730,13 +11751,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D481" s="47" t="s">
         <v>434</v>
@@ -11751,72 +11772,82 @@
         <v>0</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D482" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="E482" s="27"/>
+      <c r="E482" s="27" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="14" t="b">
-        <v>0</v>
+      <c r="A483" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B483" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D483" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="E483" s="27"/>
+      <c r="E483" s="27" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="14" t="b">
-        <v>0</v>
+      <c r="A484" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B484" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D484" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="E484" s="27"/>
+      <c r="E484" s="27" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="14" t="b">
+      <c r="A485" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B485" s="39" t="b">
         <v>0</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D485" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="E485" s="27"/>
+      <c r="E485" s="27" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="14" t="b">
+      <c r="A486" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B486" s="39" t="b">
         <v>0</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D486" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="E486" s="27"/>
+      <c r="E486" s="27" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="b">
@@ -11836,34 +11867,38 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="14" t="b">
-        <v>0</v>
+      <c r="A488" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B488" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D488" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="E488" s="27"/>
+      <c r="E488" s="27" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="14" t="b">
-        <v>0</v>
+      <c r="A489" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B489" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D489" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="E489" s="27"/>
+      <c r="E489" s="27" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="b">
@@ -11900,44 +11935,48 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="14" t="b">
-        <v>0</v>
+      <c r="A492" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B492" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D492" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="E492" s="27"/>
+      <c r="E492" s="27" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="14" t="b">
-        <v>0</v>
+      <c r="A493" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B493" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D493" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="E493" s="27"/>
+      <c r="E493" s="27" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="14" t="b">
-        <v>0</v>
+      <c r="A494" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B494" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D494" s="47" t="s">
         <v>447</v>
@@ -11945,34 +11984,38 @@
       <c r="E494" s="27"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="14" t="b">
-        <v>0</v>
+      <c r="A495" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B495" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D495" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="E495" s="27"/>
+      <c r="E495" s="27" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="14" t="b">
-        <v>0</v>
+      <c r="A496" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B496" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D496" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="E496" s="27"/>
+      <c r="E496" s="27" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="b">
@@ -11992,14 +12035,14 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="14" t="b">
-        <v>0</v>
+      <c r="A498" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="B498" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D498" s="47" t="s">
         <v>451</v>
@@ -12418,65 +12461,65 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A464:B467 A469:B476 A478:B505 A507:B524 A408:B462">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A507:B524 A478:B505">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C121 C123:C136 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C381:C401 C403:C406 C464:C467 C469:C476 C478:C505 C507:C524 C138:C177 C179:C199 C3:C88 C408:C462 C369:C379">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="Not Started">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C507:C524 C478:C505">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="16" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D524">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula xml:space="preserve"> AND($C3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula xml:space="preserve"> AND($C3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula xml:space="preserve"> AND($C3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula xml:space="preserve"> AND($C3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula xml:space="preserve"> AND($C3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C179:C199 C408:C462 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C138:C177 C61:C88 C274:C278 C261:C272 C14:C22 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C478:C505 C280:C299 C24:C25 C3:C12 C369:C379" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C179:C199 C408:C462 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C138:C177 C61:C88 C274:C278 C261:C272 C14:C22 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C369:C379 C280:C299 C24:C25 C3:C12 C478:C505" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12514,10 +12557,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="71" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
@@ -12576,10 +12619,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>534</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
@@ -12636,10 +12679,10 @@
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="78" t="s">
         <v>541</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
@@ -12736,10 +12779,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="79"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -12822,102 +12865,102 @@
     <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="containsText" dxfId="48" priority="46" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="59" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="60" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="61" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="62" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A15">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="34" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A26">
-    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A34">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B34">
-    <cfRule type="expression" dxfId="28" priority="47">
+    <cfRule type="expression" dxfId="26" priority="47">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="48">
+    <cfRule type="expression" dxfId="25" priority="48">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="49">
+    <cfRule type="expression" dxfId="24" priority="49">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="50">
+    <cfRule type="expression" dxfId="23" priority="50">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="51">
+    <cfRule type="expression" dxfId="22" priority="51">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="52">
+    <cfRule type="expression" dxfId="21" priority="52">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="53">
+    <cfRule type="expression" dxfId="20" priority="53">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="54">
+    <cfRule type="expression" dxfId="19" priority="54">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="55">
+    <cfRule type="expression" dxfId="18" priority="55">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="56">
+    <cfRule type="expression" dxfId="17" priority="56">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12932,10 +12975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13229,12 +13272,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>46003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C27">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13271,10 +13325,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -13322,10 +13376,10 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -13346,10 +13400,10 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -14915,51 +14969,51 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A73 A75:A106 A108:A127 A129:A136 A138:A159 A161:A167">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Not Supported">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Partial Support">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Partial Support">
       <formula>NOT(ISERROR(SEARCH("Partial Support",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B167">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula xml:space="preserve"> AND($A3 = "Not Started", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2) = 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula xml:space="preserve"> AND($A3 = "Not Supported", MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula xml:space="preserve"> AND($A3 = "Partial Support", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula xml:space="preserve"> AND($A3 = "Supported", MOD(ROW(),2) = 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula xml:space="preserve"> AND($A3 = "Working", MOD(ROW(),2) = 1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3145" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8878F5-AB94-4BA2-8B5B-7AB7F954F0C1}"/>
+  <xr:revisionPtr revIDLastSave="3293" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A94BD8-30B7-429D-8F56-1A8ABC33E9DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Customer Supported Commands" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="642">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1888,15 +1889,6 @@
     <t>May be able to get this working but would need to be very custom</t>
   </si>
   <si>
-    <t>Can do a couple simple checks</t>
-  </si>
-  <si>
-    <t>Possible but time consumiming to support</t>
-  </si>
-  <si>
-    <t>Just returns a dummy string</t>
-  </si>
-  <si>
     <t>Just works like waitcomplete()</t>
   </si>
   <si>
@@ -1919,6 +1911,63 @@
   </si>
   <si>
     <t>Cannot set DNS on 6500</t>
+  </si>
+  <si>
+    <t>Cannot control which protocol is enabled on 6500</t>
+  </si>
+  <si>
+    <t>No Ccopy function on 6500</t>
+  </si>
+  <si>
+    <t>Cannot delete files on 6500</t>
+  </si>
+  <si>
+    <t>Simply lists all file names in a specified directory in block data format, only USB availbale</t>
+  </si>
+  <si>
+    <t>Default directory not reset between instances of program, only USB availbale</t>
+  </si>
+  <si>
+    <t>Only USB availbale</t>
+  </si>
+  <si>
+    <t>Possible but time consumuming to support</t>
+  </si>
+  <si>
+    <t>Could just return a dummy string</t>
+  </si>
+  <si>
+    <t>Only CSV allowed</t>
+  </si>
+  <si>
+    <t>Auto is handled in STORE:STATE command</t>
+  </si>
+  <si>
+    <t>This is now MMEMory:STORe:STATe &lt;file&gt;[, AUTO] where if auto is specified the script name will be autoexec and run on startup, the filename parameter will be ignored, all path data is ignored</t>
+  </si>
+  <si>
+    <t>This is now MMEMory:STATe:VALid &lt;file&gt;[, AUTO] where if auto is specified the script name will be autoexec and check startup script, the filename parameter will be ignored, all path data is ignored</t>
+  </si>
+  <si>
+    <t>This is now MMEMory:LOAD:STATe &lt;file&gt;[, AUTO] where if auto is specified the script name will be autoexec and run startup script, the filename parameter will be ignored, all path data is ignored</t>
+  </si>
+  <si>
+    <t>Fix priority commands</t>
+  </si>
+  <si>
+    <t>Check resets</t>
+  </si>
+  <si>
+    <t>Clean parameter table and reusable parameters</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +2023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2151,11 +2200,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2423,6 +2509,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2440,6 +2529,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3156,19 +3250,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9079754601226995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0449897750511249E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34897959183673471</c:v>
+                  <c:v>0.37959183673469388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1165644171779141</c:v>
+                  <c:v>0.12065439672801637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48565573770491804</c:v>
+                  <c:v>0.50204918032786883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3836,16 +3930,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539564</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>65273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4155,9 +4249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4188,15 +4282,24 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="71" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="G2" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="b">
@@ -4212,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="53"/>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="83">
         <f>COUNTIF(C1:C522, "Not Started")/COUNTA(C1:C522)</f>
-        <v>4.9079754601226995E-2</v>
-      </c>
-      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
         <f>COUNTIF(C1:C522, "Not Started")</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,16 +4341,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="54"/>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="84">
         <f>COUNTIF(C2:C523, "Working")/COUNTA(C2:C523)</f>
-        <v>2.0449897750511249E-3</v>
-      </c>
-      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
         <f>COUNTIF(C2:C523, "Working")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,16 +4367,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="54"/>
-      <c r="G5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="84">
         <f>COUNTIF(C3:C524, "Supported")/COUNTA(C3:C524)</f>
-        <v>0.34897959183673471</v>
-      </c>
-      <c r="I5">
+        <v>0.37959183673469388</v>
+      </c>
+      <c r="I5" s="27">
         <f>COUNTIF(C3:C524, "Supported")</f>
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4292,19 +4395,19 @@
       <c r="E6" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="84">
         <f>COUNTIF(C4:C525, "Partial Support")/COUNTA(C4:C525)</f>
-        <v>0.1165644171779141</v>
-      </c>
-      <c r="I6">
+        <v>0.12065439672801637</v>
+      </c>
+      <c r="I6" s="27">
         <f>COUNTIF(C4:C525, "Partial Support")</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="b">
         <v>1</v>
       </c>
@@ -4318,16 +4421,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="54"/>
-      <c r="G7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="85">
         <f>COUNTIF(C5:C526, "Not Supported")/COUNTA(C5:C526)</f>
-        <v>0.48565573770491804</v>
-      </c>
-      <c r="I7">
+        <v>0.50204918032786883</v>
+      </c>
+      <c r="I7" s="28">
         <f>COUNTIF(C5:C526, "Not Supported")</f>
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4416,10 +4519,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="b">
@@ -4569,10 +4672,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="b">
@@ -4605,10 +4708,10 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="74"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="b">
@@ -9657,12 +9760,14 @@
         <v>0</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D347" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="E347" s="26"/>
+      <c r="E347" s="26" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="348" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="b">
@@ -9681,20 +9786,22 @@
         <v>614</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B349" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D349" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="E349" s="27"/>
+      <c r="E349" s="36" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="350" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="b">
@@ -9713,20 +9820,22 @@
         <v>614</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B351" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D351" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="E351" s="27"/>
+      <c r="E351" s="36" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="b">
@@ -9736,12 +9845,14 @@
         <v>0</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D352" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="E352" s="27"/>
+      <c r="E352" s="27" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="b">
@@ -9751,69 +9862,75 @@
         <v>0</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D353" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="E353" s="27"/>
+      <c r="E353" s="27" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B354" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D354" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="E354" s="27"/>
+      <c r="E354" s="27" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B355" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D355" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="E355" s="27"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B356" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D356" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="E356" s="27" t="s">
-        <v>615</v>
+      <c r="E356" s="36" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B357" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D357" s="47" t="s">
         <v>323</v>
@@ -9822,13 +9939,13 @@
     </row>
     <row r="358" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D358" s="48" t="s">
         <v>324</v>
@@ -9843,95 +9960,107 @@
         <v>325</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D360" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="E360" s="26"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="71" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D361" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="E361" s="27"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="36" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B362" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D362" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="E362" s="27"/>
+      <c r="E362" s="36" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D363" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="E363" s="27"/>
+      <c r="E363" s="27" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D364" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="E364" s="27"/>
+      <c r="E364" s="27" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B365" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D365" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E365" s="27"/>
+      <c r="E365" s="27" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="b">
@@ -9952,18 +10081,20 @@
     </row>
     <row r="367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" s="18" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D367" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="E367" s="28"/>
+      <c r="E367" s="28" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
@@ -10128,18 +10259,20 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B378" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D378" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="E378" s="27"/>
+      <c r="E378" s="27" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="16" t="b">
@@ -10272,18 +10405,18 @@
         <v>313</v>
       </c>
       <c r="E387" s="27" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B388" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D388" s="47" t="s">
         <v>351</v>
@@ -10292,13 +10425,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B389" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D389" s="47" t="s">
         <v>352</v>
@@ -10319,7 +10452,7 @@
         <v>353</v>
       </c>
       <c r="E390" s="27" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -10356,13 +10489,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B393" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D393" s="47" t="s">
         <v>323</v>
@@ -10386,13 +10519,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B395" s="39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D395" s="47" t="s">
         <v>324</v>
@@ -10452,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D399" s="47" t="s">
         <v>211</v>
@@ -10480,19 +10613,19 @@
     </row>
     <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B401" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" s="18" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D401" s="48" t="s">
         <v>361</v>
       </c>
       <c r="E401" s="28" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11139,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="C442" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D442" s="47" t="s">
         <v>396</v>
@@ -11231,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D448" s="47" t="s">
         <v>402</v>
@@ -11717,7 +11850,9 @@
       <c r="D478" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="E478" s="26"/>
+      <c r="E478" s="26" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="b">
@@ -11732,7 +11867,9 @@
       <c r="D479" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="E479" s="27"/>
+      <c r="E479" s="27" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="b">
@@ -11778,7 +11915,7 @@
         <v>435</v>
       </c>
       <c r="E482" s="27" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -11795,7 +11932,7 @@
         <v>436</v>
       </c>
       <c r="E483" s="27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -11812,7 +11949,7 @@
         <v>437</v>
       </c>
       <c r="E484" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -11829,7 +11966,7 @@
         <v>438</v>
       </c>
       <c r="E485" s="27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -11846,7 +11983,7 @@
         <v>439</v>
       </c>
       <c r="E486" s="27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -11880,7 +12017,7 @@
         <v>441</v>
       </c>
       <c r="E488" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -11897,7 +12034,7 @@
         <v>442</v>
       </c>
       <c r="E489" s="27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -11948,7 +12085,7 @@
         <v>445</v>
       </c>
       <c r="E492" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -11965,7 +12102,7 @@
         <v>446</v>
       </c>
       <c r="E493" s="27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -11997,7 +12134,7 @@
         <v>448</v>
       </c>
       <c r="E495" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -12014,7 +12151,7 @@
         <v>449</v>
       </c>
       <c r="E496" s="27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -12461,7 +12598,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A507:B524 A478:B505">
+  <conditionalFormatting sqref="A3:B12 A14:B22 A24:B25 A27:B59 A61:B88 A90:B121 A123:B136 A138:B177 A179:B199 A201:B202 A204:B223 A225:B225 A227:B234 A236:B257 A259:B259 A261:B272 A274:B278 A280:B299 A301:B310 A312:B315 A317:B318 A320:B326 A328:B345 A347:B358 A360:B367 A369:B379 A381:B401 A403:B406 A408:B462 A464:B467 A469:B476 A478:B505 A507:B524">
     <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -12469,7 +12606,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C347:C358 C360:C367 C369:C379 C381:C401 C403:C406 C408:C462 C464:C467 C469:C476 C507:C524 C478:C505">
+  <conditionalFormatting sqref="C3:C88 C90:C121 C123:C136 C138:C177 C179:C199 C201:C202 C204:C223 C225 C227:C234 C236:C257 C259 C261:C272 C274:C278 C280:C299 C301:C310 C312:C315 C317:C318 C320:C326 C328:C345 C360:C367 C369:C379 C403:C406 C408:C462 C464:C467 C469:C476 C478:C505 C507:C524 C381:C401 C347:C358">
     <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
     </cfRule>
@@ -12519,7 +12656,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C179:C199 C408:C462 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C138:C177 C61:C88 C274:C278 C261:C272 C14:C22 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C360:C367 C347:C358 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C369:C379 C280:C299 C24:C25 C3:C12 C478:C505" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C59 C179:C199 C408:C462 C301:C310 C236:C257 C201:C202 C469:C476 C225 C227:C234 C204:C223 C259 C138:C177 C61:C88 C274:C278 C261:C272 C14:C22 C317:C318 C320:C326 C312:C315 C123:C136 C90:C121 C478:C505 C360:C367 C403:C406 C381:C401 C464:C467 C328:C345 C507:C524 C369:C379 C280:C299 C24:C25 C3:C12 C347:C358" xr:uid="{E58ED157-46CA-498F-B288-3A1FB79FD036}">
       <formula1>"Not Started, Working, Supported, Partial Support, Not Supported"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12557,10 +12694,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
@@ -12619,10 +12756,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>534</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="80"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
@@ -12679,10 +12816,10 @@
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="80"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
@@ -12779,10 +12916,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="79" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="80"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -12975,10 +13112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13049,7 +13186,7 @@
         <v>481</v>
       </c>
       <c r="C6" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13214,7 +13351,7 @@
         <v>522</v>
       </c>
       <c r="C21" s="24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13277,14 +13414,47 @@
         <v>46003</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C27" s="24" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="C30" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C30">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -13325,10 +13495,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -13376,10 +13546,10 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -13400,10 +13570,10 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">

--- a/34461A to 2600.xlsx
+++ b/34461A to 2600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ralliant-my.sharepoint.com/personal/oliver_bindewald_tektronix_com/Documents/Documents/DMM6500 Emulation/34461A-Emulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3293" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A94BD8-30B7-429D-8F56-1A8ABC33E9DA}"/>
+  <xr:revisionPtr revIDLastSave="3371" documentId="11_F25DC773A252ABDACC1048A921D94B805ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6426E5C-32BB-45C5-B056-DA568FAF76E5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7935" windowWidth="16440" windowHeight="29040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported Commands" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="652">
   <si>
     <t>34461A SCPI</t>
   </si>
@@ -1622,9 +1622,6 @@
     <t>Make RQS Clear</t>
   </si>
   <si>
-    <t>Config Change Bit</t>
-  </si>
-  <si>
     <t>Status Byte Register</t>
   </si>
   <si>
@@ -1823,9 +1820,6 @@
     <t>Cannot enable/disable front USB on 6500</t>
   </si>
   <si>
-    <t>Cant change beeper on cont or diode remotely</t>
-  </si>
-  <si>
     <t>No partial seconds</t>
   </si>
   <si>
@@ -1968,6 +1962,42 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Ensure errorqueue is compliant w/ pg. 460 of 34461A manual</t>
+  </si>
+  <si>
+    <t>Review all error reporting to ensure compliance w/ 34461A</t>
+  </si>
+  <si>
+    <t>Include 3446A error table</t>
+  </si>
+  <si>
+    <t>Check Config Change Bit</t>
+  </si>
+  <si>
+    <t>There is only one errorqueue, not multiple like defined on this page</t>
+  </si>
+  <si>
+    <t>Make sure 6500 errors reported and handled</t>
+  </si>
+  <si>
+    <t>Couldn't get this to flip but this bit is being read from 6500</t>
+  </si>
+  <si>
+    <t>Verify these changes work for display string, display view, scale state</t>
+  </si>
+  <si>
+    <t>Look for other things abort may need to interrupt</t>
+  </si>
+  <si>
+    <t>Cant change beeper on cont or diode remotely, this is NOT non-volatile</t>
+  </si>
+  <si>
+    <t>This is NOT non-volatile</t>
+  </si>
+  <si>
+    <t>Clean valueparents</t>
   </si>
 </sst>
 </file>
@@ -4250,8 +4280,9 @@
   <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E446" sqref="E446"/>
+      <selection pane="bottomLeft" activeCell="E446" sqref="E446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,13 +4323,13 @@
       </c>
       <c r="E2" s="73"/>
       <c r="G2" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>641</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4447,7 +4478,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4600,7 +4631,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4634,7 +4665,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5495,7 +5526,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5512,7 +5543,7 @@
         <v>70</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,7 +5560,7 @@
         <v>71</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,7 +5577,7 @@
         <v>72</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,7 +6246,7 @@
         <v>112</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6232,7 +6263,7 @@
         <v>113</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6479,7 +6510,7 @@
         <v>509</v>
       </c>
       <c r="E138" s="66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6641,7 +6672,7 @@
         <v>138</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6658,7 +6689,7 @@
         <v>139</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6739,7 +6770,7 @@
         <v>144</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6756,7 +6787,7 @@
         <v>145</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,7 +6804,7 @@
         <v>146</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6790,7 +6821,7 @@
         <v>147</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6837,7 +6868,7 @@
         <v>150</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6854,7 +6885,7 @@
         <v>151</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,7 +6902,7 @@
         <v>152</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6888,7 +6919,7 @@
         <v>153</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,7 +6936,7 @@
         <v>154</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6922,7 +6953,7 @@
         <v>155</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6939,7 +6970,7 @@
         <v>156</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6956,7 +6987,7 @@
         <v>157</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,7 +7004,7 @@
         <v>158</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6990,7 +7021,7 @@
         <v>159</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7007,7 +7038,7 @@
         <v>160</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,7 +7055,7 @@
         <v>161</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7041,7 +7072,7 @@
         <v>162</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7058,7 +7089,7 @@
         <v>163</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7143,7 +7174,7 @@
         <v>168</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,7 +7334,7 @@
         <v>177</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7320,7 +7351,7 @@
         <v>178</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,7 +7368,7 @@
         <v>179</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,7 +7385,7 @@
         <v>180</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,7 +7402,7 @@
         <v>181</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7388,7 +7419,7 @@
         <v>182</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -7405,7 +7436,7 @@
         <v>183</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -8079,7 +8110,7 @@
         <v>208</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -8096,7 +8127,7 @@
         <v>209</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -8653,7 +8684,7 @@
         <v>241</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,7 +8701,7 @@
         <v>242</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8785,7 +8816,7 @@
         <v>250</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -8817,7 +8848,7 @@
         <v>252</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -8834,7 +8865,7 @@
         <v>253</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -8851,7 +8882,7 @@
         <v>254</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -8868,7 +8899,7 @@
         <v>255</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -8885,7 +8916,7 @@
         <v>256</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8902,7 +8933,7 @@
         <v>257</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8919,7 +8950,7 @@
         <v>258</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -8936,7 +8967,7 @@
         <v>259</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -8983,7 +9014,7 @@
         <v>262</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,7 +9031,7 @@
         <v>263</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,7 +9048,7 @@
         <v>264</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9034,7 +9065,7 @@
         <v>265</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9217,7 +9248,7 @@
         <v>278</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -9234,7 +9265,7 @@
         <v>279</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -9251,7 +9282,7 @@
         <v>280</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9268,7 +9299,7 @@
         <v>281</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9293,7 +9324,7 @@
         <v>283</v>
       </c>
       <c r="E317" s="26" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9310,7 +9341,7 @@
         <v>284</v>
       </c>
       <c r="E318" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9397,7 +9428,7 @@
         <v>290</v>
       </c>
       <c r="E324" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -9452,7 +9483,7 @@
         <v>294</v>
       </c>
       <c r="E328" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -9469,7 +9500,7 @@
         <v>295</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -9486,7 +9517,7 @@
         <v>296</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -9503,7 +9534,7 @@
         <v>297</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -9520,7 +9551,7 @@
         <v>298</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -9537,7 +9568,7 @@
         <v>299</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -9554,7 +9585,7 @@
         <v>300</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -9571,7 +9602,7 @@
         <v>301</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -9588,7 +9619,7 @@
         <v>302</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -9605,7 +9636,7 @@
         <v>303</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -9622,7 +9653,7 @@
         <v>304</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -9639,7 +9670,7 @@
         <v>305</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -9656,7 +9687,7 @@
         <v>306</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -9673,7 +9704,7 @@
         <v>307</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -9690,7 +9721,7 @@
         <v>308</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -9707,7 +9738,7 @@
         <v>309</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -9724,7 +9755,7 @@
         <v>310</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9741,7 +9772,7 @@
         <v>311</v>
       </c>
       <c r="E345" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9766,7 +9797,7 @@
         <v>313</v>
       </c>
       <c r="E347" s="26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9783,7 +9814,7 @@
         <v>314</v>
       </c>
       <c r="E348" s="36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9800,7 +9831,7 @@
         <v>315</v>
       </c>
       <c r="E349" s="36" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9817,7 +9848,7 @@
         <v>316</v>
       </c>
       <c r="E350" s="36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9834,7 +9865,7 @@
         <v>317</v>
       </c>
       <c r="E351" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -9851,7 +9882,7 @@
         <v>318</v>
       </c>
       <c r="E352" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -9868,7 +9899,7 @@
         <v>319</v>
       </c>
       <c r="E353" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -9885,7 +9916,7 @@
         <v>320</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -9902,7 +9933,7 @@
         <v>321</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9919,7 +9950,7 @@
         <v>322</v>
       </c>
       <c r="E356" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -9974,7 +10005,7 @@
         <v>326</v>
       </c>
       <c r="E360" s="71" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9991,7 +10022,7 @@
         <v>327</v>
       </c>
       <c r="E361" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10008,7 +10039,7 @@
         <v>328</v>
       </c>
       <c r="E362" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -10025,7 +10056,7 @@
         <v>329</v>
       </c>
       <c r="E363" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -10042,7 +10073,7 @@
         <v>330</v>
       </c>
       <c r="E364" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -10059,7 +10090,7 @@
         <v>331</v>
       </c>
       <c r="E365" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -10076,7 +10107,7 @@
         <v>332</v>
       </c>
       <c r="E366" s="27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10093,7 +10124,7 @@
         <v>333</v>
       </c>
       <c r="E367" s="28" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10118,7 +10149,7 @@
         <v>335</v>
       </c>
       <c r="E369" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -10135,7 +10166,7 @@
         <v>336</v>
       </c>
       <c r="E370" s="27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -10152,7 +10183,7 @@
         <v>337</v>
       </c>
       <c r="E371" s="27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -10169,7 +10200,7 @@
         <v>338</v>
       </c>
       <c r="E372" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -10186,7 +10217,7 @@
         <v>339</v>
       </c>
       <c r="E373" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -10203,7 +10234,7 @@
         <v>340</v>
       </c>
       <c r="E374" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -10220,7 +10251,7 @@
         <v>341</v>
       </c>
       <c r="E375" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -10237,7 +10268,7 @@
         <v>342</v>
       </c>
       <c r="E376" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -10254,7 +10285,7 @@
         <v>343</v>
       </c>
       <c r="E377" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -10271,7 +10302,7 @@
         <v>344</v>
       </c>
       <c r="E378" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10285,10 +10316,10 @@
         <v>497</v>
       </c>
       <c r="D379" s="48" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E379" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10313,7 +10344,7 @@
         <v>294</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -10405,7 +10436,7 @@
         <v>313</v>
       </c>
       <c r="E387" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -10452,7 +10483,7 @@
         <v>353</v>
       </c>
       <c r="E390" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -10608,7 +10639,7 @@
         <v>360</v>
       </c>
       <c r="E400" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10625,7 +10656,7 @@
         <v>361</v>
       </c>
       <c r="E401" s="28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10650,7 +10681,7 @@
         <v>363</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -10667,7 +10698,7 @@
         <v>364</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -10684,7 +10715,7 @@
         <v>365</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10701,7 +10732,7 @@
         <v>366</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10726,7 +10757,7 @@
         <v>294</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -10818,7 +10849,7 @@
         <v>373</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -10850,7 +10881,7 @@
         <v>375</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -10867,7 +10898,7 @@
         <v>376</v>
       </c>
       <c r="E417" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -10884,7 +10915,7 @@
         <v>377</v>
       </c>
       <c r="E418" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -10916,7 +10947,7 @@
         <v>378</v>
       </c>
       <c r="E420" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -10933,7 +10964,7 @@
         <v>379</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -10950,7 +10981,7 @@
         <v>380</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -10967,7 +10998,7 @@
         <v>381</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -10984,7 +11015,7 @@
         <v>382</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -11001,7 +11032,7 @@
         <v>383</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -11018,7 +11049,7 @@
         <v>384</v>
       </c>
       <c r="E426" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -11035,7 +11066,7 @@
         <v>385</v>
       </c>
       <c r="E427" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -11052,7 +11083,7 @@
         <v>386</v>
       </c>
       <c r="E428" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -11069,7 +11100,7 @@
         <v>387</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -11101,7 +11132,7 @@
         <v>309</v>
       </c>
       <c r="E431" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -11118,7 +11149,7 @@
         <v>310</v>
       </c>
       <c r="E432" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -11135,7 +11166,7 @@
         <v>311</v>
       </c>
       <c r="E433" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -11153,7 +11184,7 @@
       </c>
       <c r="E434" s="8"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="39" t="b">
         <v>1</v>
       </c>
@@ -11166,8 +11197,8 @@
       <c r="D435" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="E435" s="8" t="s">
-        <v>593</v>
+      <c r="E435" s="9" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -11199,7 +11230,7 @@
         <v>391</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -11216,7 +11247,7 @@
         <v>392</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -11278,7 +11309,7 @@
         <v>396</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -11324,7 +11355,9 @@
       <c r="D445" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="E445" s="8"/>
+      <c r="E445" s="8" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="39" t="b">
@@ -11370,7 +11403,7 @@
         <v>402</v>
       </c>
       <c r="E448" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -11387,7 +11420,7 @@
         <v>403</v>
       </c>
       <c r="E449" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -11404,7 +11437,7 @@
         <v>404</v>
       </c>
       <c r="E450" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -11421,7 +11454,7 @@
         <v>405</v>
       </c>
       <c r="E451" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -11438,7 +11471,7 @@
         <v>406</v>
       </c>
       <c r="E452" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -11470,7 +11503,7 @@
         <v>408</v>
       </c>
       <c r="E454" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -11487,7 +11520,7 @@
         <v>409</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -11504,7 +11537,7 @@
         <v>410</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -11521,7 +11554,7 @@
         <v>411</v>
       </c>
       <c r="E457" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -11538,7 +11571,7 @@
         <v>412</v>
       </c>
       <c r="E458" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -11555,7 +11588,7 @@
         <v>413</v>
       </c>
       <c r="E459" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -11572,7 +11605,7 @@
         <v>414</v>
       </c>
       <c r="E460" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -11589,7 +11622,7 @@
         <v>415</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11606,7 +11639,7 @@
         <v>360</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11631,7 +11664,7 @@
         <v>417</v>
       </c>
       <c r="E464" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -11648,7 +11681,7 @@
         <v>418</v>
       </c>
       <c r="E465" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -11665,7 +11698,7 @@
         <v>419</v>
       </c>
       <c r="E466" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11682,7 +11715,7 @@
         <v>420</v>
       </c>
       <c r="E467" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11707,7 +11740,7 @@
         <v>422</v>
       </c>
       <c r="E469" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -11724,7 +11757,7 @@
         <v>423</v>
       </c>
       <c r="E470" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -11741,7 +11774,7 @@
         <v>424</v>
       </c>
       <c r="E471" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -11758,7 +11791,7 @@
         <v>425</v>
       </c>
       <c r="E472" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -11775,7 +11808,7 @@
         <v>426</v>
       </c>
       <c r="E473" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -11792,7 +11825,7 @@
         <v>427</v>
       </c>
       <c r="E474" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -11809,7 +11842,7 @@
         <v>428</v>
       </c>
       <c r="E475" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11826,7 +11859,7 @@
         <v>429</v>
       </c>
       <c r="E476" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11851,7 +11884,7 @@
         <v>431</v>
       </c>
       <c r="E478" s="26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -11868,7 +11901,7 @@
         <v>432</v>
       </c>
       <c r="E479" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -11915,7 +11948,7 @@
         <v>435</v>
       </c>
       <c r="E482" s="27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -11932,7 +11965,7 @@
         <v>436</v>
       </c>
       <c r="E483" s="27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -11949,7 +11982,7 @@
         <v>437</v>
       </c>
       <c r="E484" s="27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -11966,7 +11999,7 @@
         <v>438</v>
       </c>
       <c r="E485" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -11983,7 +12016,7 @@
         <v>439</v>
       </c>
       <c r="E486" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -12000,7 +12033,7 @@
         <v>440</v>
       </c>
       <c r="E487" s="27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -12017,7 +12050,7 @@
         <v>441</v>
       </c>
       <c r="E488" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -12034,7 +12067,7 @@
         <v>442</v>
       </c>
       <c r="E489" s="27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -12051,7 +12084,7 @@
         <v>443</v>
       </c>
       <c r="E490" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -12068,7 +12101,7 @@
         <v>444</v>
       </c>
       <c r="E491" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -12085,7 +12118,7 @@
         <v>445</v>
       </c>
       <c r="E492" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -12102,7 +12135,7 @@
         <v>446</v>
       </c>
       <c r="E493" s="27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -12134,7 +12167,7 @@
         <v>448</v>
       </c>
       <c r="E495" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -12151,7 +12184,7 @@
         <v>449</v>
       </c>
       <c r="E496" s="27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -12168,7 +12201,7 @@
         <v>450</v>
       </c>
       <c r="E497" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -12185,7 +12218,7 @@
         <v>451</v>
       </c>
       <c r="E498" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -12202,7 +12235,7 @@
         <v>452</v>
       </c>
       <c r="E499" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -12219,7 +12252,7 @@
         <v>453</v>
       </c>
       <c r="E500" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -12236,7 +12269,7 @@
         <v>454</v>
       </c>
       <c r="E501" s="27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -12287,7 +12320,7 @@
         <v>410</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12304,7 +12337,7 @@
         <v>411</v>
       </c>
       <c r="E505" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12670,8 +12703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F460CAF1-5027-428A-BC3C-18A19A959A70}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E446" sqref="E446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12695,7 +12728,7 @@
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="73"/>
     </row>
@@ -12704,10 +12737,10 @@
         <v>498</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12715,7 +12748,7 @@
         <v>488</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -12724,7 +12757,7 @@
         <v>488</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -12733,7 +12766,7 @@
         <v>488</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -12742,7 +12775,7 @@
         <v>488</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -12751,73 +12784,75 @@
         <v>488</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="79" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C9" s="80"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>540</v>
-      </c>
-      <c r="C15" s="28"/>
+        <v>539</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="79" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C16" s="80"/>
     </row>
@@ -12826,7 +12861,7 @@
         <v>488</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="26"/>
     </row>
@@ -12835,7 +12870,7 @@
         <v>488</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="27"/>
     </row>
@@ -12844,7 +12879,7 @@
         <v>488</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="27"/>
     </row>
@@ -12853,7 +12888,7 @@
         <v>488</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C20" s="27"/>
     </row>
@@ -12862,10 +12897,10 @@
         <v>497</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12873,7 +12908,7 @@
         <v>488</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C22" s="27"/>
     </row>
@@ -12882,7 +12917,7 @@
         <v>488</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C23" s="27"/>
     </row>
@@ -12891,7 +12926,7 @@
         <v>488</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C24" s="27"/>
     </row>
@@ -12900,7 +12935,7 @@
         <v>488</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C25" s="27"/>
     </row>
@@ -12909,15 +12944,15 @@
         <v>498</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C27" s="80"/>
     </row>
@@ -12926,10 +12961,10 @@
         <v>497</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12937,7 +12972,7 @@
         <v>488</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C29" s="27"/>
     </row>
@@ -12946,10 +12981,10 @@
         <v>498</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -12957,10 +12992,10 @@
         <v>488</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -12968,10 +13003,10 @@
         <v>498</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -12979,18 +13014,18 @@
         <v>497</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C34" s="28"/>
     </row>
@@ -13112,10 +13147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDD4BD-34A9-49F2-BC5A-15978B954038}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13145,15 +13180,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>45972</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>484</v>
+      <c r="B3" s="33" t="s">
+        <v>482</v>
       </c>
       <c r="C3" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13161,29 +13196,29 @@
         <v>45972</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C4" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>45972</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>487</v>
+      <c r="B5" t="s">
+        <v>481</v>
       </c>
       <c r="C5" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>45972</v>
-      </c>
-      <c r="B6" t="s">
-        <v>481</v>
+      <c r="A6" s="34">
+        <v>45973</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="C6" s="24" t="b">
         <v>1</v>
@@ -13194,7 +13229,7 @@
         <v>45973</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C7" s="24" t="b">
         <v>1</v>
@@ -13205,7 +13240,7 @@
         <v>45973</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C8" s="24" t="b">
         <v>1</v>
@@ -13216,40 +13251,40 @@
         <v>45973</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C9" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>45973</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>494</v>
+      <c r="B10" s="37" t="s">
+        <v>495</v>
       </c>
       <c r="C10" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>45973</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>495</v>
+      <c r="A11" s="34">
+        <v>45974</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>496</v>
       </c>
       <c r="C11" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>45974</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>496</v>
+      <c r="B12" t="s">
+        <v>501</v>
       </c>
       <c r="C12" s="24" t="b">
         <v>1</v>
@@ -13257,32 +13292,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C13" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>45980</v>
       </c>
-      <c r="B14" t="s">
-        <v>505</v>
+      <c r="B14" s="37" t="s">
+        <v>506</v>
       </c>
       <c r="C14" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
-        <v>45980</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>506</v>
+        <v>45981</v>
+      </c>
+      <c r="B15" t="s">
+        <v>511</v>
       </c>
       <c r="C15" s="24" t="b">
         <v>1</v>
@@ -13293,168 +13328,232 @@
         <v>45981</v>
       </c>
       <c r="B16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C16" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B17" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C17" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C18" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>45985</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C19" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
+        <v>45986</v>
+      </c>
+      <c r="B20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="C22" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>45993</v>
+      </c>
+      <c r="B24" t="s">
+        <v>575</v>
+      </c>
+      <c r="C24" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>45985</v>
       </c>
-      <c r="B20" t="s">
-        <v>521</v>
-      </c>
-      <c r="C20" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
-        <v>45985</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="B26" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="C21" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
-        <v>45986</v>
-      </c>
-      <c r="B22" t="s">
-        <v>523</v>
-      </c>
-      <c r="C22" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
-        <v>45987</v>
-      </c>
-      <c r="B23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
-        <v>45987</v>
-      </c>
-      <c r="B24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C24" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
-        <v>45993</v>
-      </c>
-      <c r="B25" t="s">
-        <v>575</v>
-      </c>
-      <c r="C25" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
-        <v>45993</v>
-      </c>
-      <c r="B26" t="s">
-        <v>576</v>
-      </c>
       <c r="C26" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>46003</v>
       </c>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C27" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>46001</v>
       </c>
       <c r="B28" t="s">
+        <v>635</v>
+      </c>
+      <c r="C28" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>45987</v>
+      </c>
+      <c r="B29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>45987</v>
+      </c>
+      <c r="B30" t="s">
+        <v>643</v>
+      </c>
+      <c r="C30" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>45993</v>
+      </c>
+      <c r="B31" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>46001</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="C28" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="C32" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
         <v>46001</v>
       </c>
-      <c r="B29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C29" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
-        <v>46001</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="C30" s="24" t="b">
+      <c r="B33" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="C33" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>45972</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C34" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>46003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="24" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C30">
+  <conditionalFormatting sqref="C2:C35">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
